--- a/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -762,7 +768,6 @@
           <t>November 27, 2024</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-08-SHF</t>
@@ -880,7 +885,6 @@
           <t>June 11, 2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>HEALTH FACILITIES 2024 - REGION VI - BACOLOD -001</t>
@@ -982,7 +986,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -991,16 +994,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>For Posting of Advertisement for interested Bidders</t>
@@ -1322,7 +1315,6 @@
           <t>July 28, 2025</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
           <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
@@ -1440,7 +1432,6 @@
           <t>October 29, 2025</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -1917,8 +1908,6 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
           <t>2025-005</t>
@@ -1949,7 +1938,6 @@
           <t>March 31, 2025</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
           <t>Reubin L. Yap, Contractor</t>
@@ -2033,7 +2021,6 @@
           <t>June 15, 2025</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>CPB-INFRA-04-2024</t>
@@ -2273,7 +2260,6 @@
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>2024-07-ELES-001</t>
@@ -2314,7 +2300,6 @@
           <t>CGGFR Constrcution and Construction Supply</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2432,7 +2417,6 @@
           <t>A.O.S. Construction Services</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2485,7 +2469,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2494,19 +2477,9 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44848</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2559,7 +2532,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2568,10 +2540,10 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44779</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="R19" t="inlineStr">
@@ -2584,19 +2556,19 @@
           <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44635</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44648</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>44727</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2604,7 +2576,6 @@
           <t>SOLID MERCHANDISING</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2657,7 +2628,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2666,19 +2636,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44830</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2731,7 +2691,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2740,19 +2699,9 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44848</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2805,7 +2754,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2814,19 +2762,9 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44848</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2879,7 +2817,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2888,10 +2825,10 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R23" t="inlineStr">
@@ -2904,19 +2841,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="X23" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2924,7 +2861,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2977,7 +2913,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2986,10 +2921,10 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R24" t="inlineStr">
@@ -3002,19 +2937,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3022,7 +2957,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3075,7 +3009,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3084,10 +3017,10 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R25" t="inlineStr">
@@ -3100,19 +3033,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3120,7 +3053,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3173,7 +3105,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3182,10 +3113,10 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="Q26" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R26" t="inlineStr">
@@ -3198,19 +3129,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3218,7 +3149,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3271,7 +3201,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3280,10 +3209,10 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R27" t="inlineStr">
@@ -3296,19 +3225,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3316,7 +3245,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3369,7 +3297,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3378,10 +3305,10 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R28" t="inlineStr">
@@ -3394,19 +3321,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3414,7 +3341,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3467,7 +3393,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3476,10 +3401,10 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R29" t="inlineStr">
@@ -3492,19 +3417,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X29" s="2" t="n">
+      <c r="X29" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3512,7 +3437,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3565,7 +3489,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3574,10 +3497,10 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="Q30" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R30" t="inlineStr">
@@ -3590,19 +3513,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3610,7 +3533,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3663,7 +3585,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3672,10 +3593,10 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R31" t="inlineStr">
@@ -3688,19 +3609,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X31" s="2" t="n">
+      <c r="X31" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3708,7 +3629,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3761,7 +3681,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3770,10 +3689,10 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44792</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="R32" t="inlineStr">
@@ -3786,19 +3705,19 @@
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>44679</v>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="X32" s="3" t="n">
         <v>44726</v>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3806,7 +3725,6 @@
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3859,7 +3777,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3868,10 +3785,9 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
           <t>03-2002-lot3</t>
@@ -3882,19 +3798,19 @@
           <t>No.-03-C-2022</t>
         </is>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>44694</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X33" s="2" t="n">
+      <c r="X33" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3902,7 +3818,6 @@
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3955,7 +3870,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3964,10 +3878,9 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>44887</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
           <t>03-2002-lot3</t>
@@ -3978,19 +3891,19 @@
           <t>No.-03-C-2022</t>
         </is>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>44694</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="X34" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y34" t="inlineStr">
@@ -3998,7 +3911,6 @@
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4062,10 +3974,9 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -4076,19 +3987,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="X35" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4096,7 +4007,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4160,10 +4070,9 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -4174,19 +4083,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="X36" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4194,7 +4103,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4258,10 +4166,9 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
@@ -4272,19 +4179,19 @@
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="X37" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4292,7 +4199,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4356,10 +4262,9 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -4370,19 +4275,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="X38" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4390,7 +4295,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4454,10 +4358,9 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
@@ -4468,19 +4371,19 @@
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="X39" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4488,7 +4391,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4541,7 +4443,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4550,10 +4451,10 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q40" s="2" t="n">
+      <c r="Q40" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="R40" t="inlineStr">
@@ -4566,19 +4467,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="X40" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4586,7 +4487,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4639,7 +4539,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4648,10 +4547,10 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="Q41" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="R41" t="inlineStr">
@@ -4664,19 +4563,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X41" s="2" t="n">
+      <c r="X41" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4684,7 +4583,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4737,7 +4635,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4746,10 +4643,10 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="Q42" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="R42" t="inlineStr">
@@ -4762,19 +4659,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="X42" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4782,7 +4679,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4835,7 +4731,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4844,10 +4739,10 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="Q43" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="R43" t="inlineStr">
@@ -4860,19 +4755,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="X43" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4880,7 +4775,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4933,7 +4827,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4942,10 +4835,10 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="Q44" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="R44" t="inlineStr">
@@ -4958,19 +4851,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="T44" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="W44" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="X44" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4978,7 +4871,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5031,7 +4923,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5040,10 +4931,10 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="Q45" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="R45" t="inlineStr">
@@ -5056,19 +4947,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X45" s="2" t="n">
+      <c r="X45" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5076,7 +4967,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5129,7 +5019,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5138,10 +5027,10 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="P46" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="Q46" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="R46" t="inlineStr">
@@ -5154,19 +5043,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="T46" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X46" s="2" t="n">
+      <c r="X46" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5174,7 +5063,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5227,7 +5115,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5236,10 +5123,10 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="Q47" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="R47" t="inlineStr">
@@ -5252,19 +5139,19 @@
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="T47" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="U47" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="V47" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="W47" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X47" s="2" t="n">
+      <c r="X47" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5272,7 +5159,6 @@
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5325,7 +5211,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5334,17 +5219,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5397,7 +5271,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5406,17 +5279,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5469,7 +5331,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5478,17 +5339,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5541,7 +5391,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5550,17 +5399,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5613,7 +5451,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5622,17 +5459,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5685,7 +5511,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5694,17 +5519,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5757,7 +5571,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5766,17 +5579,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5829,7 +5631,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5838,17 +5639,6 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5901,7 +5691,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5910,17 +5699,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5973,7 +5751,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>completed</t>
@@ -5982,10 +5759,10 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="Q57" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="R57" t="inlineStr">
@@ -5998,13 +5775,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W57" t="inlineStr">
@@ -6012,7 +5789,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6020,7 +5797,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6073,7 +5849,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6082,10 +5857,10 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q58" s="2" t="n">
+      <c r="Q58" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="R58" t="inlineStr">
@@ -6098,13 +5873,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W58" t="inlineStr">
@@ -6112,7 +5887,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6120,7 +5895,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6173,7 +5947,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6182,17 +5955,6 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6245,7 +6007,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6254,10 +6015,10 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q60" s="2" t="n">
+      <c r="Q60" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="R60" t="inlineStr">
@@ -6270,13 +6031,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W60" t="inlineStr">
@@ -6284,7 +6045,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -6292,7 +6053,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6345,7 +6105,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6354,10 +6113,10 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q61" s="2" t="n">
+      <c r="Q61" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R61" t="inlineStr">
@@ -6370,13 +6129,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>44728</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W61" t="inlineStr">
@@ -6384,7 +6143,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6392,7 +6151,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6445,7 +6203,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6454,10 +6211,10 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R62" t="inlineStr">
@@ -6470,13 +6227,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W62" t="inlineStr">
@@ -6484,7 +6241,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -6492,7 +6249,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6545,7 +6301,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6554,10 +6309,10 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q63" s="2" t="n">
+      <c r="Q63" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R63" t="inlineStr">
@@ -6570,13 +6325,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W63" t="inlineStr">
@@ -6584,7 +6339,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -6592,7 +6347,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6645,7 +6399,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6654,10 +6407,10 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q64" s="2" t="n">
+      <c r="Q64" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R64" t="inlineStr">
@@ -6670,13 +6423,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W64" t="inlineStr">
@@ -6684,7 +6437,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -6692,7 +6445,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6745,7 +6497,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6754,10 +6505,10 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q65" s="2" t="n">
+      <c r="Q65" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R65" t="inlineStr">
@@ -6770,13 +6521,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W65" t="inlineStr">
@@ -6784,7 +6535,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X65" s="2" t="n">
+      <c r="X65" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y65" t="inlineStr">
@@ -6792,7 +6543,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6845,7 +6595,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6854,10 +6603,10 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="2" t="n">
+      <c r="P66" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q66" s="2" t="n">
+      <c r="Q66" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R66" t="inlineStr">
@@ -6870,13 +6619,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W66" t="inlineStr">
@@ -6884,7 +6633,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X66" s="2" t="n">
+      <c r="X66" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y66" t="inlineStr">
@@ -6892,7 +6641,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6945,7 +6693,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6954,17 +6701,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7017,7 +6753,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7026,17 +6761,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7100,10 +6824,9 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -7114,19 +6837,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X69" s="2" t="n">
+      <c r="X69" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y69" t="inlineStr">
@@ -7134,7 +6857,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7198,10 +6920,9 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -7212,19 +6933,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="T70" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="W70" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -7232,7 +6953,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7296,10 +7016,9 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
@@ -7310,19 +7029,19 @@
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -7330,7 +7049,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7394,10 +7112,9 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
@@ -7408,19 +7125,19 @@
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -7428,7 +7145,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7492,10 +7208,9 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>44992</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
@@ -7506,19 +7221,19 @@
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44735</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -7526,7 +7241,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7579,7 +7293,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7588,10 +7301,10 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q74" s="2" t="n">
+      <c r="Q74" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="R74" t="inlineStr">
@@ -7604,13 +7317,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W74" t="inlineStr">
@@ -7618,7 +7331,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X74" s="2" t="n">
+      <c r="X74" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y74" t="inlineStr">
@@ -7626,7 +7339,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7679,7 +7391,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7688,10 +7399,10 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="2" t="n">
+      <c r="P75" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q75" s="2" t="n">
+      <c r="Q75" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="R75" t="inlineStr">
@@ -7704,13 +7415,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W75" t="inlineStr">
@@ -7718,7 +7429,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X75" s="2" t="n">
+      <c r="X75" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y75" t="inlineStr">
@@ -7726,7 +7437,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7779,7 +7489,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7788,17 +7497,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7851,7 +7549,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7860,10 +7557,10 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P77" s="3" t="n">
         <v>45022</v>
       </c>
-      <c r="Q77" s="2" t="n">
+      <c r="Q77" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="R77" t="inlineStr">
@@ -7876,13 +7573,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T77" s="2" t="n">
+      <c r="T77" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W77" t="inlineStr">
@@ -7890,7 +7587,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X77" s="2" t="n">
+      <c r="X77" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="Y77" t="inlineStr">
@@ -7898,7 +7595,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7951,7 +7647,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7960,10 +7655,10 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P78" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="Q78" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R78" t="inlineStr">
@@ -7976,13 +7671,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T78" s="2" t="n">
+      <c r="T78" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U78" s="2" t="n">
+      <c r="U78" s="3" t="n">
         <v>44728</v>
       </c>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W78" t="inlineStr">
@@ -7990,7 +7685,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X78" s="2" t="n">
+      <c r="X78" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y78" t="inlineStr">
@@ -7998,7 +7693,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8051,7 +7745,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8060,10 +7753,10 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q79" s="2" t="n">
+      <c r="Q79" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R79" t="inlineStr">
@@ -8076,13 +7769,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="T79" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U79" s="2" t="n">
+      <c r="U79" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W79" t="inlineStr">
@@ -8090,7 +7783,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -8098,7 +7791,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8151,7 +7843,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8160,10 +7851,10 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="Q80" s="2" t="n">
+      <c r="Q80" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="R80" t="inlineStr">
@@ -8176,13 +7867,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="T80" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U80" s="2" t="n">
+      <c r="U80" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W80" t="inlineStr">
@@ -8190,7 +7881,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -8198,7 +7889,6 @@
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8251,7 +7941,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8260,10 +7949,10 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q81" s="2" t="n">
+      <c r="Q81" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R81" t="inlineStr">
@@ -8276,13 +7965,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U81" s="2" t="n">
+      <c r="U81" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W81" t="inlineStr">
@@ -8290,7 +7979,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X81" s="2" t="n">
+      <c r="X81" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y81" t="inlineStr">
@@ -8298,7 +7987,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8351,7 +8039,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8360,10 +8047,10 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q82" s="2" t="n">
+      <c r="Q82" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R82" t="inlineStr">
@@ -8376,13 +8063,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W82" t="inlineStr">
@@ -8390,7 +8077,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X82" s="2" t="n">
+      <c r="X82" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y82" t="inlineStr">
@@ -8398,7 +8085,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8451,7 +8137,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8460,10 +8145,10 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q83" s="2" t="n">
+      <c r="Q83" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="R83" t="inlineStr">
@@ -8476,13 +8161,13 @@
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="W83" t="inlineStr">
@@ -8490,7 +8175,7 @@
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -8498,7 +8183,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8551,7 +8235,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8560,17 +8243,6 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8623,7 +8295,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8632,17 +8303,79 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA85" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>3957175.63</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>2501064.38</v>
       </c>
@@ -734,11 +749,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -747,11 +757,6 @@
       <c r="K3" t="n">
         <v>4520316.75</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>3355352.91</v>
       </c>
@@ -851,11 +856,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -864,11 +864,6 @@
       <c r="K4" t="n">
         <v>3477585.56</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>2200000</v>
       </c>
@@ -968,11 +963,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -981,11 +971,6 @@
       <c r="K5" t="n">
         <v>2510592.22</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1037,11 +1022,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1050,11 +1030,6 @@
       <c r="K6" t="n">
         <v>5440093.41</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>3474057.78</v>
       </c>
@@ -1159,11 +1134,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1172,11 +1142,6 @@
       <c r="K7" t="n">
         <v>4012106.54</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>3950000</v>
       </c>
@@ -1281,11 +1246,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1294,11 +1254,6 @@
       <c r="K8" t="n">
         <v>3477585.56</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>2442997.42</v>
       </c>
@@ -1398,11 +1353,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1411,11 +1361,6 @@
       <c r="K9" t="n">
         <v>2513797.56</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>2250687.5</v>
       </c>
@@ -1477,6 +1422,11 @@
           <t>Processing of Permits</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>URBANCON Builders &amp; Supply</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1515,11 +1465,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1528,11 +1473,6 @@
       <c r="K10" t="n">
         <v>2980787.62</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>2978318.85</v>
       </c>
@@ -1637,11 +1577,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1650,11 +1585,6 @@
       <c r="K11" t="n">
         <v>3308711.07</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>2534432.95</v>
       </c>
@@ -1757,11 +1687,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1770,11 +1695,6 @@
       <c r="K12" t="n">
         <v>4426340.48</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M12" t="n">
         <v>3385971.76</v>
       </c>
@@ -1879,11 +1799,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1892,11 +1807,6 @@
       <c r="K13" t="n">
         <v>2389970.5</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M13" t="n">
         <v>2357719.21</v>
       </c>
@@ -1987,11 +1897,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2000,11 +1905,6 @@
       <c r="K14" t="n">
         <v>3477585.56</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>2493000</v>
       </c>
@@ -2104,11 +2004,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2117,11 +2012,6 @@
       <c r="K15" t="n">
         <v>2732388.66</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>2700000</v>
       </c>
@@ -2226,11 +2116,6 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2239,11 +2124,6 @@
       <c r="K16" t="n">
         <v>2980787.62</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M16" t="n">
         <v>2930085.02</v>
       </c>
@@ -2338,11 +2218,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -2351,11 +2226,6 @@
       <c r="K17" t="n">
         <v>3225253.91</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M17" t="n">
         <v>1687612.07</v>
       </c>
@@ -8306,7 +8176,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA85" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF85" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,7 +455,7 @@
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="54" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1609,25 +1609,25 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Passi City</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>311104</v>
+        <v>302806</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Efegenio Lizares National High School</t>
+          <t>Efraim M. Santibañez National High School</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>CITY OF PASSI</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">3rd </t>
+          <t xml:space="preserve">4th </t>
         </is>
       </c>
       <c r="H11" s="5" t="n">
@@ -1640,11 +1640,11 @@
         </is>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3308711.07</v>
+        <v>4426340.48</v>
       </c>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>2534432.95</v>
+        <v>3385971.76</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -1656,55 +1656,57 @@
       </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
-          <t>December 13, 2024</t>
+          <t>December 8, 2024</t>
         </is>
       </c>
       <c r="Q11" s="5" t="inlineStr">
         <is>
-          <t>December 19, 2024</t>
+          <t>December 2, 2024</t>
         </is>
       </c>
       <c r="R11" s="5" t="inlineStr">
         <is>
-          <t>24-09-001</t>
-        </is>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>12016</v>
+          <t>BEFF-PSHF</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>RO6-D14-FY2024-BEFF-CHF-EMSNHS</t>
+        </is>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
-          <t>November 11, 2023</t>
+          <t>February 12, 2024</t>
         </is>
       </c>
       <c r="U11" s="5" t="inlineStr">
         <is>
-          <t>November 27, 2023</t>
+          <t>February 21, 2024</t>
         </is>
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>December 11, 2023</t>
+          <t>March 3, 2024</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>July 25, 2024</t>
+          <t>April 5, 2024</t>
         </is>
       </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
-          <t>August 30, 2024</t>
+          <t>July 4, 2024</t>
         </is>
       </c>
       <c r="Y11" s="5" t="inlineStr">
         <is>
-          <t>Sunshine Sapphire Construction And Supply Inc</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>100% disbursement</t>
         </is>
       </c>
       <c r="AA11" s="6" t="n"/>
@@ -1722,25 +1724,25 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Passi City</t>
+          <t>Roxas City</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>302806</v>
+        <v>117666</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Efraim M. Santibañez National High School</t>
+          <t>Banica Elementary School</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>CITY OF PASSI</t>
+          <t>ROXAS CITY (Capital)</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4th </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H12" s="5" t="n">
@@ -1753,73 +1755,62 @@
         </is>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4426340.48</v>
+        <v>2389970.5</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>3385971.76</v>
+        <v>2357719.21</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>not yet started</t>
         </is>
       </c>
       <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>December 8, 2024</t>
-        </is>
-      </c>
-      <c r="Q12" s="5" t="inlineStr">
-        <is>
-          <t>December 2, 2024</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr">
         <is>
-          <t>BEFF-PSHF</t>
+          <t>2025-005</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
         <is>
-          <t>RO6-D14-FY2024-BEFF-CHF-EMSNHS</t>
+          <t>CON-2025-005</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>February 12, 2024</t>
+          <t>March 3, 2025</t>
         </is>
       </c>
       <c r="U12" s="5" t="inlineStr">
         <is>
-          <t>February 21, 2024</t>
+          <t>March 11, 2025</t>
         </is>
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>March 3, 2024</t>
+          <t>March 25, 2025</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>April 5, 2024</t>
-        </is>
-      </c>
-      <c r="X12" s="5" t="inlineStr">
-        <is>
-          <t>July 4, 2024</t>
-        </is>
-      </c>
+          <t>March 31, 2025</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>Reubin L. Yap, Contractor</t>
         </is>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
-          <t>100% disbursement</t>
+          <t>RTA send to C.O last May 20, 2025
+waiting for Sub-ARO</t>
         </is>
       </c>
       <c r="AA12" s="6" t="n"/>
@@ -1837,25 +1828,25 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Roxas City</t>
+          <t>Sagay City</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117666</v>
+        <v>117709</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Banica Elementary School</t>
+          <t>Vito Elementary School</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>ROXAS CITY (Capital)</t>
+          <t>SAGAY CITY</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t xml:space="preserve">2nd </t>
         </is>
       </c>
       <c r="H13" s="5" t="n">
@@ -1868,62 +1859,69 @@
         </is>
       </c>
       <c r="K13" s="5" t="n">
-        <v>2389970.5</v>
+        <v>3477585.56</v>
       </c>
       <c r="L13" s="5" t="inlineStr"/>
       <c r="M13" s="5" t="n">
-        <v>2357719.21</v>
+        <v>2493000</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>not yet started</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="O13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="inlineStr"/>
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>June 15, 2025</t>
+        </is>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>2025-005</t>
+          <t>CPB-INFRA-04-2024</t>
         </is>
       </c>
       <c r="S13" s="5" t="inlineStr">
         <is>
-          <t>CON-2025-005</t>
+          <t>CPB-INFRA-04-2024</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>March 3, 2025</t>
+          <t>July 23, 2024</t>
         </is>
       </c>
       <c r="U13" s="5" t="inlineStr">
         <is>
-          <t>March 11, 2025</t>
+          <t>July 30, 2024</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>March 25, 2025</t>
+          <t>August 12, 2024</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>March 31, 2025</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="inlineStr"/>
+          <t>September 28, 2024</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>January 6, 2025</t>
+        </is>
+      </c>
       <c r="Y13" s="5" t="inlineStr">
         <is>
-          <t>Reubin L. Yap, Contractor</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
-          <t>RTA send to C.O last May 20, 2025
-waiting for Sub-ARO</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="AA13" s="6" t="n"/>
@@ -1941,25 +1939,25 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Sagay City</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117709</v>
+        <v>117747</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Vito Elementary School</t>
+          <t>Greenville Elementary School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
+          <t>SAN CARLOS CITY</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H14" s="5" t="n">
@@ -1972,69 +1970,73 @@
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3477585.56</v>
+        <v>2732388.66</v>
       </c>
       <c r="L14" s="5" t="inlineStr"/>
       <c r="M14" s="5" t="n">
-        <v>2493000</v>
+        <v>2700000</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O14" s="5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P14" s="5" t="inlineStr">
         <is>
-          <t>June 15, 2025</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="inlineStr"/>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>October 21, 2024</t>
+        </is>
+      </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>CPB-INFRA-04-2024</t>
+          <t>202310-0093</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>CPB-INFRA-04-2024</t>
+          <t>10388986-2023-10-0093</t>
         </is>
       </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
-          <t>July 23, 2024</t>
+          <t>December 14, 2023</t>
         </is>
       </c>
       <c r="U14" s="5" t="inlineStr">
         <is>
-          <t>July 30, 2024</t>
+          <t>December 18, 2023</t>
         </is>
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>August 12, 2024</t>
+          <t>December 27, 2023</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
-          <t>September 28, 2024</t>
+          <t>January 18, 2024</t>
         </is>
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>January 6, 2025</t>
+          <t>May 24, 2024</t>
         </is>
       </c>
       <c r="Y14" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Valkyrie Construction</t>
         </is>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="AA14" s="6" t="n"/>
@@ -2052,25 +2054,25 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>San Carlos City</t>
+          <t>Silay City</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117747</v>
+        <v>117814</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Greenville Elementary School</t>
+          <t>Eustaquio Lopez Elementary School</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>SAN CARLOS CITY</t>
+          <t>SILAY CITY</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t xml:space="preserve">3rd </t>
         </is>
       </c>
       <c r="H15" s="5" t="n">
@@ -2083,75 +2085,67 @@
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2732388.66</v>
+        <v>2980787.62</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>2700000</v>
+        <v>2930085.02</v>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="O15" s="5" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="P15" s="5" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>October 21, 2024</t>
-        </is>
-      </c>
+          <t>May 6, 2025</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>202310-0093</t>
+          <t>2024-07-ELES-001</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>10388986-2023-10-0093</t>
+          <t>2024-C-006</t>
         </is>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
-          <t>December 14, 2023</t>
+          <t>June 29, 2024</t>
         </is>
       </c>
       <c r="U15" s="5" t="inlineStr">
         <is>
-          <t>December 18, 2023</t>
+          <t>July 7, 2024</t>
         </is>
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t>December 27, 2023</t>
+          <t>July 22, 2024</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
-          <t>January 18, 2024</t>
+          <t>August 6, 2024</t>
         </is>
       </c>
       <c r="X15" s="5" t="inlineStr">
         <is>
-          <t>May 24, 2024</t>
+          <t>January 6, 2025</t>
         </is>
       </c>
       <c r="Y15" s="5" t="inlineStr">
         <is>
-          <t>Valkyrie Construction</t>
-        </is>
-      </c>
-      <c r="Z15" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+          <t>CGGFR Constrcution and Construction Supply</t>
+        </is>
+      </c>
+      <c r="Z15" s="5" t="inlineStr"/>
       <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
@@ -2167,20 +2161,20 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Victorias City</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>117814</v>
+        <v>117430</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Eustaquio Lopez Elementary School</t>
+          <t>Doña Andrea Palanca ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>SILAY CITY</t>
+          <t>CITY OF VICTORIAS</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr">
@@ -2198,64 +2192,68 @@
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2980787.62</v>
+        <v>3225253.91</v>
       </c>
       <c r="L16" s="5" t="inlineStr"/>
       <c r="M16" s="5" t="n">
-        <v>2930085.02</v>
+        <v>1687612.07</v>
       </c>
       <c r="N16" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O16" s="5" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="P16" s="5" t="inlineStr">
         <is>
-          <t>May 6, 2025</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr"/>
+          <t>September 28, 2024</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>August 16, 2024</t>
+        </is>
+      </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>2024-07-ELES-001</t>
+          <t>School Clinic-01Carcar</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>2024-C-006</t>
+          <t>BEFF 2024-REpair of Classroom to be used / convered to School Clinic (7.00mx9.00m) at Perrelos Elementary School</t>
         </is>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
-          <t>June 29, 2024</t>
+          <t>March 13, 2024</t>
         </is>
       </c>
       <c r="U16" s="5" t="inlineStr">
         <is>
-          <t>July 7, 2024</t>
+          <t>March 19, 2024</t>
         </is>
       </c>
       <c r="V16" s="5" t="inlineStr">
         <is>
-          <t>July 22, 2024</t>
+          <t>April 3, 2024</t>
         </is>
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>August 6, 2024</t>
+          <t>April 17, 2024</t>
         </is>
       </c>
       <c r="X16" s="5" t="inlineStr">
         <is>
-          <t>January 6, 2025</t>
+          <t>June 21, 2024</t>
         </is>
       </c>
       <c r="Y16" s="5" t="inlineStr">
         <is>
-          <t>CGGFR Constrcution and Construction Supply</t>
+          <t>A.O.S. Construction Services</t>
         </is>
       </c>
       <c r="Z16" s="5" t="inlineStr"/>
@@ -2264,7 +2262,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -2274,101 +2272,65 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Victorias City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>117430</v>
+        <v>114701</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Doña Andrea Palanca ES</t>
+          <t>Bagongbayan Elementary School</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>CITY OF VICTORIAS</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
+          <t>Buruanga</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="inlineStr"/>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3225253.91</v>
-      </c>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="n">
-        <v>1687612.07</v>
-      </c>
+        <v>627587.16</v>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr"/>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>September 28, 2024</t>
-        </is>
-      </c>
-      <c r="Q17" s="5" t="inlineStr">
-        <is>
-          <t>August 16, 2024</t>
-        </is>
-      </c>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>School Clinic-01Carcar</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>BEFF 2024-REpair of Classroom to be used / convered to School Clinic (7.00mx9.00m) at Perrelos Elementary School</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>March 13, 2024</t>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>March 19, 2024</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>April 3, 2024</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>April 17, 2024</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>June 21, 2024</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="inlineStr">
-        <is>
-          <t>A.O.S. Construction Services</t>
-        </is>
-      </c>
+      <c r="P17" s="7" t="n">
+        <v>44848</v>
+      </c>
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Y17" s="5" t="inlineStr"/>
       <c r="Z17" s="5" t="inlineStr"/>
       <c r="AA17" s="6" t="n"/>
     </row>
@@ -2389,11 +2351,11 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>114701</v>
+        <v>302318</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Bagongbayan Elementary School</t>
+          <t>BURUANGA NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -2416,7 +2378,7 @@
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>627587.16</v>
+        <v>630917.76</v>
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
@@ -2426,24 +2388,48 @@
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Q18" s="5" t="inlineStr"/>
-      <c r="R18" s="5" t="inlineStr"/>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr"/>
-      <c r="V18" s="5" t="inlineStr"/>
-      <c r="W18" s="5" t="inlineStr"/>
-      <c r="X18" s="5" t="inlineStr"/>
-      <c r="Y18" s="5" t="inlineStr"/>
+        <v>44779</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>44986</v>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
+        </is>
+      </c>
+      <c r="T18" s="7" t="n">
+        <v>44628</v>
+      </c>
+      <c r="U18" s="7" t="n">
+        <v>44635</v>
+      </c>
+      <c r="V18" s="7" t="n">
+        <v>44648</v>
+      </c>
+      <c r="W18" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="X18" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="Y18" s="5" t="inlineStr">
+        <is>
+          <t>SOLID MERCHANDISING</t>
+        </is>
+      </c>
       <c r="Z18" s="5" t="inlineStr"/>
       <c r="AA18" s="6" t="n"/>
     </row>
@@ -2464,16 +2450,16 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>302318</v>
+        <v>302304</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>BURUANGA NATIONAL HIGH SCHOOL</t>
+          <t>Catalino M. Prado NHS</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>Buruanga</t>
+          <t>Lezo</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
@@ -2491,7 +2477,7 @@
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>630917.76</v>
+        <v>634502.46</v>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
@@ -2501,48 +2487,24 @@
       <c r="M19" s="5" t="inlineStr"/>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>44779</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>44986</v>
-      </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
-        </is>
-      </c>
-      <c r="T19" s="7" t="n">
-        <v>44628</v>
-      </c>
-      <c r="U19" s="7" t="n">
-        <v>44635</v>
-      </c>
-      <c r="V19" s="7" t="n">
-        <v>44648</v>
-      </c>
-      <c r="W19" s="7" t="n">
-        <v>44658</v>
-      </c>
-      <c r="X19" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>SOLID MERCHANDISING</t>
-        </is>
-      </c>
+        <v>44830</v>
+      </c>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
       <c r="Z19" s="5" t="inlineStr"/>
       <c r="AA19" s="6" t="n"/>
     </row>
@@ -2563,16 +2525,16 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>302304</v>
+        <v>114934</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Catalino M. Prado NHS</t>
+          <t>Tagas Elem. School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>Lezo</t>
+          <t>Tangalan</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
@@ -2590,7 +2552,7 @@
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>634502.46</v>
+        <v>605906.24</v>
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
@@ -2607,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>44830</v>
+        <v>44848</v>
       </c>
       <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
@@ -2638,11 +2600,11 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>114934</v>
+        <v>501181</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Tagas Elem. School</t>
+          <t>Vivo Integrated School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -2665,7 +2627,7 @@
         </is>
       </c>
       <c r="K21" s="5" t="n">
-        <v>605906.24</v>
+        <v>614740.9399999999</v>
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
@@ -2709,24 +2671,24 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>501181</v>
+        <v>114973</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Vivo Integrated School</t>
+          <t>Belison CS</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>Tangalan</t>
+          <t>Belison</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
@@ -2736,11 +2698,11 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>614740.9399999999</v>
+        <v>198277.26</v>
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
@@ -2757,17 +2719,41 @@
         <v>1</v>
       </c>
       <c r="P22" s="7" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Q22" s="5" t="inlineStr"/>
-      <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="5" t="inlineStr"/>
-      <c r="V22" s="5" t="inlineStr"/>
-      <c r="W22" s="5" t="inlineStr"/>
-      <c r="X22" s="5" t="inlineStr"/>
-      <c r="Y22" s="5" t="inlineStr"/>
+        <v>44792</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>44790</v>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V22" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W22" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X22" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="Y22" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
       <c r="Z22" s="5" t="inlineStr"/>
       <c r="AA22" s="6" t="n"/>
     </row>
@@ -2788,11 +2774,11 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>114973</v>
+        <v>114976</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Belison CS</t>
+          <t>Concepcion ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
@@ -2887,11 +2873,11 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>114976</v>
+        <v>302347</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Concepcion ES</t>
+          <t>Belison NS</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
@@ -2910,11 +2896,11 @@
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>198277.26</v>
+        <v>200034.47</v>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
@@ -2986,16 +2972,16 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>302347</v>
+        <v>115130</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Belison NS</t>
+          <t>Libertad Central School</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>Belison</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G25" s="5" t="n">
@@ -3009,11 +2995,11 @@
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>200034.47</v>
+        <v>198277.26</v>
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
@@ -3085,11 +3071,11 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>115130</v>
+        <v>115133</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Libertad Central School</t>
+          <t>Paz ES</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
@@ -3108,11 +3094,11 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>198277.26</v>
+        <v>148181.01</v>
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
@@ -3184,11 +3170,11 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>115133</v>
+        <v>115136</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Paz ES</t>
+          <t>San Roque ES</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
@@ -3207,11 +3193,11 @@
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>148181.01</v>
+        <v>198277.26</v>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
@@ -3283,11 +3269,11 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>115136</v>
+        <v>115138</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>San Roque ES</t>
+          <t>Tinigbas ES</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -3310,7 +3296,7 @@
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>198277.26</v>
+        <v>200217.28</v>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
@@ -3382,11 +3368,11 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>115138</v>
+        <v>115140</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Tinigbas ES</t>
+          <t>Union ES</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -3409,7 +3395,7 @@
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>200217.28</v>
+        <v>198277.26</v>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
@@ -3481,11 +3467,11 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>115140</v>
+        <v>302363</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Union ES</t>
+          <t>Libertad NVS</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -3504,11 +3490,11 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>198277.26</v>
+        <v>200034.47</v>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
@@ -3580,11 +3566,11 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>302363</v>
+        <v>302383</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Libertad NVS</t>
+          <t>Union NHS</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -3675,20 +3661,20 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>302383</v>
+        <v>115851</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Union NHS</t>
+          <t>Fiscal Jose M. Zambarrano, Sr. Memorial School</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>San Lorenzo (Buenavista III)</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
@@ -3702,11 +3688,11 @@
       </c>
       <c r="J32" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
         </is>
       </c>
       <c r="K32" s="5" t="n">
-        <v>200034.47</v>
+        <v>413873.68</v>
       </c>
       <c r="L32" s="5" t="inlineStr">
         <is>
@@ -3723,39 +3709,37 @@
         <v>1</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q32" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44887</v>
+      </c>
+      <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>03-2002-lot3</t>
         </is>
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-03-C-2022</t>
         </is>
       </c>
       <c r="T32" s="7" t="n">
-        <v>44637</v>
+        <v>44694</v>
       </c>
       <c r="U32" s="7" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="V32" s="7" t="n">
-        <v>44658</v>
+        <v>44726</v>
       </c>
       <c r="W32" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X32" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y32" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Z32" s="5" t="inlineStr"/>
@@ -3778,11 +3762,11 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>115851</v>
+        <v>115857</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Fiscal Jose M. Zambarrano, Sr. Memorial School</t>
+          <t>Silvestra Galarpe Melgar Memorial School</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
@@ -3875,20 +3859,20 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>115857</v>
+        <v>115849</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Silvestra Galarpe Melgar Memorial School</t>
+          <t>Constancia Elementary School</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>San Lorenzo (Buenavista III)</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>1</v>
@@ -3898,18 +3882,20 @@
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K34" s="5" t="n">
-        <v>413873.68</v>
+        <v>2324096.02</v>
       </c>
       <c r="L34" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M34" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M34" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3919,27 +3905,27 @@
         <v>1</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>44887</v>
+        <v>44992</v>
       </c>
       <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr">
         <is>
-          <t>03-2002-lot3</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>No.-03-C-2022</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T34" s="7" t="n">
-        <v>44694</v>
+        <v>44704</v>
       </c>
       <c r="U34" s="7" t="n">
-        <v>44706</v>
+        <v>44721</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>44726</v>
+        <v>44735</v>
       </c>
       <c r="W34" s="7" t="n">
         <v>44743</v>
@@ -3949,7 +3935,7 @@
       </c>
       <c r="Y34" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z34" s="5" t="inlineStr"/>
@@ -3972,11 +3958,11 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>115849</v>
+        <v>115850</v>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>Constancia Elementary School</t>
+          <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
@@ -3999,7 +3985,7 @@
         </is>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2324096.02</v>
+        <v>2361288.64</v>
       </c>
       <c r="L35" s="5" t="inlineStr">
         <is>
@@ -4071,11 +4057,11 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>115850</v>
+        <v>115854</v>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Doña Lucia C. Locsin Memorial School</t>
+          <t>San Enrique Elementary School</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
@@ -4098,7 +4084,7 @@
         </is>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2361288.64</v>
+        <v>2342692.33</v>
       </c>
       <c r="L36" s="5" t="inlineStr">
         <is>
@@ -4106,7 +4092,7 @@
         </is>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2334753.36</v>
+        <v>2320995.12</v>
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
@@ -4122,12 +4108,12 @@
       <c r="Q36" s="5" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S36" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T36" s="7" t="n">
@@ -4170,11 +4156,11 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>115854</v>
+        <v>302437</v>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>San Enrique Elementary School</t>
+          <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
@@ -4197,7 +4183,7 @@
         </is>
       </c>
       <c r="K37" s="5" t="n">
-        <v>2342692.33</v>
+        <v>2370586.79</v>
       </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
@@ -4205,7 +4191,7 @@
         </is>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2320995.12</v>
+        <v>2334753.36</v>
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
@@ -4221,12 +4207,12 @@
       <c r="Q37" s="5" t="inlineStr"/>
       <c r="R37" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S37" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T37" s="7" t="n">
@@ -4269,11 +4255,11 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>302437</v>
+        <v>302439</v>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Dr. Catalino Gallego Nava Memorial High School</t>
+          <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
@@ -4296,7 +4282,7 @@
         </is>
       </c>
       <c r="K38" s="5" t="n">
-        <v>2370586.79</v>
+        <v>2351990.84</v>
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
@@ -4304,7 +4290,7 @@
         </is>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2334753.36</v>
+        <v>2320995.12</v>
       </c>
       <c r="N38" s="5" t="inlineStr">
         <is>
@@ -4320,12 +4306,12 @@
       <c r="Q38" s="5" t="inlineStr"/>
       <c r="R38" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S38" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T38" s="7" t="n">
@@ -4364,24 +4350,24 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>302439</v>
+        <v>116107</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Remedios E. Vilches-San Lorenzo National High School</t>
+          <t>Cairohan PS</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Bingawan</t>
         </is>
       </c>
       <c r="G39" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>1</v>
@@ -4391,20 +4377,18 @@
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K39" s="5" t="n">
-        <v>2351990.84</v>
+        <v>225574.55</v>
       </c>
       <c r="L39" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M39" s="5" t="inlineStr"/>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4414,37 +4398,39 @@
         <v>1</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q39" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q39" s="7" t="n">
+        <v>45007</v>
+      </c>
       <c r="R39" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="S39" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="T39" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U39" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V39" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W39" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X39" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y39" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z39" s="5" t="inlineStr"/>
@@ -4467,11 +4453,11 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>116107</v>
+        <v>116109</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Cairohan PS</t>
+          <t>Guinhulacan ES</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
@@ -4494,7 +4480,7 @@
         </is>
       </c>
       <c r="K40" s="5" t="n">
-        <v>225574.55</v>
+        <v>225034.27</v>
       </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
@@ -4566,11 +4552,11 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>116109</v>
+        <v>116111</v>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Guinhulacan ES</t>
+          <t>Maganhop PS</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -4593,7 +4579,7 @@
         </is>
       </c>
       <c r="K41" s="5" t="n">
-        <v>225034.27</v>
+        <v>226924.27</v>
       </c>
       <c r="L41" s="5" t="inlineStr">
         <is>
@@ -4665,11 +4651,11 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>116111</v>
+        <v>116112</v>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Maganhop PS</t>
+          <t>Malitbog Ilawod PS</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
@@ -4692,7 +4678,7 @@
         </is>
       </c>
       <c r="K42" s="5" t="n">
-        <v>226924.27</v>
+        <v>226414.55</v>
       </c>
       <c r="L42" s="5" t="inlineStr">
         <is>
@@ -4764,16 +4750,16 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>116112</v>
+        <v>116594</v>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Malitbog Ilawod PS</t>
+          <t>Abat Elementary School</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>Bingawan</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="G43" s="5" t="n">
@@ -4791,7 +4777,7 @@
         </is>
       </c>
       <c r="K43" s="5" t="n">
-        <v>226414.55</v>
+        <v>221494.83</v>
       </c>
       <c r="L43" s="5" t="inlineStr">
         <is>
@@ -4811,16 +4797,16 @@
         <v>45007</v>
       </c>
       <c r="Q43" s="7" t="n">
-        <v>45007</v>
+        <v>45001</v>
       </c>
       <c r="R43" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="S43" s="5" t="inlineStr">
         <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="T43" s="7" t="n">
@@ -4863,11 +4849,11 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>116594</v>
+        <v>116595</v>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>Abat Elementary School</t>
+          <t>Agmanaphao Elementary School</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
@@ -4890,7 +4876,7 @@
         </is>
       </c>
       <c r="K44" s="5" t="n">
-        <v>221494.83</v>
+        <v>226278.99</v>
       </c>
       <c r="L44" s="5" t="inlineStr">
         <is>
@@ -4962,11 +4948,11 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>116595</v>
+        <v>116600</v>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Agmanaphao Elementary School</t>
+          <t>Dala-Singay Elementary School</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
@@ -4989,7 +4975,7 @@
         </is>
       </c>
       <c r="K45" s="5" t="n">
-        <v>226278.99</v>
+        <v>228573.71</v>
       </c>
       <c r="L45" s="5" t="inlineStr">
         <is>
@@ -5061,11 +5047,11 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>116600</v>
+        <v>116604</v>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Dala-Singay Elementary School</t>
+          <t>Tipolo Elementary School</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
@@ -5088,7 +5074,7 @@
         </is>
       </c>
       <c r="K46" s="5" t="n">
-        <v>228573.71</v>
+        <v>228033.43</v>
       </c>
       <c r="L46" s="5" t="inlineStr">
         <is>
@@ -5160,20 +5146,20 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>116604</v>
+        <v>116092</v>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>Tipolo Elementary School</t>
+          <t>Batad CES</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>1</v>
@@ -5187,7 +5173,7 @@
         </is>
       </c>
       <c r="K47" s="5" t="n">
-        <v>228033.43</v>
+        <v>226338.15</v>
       </c>
       <c r="L47" s="5" t="inlineStr">
         <is>
@@ -5203,42 +5189,16 @@
       <c r="O47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q47" s="7" t="n">
-        <v>45001</v>
-      </c>
-      <c r="R47" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="S47" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="T47" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U47" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V47" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W47" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X47" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y47" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P47" s="5" t="inlineStr"/>
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="inlineStr"/>
+      <c r="T47" s="5" t="inlineStr"/>
+      <c r="U47" s="5" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr"/>
+      <c r="W47" s="5" t="inlineStr"/>
+      <c r="X47" s="5" t="inlineStr"/>
+      <c r="Y47" s="5" t="inlineStr"/>
       <c r="Z47" s="5" t="inlineStr"/>
       <c r="AA47" s="6" t="n"/>
     </row>
@@ -5259,11 +5219,11 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>116092</v>
+        <v>116096</v>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>Batad CES</t>
+          <t>Calangag PS</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
@@ -5286,7 +5246,7 @@
         </is>
       </c>
       <c r="K48" s="5" t="n">
-        <v>226338.15</v>
+        <v>221630.39</v>
       </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
@@ -5332,11 +5292,11 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>116096</v>
+        <v>116101</v>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>Calangag PS</t>
+          <t>Tanao ES</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
@@ -5359,7 +5319,7 @@
         </is>
       </c>
       <c r="K49" s="5" t="n">
-        <v>221630.39</v>
+        <v>224839.55</v>
       </c>
       <c r="L49" s="5" t="inlineStr">
         <is>
@@ -5405,11 +5365,11 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>116101</v>
+        <v>501483</v>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>Tanao ES</t>
+          <t>Bulak Integrated School</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
@@ -5432,7 +5392,7 @@
         </is>
       </c>
       <c r="K50" s="5" t="n">
-        <v>224839.55</v>
+        <v>229098.71</v>
       </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
@@ -5478,11 +5438,11 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>501483</v>
+        <v>501484</v>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>Bulak Integrated School</t>
+          <t>Embarcadero Integrated School</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
@@ -5505,7 +5465,7 @@
         </is>
       </c>
       <c r="K51" s="5" t="n">
-        <v>229098.71</v>
+        <v>227328.99</v>
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
@@ -5551,16 +5511,16 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>501484</v>
+        <v>116759</v>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>Embarcadero Integrated School</t>
+          <t>Aripdip Elementary School</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
@@ -5578,7 +5538,7 @@
         </is>
       </c>
       <c r="K52" s="5" t="n">
-        <v>227328.99</v>
+        <v>223848.71</v>
       </c>
       <c r="L52" s="5" t="inlineStr">
         <is>
@@ -5624,11 +5584,11 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>116759</v>
+        <v>116762</v>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>Aripdip Elementary School</t>
+          <t>Calaigang ES</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
@@ -5651,7 +5611,7 @@
         </is>
       </c>
       <c r="K53" s="5" t="n">
-        <v>223848.71</v>
+        <v>225093.43</v>
       </c>
       <c r="L53" s="5" t="inlineStr">
         <is>
@@ -5697,11 +5657,11 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>116762</v>
+        <v>116768</v>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>Calaigang ES</t>
+          <t>San Rafael CS</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
@@ -5724,7 +5684,7 @@
         </is>
       </c>
       <c r="K54" s="5" t="n">
-        <v>225093.43</v>
+        <v>218869.83</v>
       </c>
       <c r="L54" s="5" t="inlineStr">
         <is>
@@ -5770,11 +5730,11 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>116768</v>
+        <v>302569</v>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>San Rafael CS</t>
+          <t>San Rafael NHS (San Rafael)</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
@@ -5797,7 +5757,7 @@
         </is>
       </c>
       <c r="K55" s="5" t="n">
-        <v>218869.83</v>
+        <v>222603.99</v>
       </c>
       <c r="L55" s="5" t="inlineStr">
         <is>
@@ -5843,59 +5803,87 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>302569</v>
+        <v>116090</v>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>San Rafael NHS (San Rafael)</t>
+          <t>Alapasco Primary School</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J56" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K56" s="5" t="n">
-        <v>222603.99</v>
+        <v>563426.58</v>
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M56" s="5" t="inlineStr"/>
       <c r="N56" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="5" t="inlineStr"/>
-      <c r="Q56" s="5" t="inlineStr"/>
-      <c r="R56" s="5" t="inlineStr"/>
-      <c r="S56" s="5" t="inlineStr"/>
-      <c r="T56" s="5" t="inlineStr"/>
-      <c r="U56" s="5" t="inlineStr"/>
-      <c r="V56" s="5" t="inlineStr"/>
-      <c r="W56" s="5" t="inlineStr"/>
-      <c r="X56" s="5" t="inlineStr"/>
-      <c r="Y56" s="5" t="inlineStr"/>
+      <c r="P56" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q56" s="7" t="n">
+        <v>44995</v>
+      </c>
+      <c r="R56" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S56" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T56" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U56" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V56" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W56" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X56" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y56" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z56" s="5" t="inlineStr"/>
       <c r="AA56" s="6" t="n"/>
     </row>
@@ -5916,11 +5904,11 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>116090</v>
+        <v>116091</v>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>Alapasco Primary School</t>
+          <t>Banban PS</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
@@ -5943,7 +5931,7 @@
         </is>
       </c>
       <c r="K57" s="5" t="n">
-        <v>563426.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
@@ -5953,7 +5941,7 @@
       <c r="M57" s="5" t="inlineStr"/>
       <c r="N57" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O57" s="5" t="n">
@@ -5963,7 +5951,7 @@
         <v>45022</v>
       </c>
       <c r="Q57" s="7" t="n">
-        <v>44995</v>
+        <v>45107</v>
       </c>
       <c r="R57" s="5" t="inlineStr">
         <is>
@@ -6017,16 +6005,16 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>116091</v>
+        <v>116093</v>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>Banban PS</t>
+          <t>Binon-an ES</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
@@ -6036,15 +6024,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K58" s="5" t="n">
-        <v>568676.58</v>
+        <v>227659.27</v>
       </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
@@ -6060,44 +6048,16 @@
       <c r="O58" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="7" t="n">
-        <v>45022</v>
-      </c>
-      <c r="Q58" s="7" t="n">
-        <v>45107</v>
-      </c>
-      <c r="R58" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="S58" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="T58" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U58" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V58" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W58" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X58" s="7" t="n">
-        <v>44902</v>
-      </c>
-      <c r="Y58" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
+      <c r="P58" s="5" t="inlineStr"/>
+      <c r="Q58" s="5" t="inlineStr"/>
+      <c r="R58" s="5" t="inlineStr"/>
+      <c r="S58" s="5" t="inlineStr"/>
+      <c r="T58" s="5" t="inlineStr"/>
+      <c r="U58" s="5" t="inlineStr"/>
+      <c r="V58" s="5" t="inlineStr"/>
+      <c r="W58" s="5" t="inlineStr"/>
+      <c r="X58" s="5" t="inlineStr"/>
+      <c r="Y58" s="5" t="inlineStr"/>
       <c r="Z58" s="5" t="inlineStr"/>
       <c r="AA58" s="6" t="n"/>
     </row>
@@ -6118,16 +6078,16 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>116093</v>
+        <v>180021</v>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>Binon-an ES</t>
+          <t>Sta. Ana PS</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G59" s="5" t="n">
@@ -6137,15 +6097,15 @@
         <v>1</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K59" s="5" t="n">
-        <v>227659.27</v>
+        <v>573926.58</v>
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
@@ -6161,16 +6121,44 @@
       <c r="O59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="5" t="inlineStr"/>
-      <c r="Q59" s="5" t="inlineStr"/>
-      <c r="R59" s="5" t="inlineStr"/>
-      <c r="S59" s="5" t="inlineStr"/>
-      <c r="T59" s="5" t="inlineStr"/>
-      <c r="U59" s="5" t="inlineStr"/>
-      <c r="V59" s="5" t="inlineStr"/>
-      <c r="W59" s="5" t="inlineStr"/>
-      <c r="X59" s="5" t="inlineStr"/>
-      <c r="Y59" s="5" t="inlineStr"/>
+      <c r="P59" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q59" s="7" t="n">
+        <v>44995</v>
+      </c>
+      <c r="R59" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S59" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T59" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U59" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="V59" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W59" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X59" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y59" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z59" s="5" t="inlineStr"/>
       <c r="AA59" s="6" t="n"/>
     </row>
@@ -6191,16 +6179,16 @@
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>180021</v>
+        <v>116113</v>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>Sta. Ana PS</t>
+          <t>Ngingi-an PS</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
@@ -6235,26 +6223,26 @@
         <v>1</v>
       </c>
       <c r="P60" s="7" t="n">
-        <v>45022</v>
+        <v>45030</v>
       </c>
       <c r="Q60" s="7" t="n">
-        <v>44995</v>
+        <v>45030</v>
       </c>
       <c r="R60" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="S60" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="T60" s="7" t="n">
         <v>44715</v>
       </c>
       <c r="U60" s="7" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="V60" s="7" t="n">
         <v>44739</v>
@@ -6265,11 +6253,11 @@
         </is>
       </c>
       <c r="X60" s="7" t="n">
-        <v>44902</v>
+        <v>44910</v>
       </c>
       <c r="Y60" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z60" s="5" t="inlineStr"/>
@@ -6292,11 +6280,11 @@
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>116113</v>
+        <v>116115</v>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Ngingi-an PS</t>
+          <t>Quinar-upan Elementary School</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
@@ -6319,7 +6307,7 @@
         </is>
       </c>
       <c r="K61" s="5" t="n">
-        <v>573926.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
@@ -6355,7 +6343,7 @@
         <v>44715</v>
       </c>
       <c r="U61" s="7" t="n">
-        <v>44728</v>
+        <v>44726</v>
       </c>
       <c r="V61" s="7" t="n">
         <v>44739</v>
@@ -6393,11 +6381,11 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>116115</v>
+        <v>116116</v>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>Quinar-upan Elementary School</t>
+          <t>Tapacon Elementary School</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
@@ -6494,16 +6482,16 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>116116</v>
+        <v>116601</v>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>Tapacon Elementary School</t>
+          <t>Janipa-an Elementary School</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G63" s="5" t="n">
@@ -6521,7 +6509,7 @@
         </is>
       </c>
       <c r="K63" s="5" t="n">
-        <v>568676.58</v>
+        <v>558176.58</v>
       </c>
       <c r="L63" s="5" t="inlineStr">
         <is>
@@ -6538,19 +6526,19 @@
         <v>1</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="Q63" s="7" t="n">
-        <v>45030</v>
+        <v>45012</v>
       </c>
       <c r="R63" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S63" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T63" s="7" t="n">
@@ -6568,11 +6556,11 @@
         </is>
       </c>
       <c r="X63" s="7" t="n">
-        <v>44910</v>
+        <v>44908</v>
       </c>
       <c r="Y63" s="5" t="inlineStr">
         <is>
-          <t>WILKINSON CONSTRUCTION</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z63" s="5" t="inlineStr"/>
@@ -6595,11 +6583,11 @@
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>116601</v>
+        <v>116603</v>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Janipa-an Elementary School</t>
+          <t>Nasirum Elementary School</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
@@ -6696,11 +6684,11 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>116603</v>
+        <v>137024</v>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>Nasirum Elementary School</t>
+          <t>Yugot Elementary School</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
@@ -6723,7 +6711,7 @@
         </is>
       </c>
       <c r="K65" s="5" t="n">
-        <v>558176.58</v>
+        <v>563426.58</v>
       </c>
       <c r="L65" s="5" t="inlineStr">
         <is>
@@ -6797,16 +6785,16 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>137024</v>
+        <v>116763</v>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>Yugot Elementary School</t>
+          <t>Ilongbukid E/S</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -6824,7 +6812,7 @@
         </is>
       </c>
       <c r="K66" s="5" t="n">
-        <v>563426.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L66" s="5" t="inlineStr">
         <is>
@@ -6840,44 +6828,16 @@
       <c r="O66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q66" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="R66" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="S66" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="T66" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U66" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V66" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W66" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X66" s="7" t="n">
-        <v>44908</v>
-      </c>
-      <c r="Y66" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
+      <c r="P66" s="5" t="inlineStr"/>
+      <c r="Q66" s="5" t="inlineStr"/>
+      <c r="R66" s="5" t="inlineStr"/>
+      <c r="S66" s="5" t="inlineStr"/>
+      <c r="T66" s="5" t="inlineStr"/>
+      <c r="U66" s="5" t="inlineStr"/>
+      <c r="V66" s="5" t="inlineStr"/>
+      <c r="W66" s="5" t="inlineStr"/>
+      <c r="X66" s="5" t="inlineStr"/>
+      <c r="Y66" s="5" t="inlineStr"/>
       <c r="Z66" s="5" t="inlineStr"/>
       <c r="AA66" s="6" t="n"/>
     </row>
@@ -6898,11 +6858,11 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>116763</v>
+        <v>116767</v>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>Ilongbukid E/S</t>
+          <t>San Florentino ES</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
@@ -6967,20 +6927,20 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>116767</v>
+        <v>115849</v>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>San Florentino ES</t>
+          <t>Constancia Elementary School</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -6990,22 +6950,24 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K68" s="5" t="n">
-        <v>568676.58</v>
+        <v>2324096.02</v>
       </c>
       <c r="L68" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" s="5" t="inlineStr"/>
+      <c r="M68" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N68" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7014,16 +6976,40 @@
       <c r="O68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="5" t="inlineStr"/>
+      <c r="P68" s="7" t="n">
+        <v>44992</v>
+      </c>
       <c r="Q68" s="5" t="inlineStr"/>
-      <c r="R68" s="5" t="inlineStr"/>
-      <c r="S68" s="5" t="inlineStr"/>
-      <c r="T68" s="5" t="inlineStr"/>
-      <c r="U68" s="5" t="inlineStr"/>
-      <c r="V68" s="5" t="inlineStr"/>
-      <c r="W68" s="5" t="inlineStr"/>
-      <c r="X68" s="5" t="inlineStr"/>
-      <c r="Y68" s="5" t="inlineStr"/>
+      <c r="R68" s="5" t="inlineStr">
+        <is>
+          <t>05-2022-lot 1</t>
+        </is>
+      </c>
+      <c r="S68" s="5" t="inlineStr">
+        <is>
+          <t>No.-04-A-2022</t>
+        </is>
+      </c>
+      <c r="T68" s="7" t="n">
+        <v>44704</v>
+      </c>
+      <c r="U68" s="7" t="n">
+        <v>44721</v>
+      </c>
+      <c r="V68" s="7" t="n">
+        <v>44735</v>
+      </c>
+      <c r="W68" s="7" t="n">
+        <v>44743</v>
+      </c>
+      <c r="X68" s="7" t="n">
+        <v>44837</v>
+      </c>
+      <c r="Y68" s="5" t="inlineStr">
+        <is>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
       <c r="Z68" s="5" t="inlineStr"/>
       <c r="AA68" s="6" t="n"/>
     </row>
@@ -7044,11 +7030,11 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>115849</v>
+        <v>115850</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Constancia Elementary School</t>
+          <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
@@ -7071,7 +7057,7 @@
         </is>
       </c>
       <c r="K69" s="5" t="n">
-        <v>2324096.02</v>
+        <v>2361288.64</v>
       </c>
       <c r="L69" s="5" t="inlineStr">
         <is>
@@ -7143,11 +7129,11 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>115850</v>
+        <v>115854</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>Doña Lucia C. Locsin Memorial School</t>
+          <t>San Enrique  Elementary School</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
@@ -7170,7 +7156,7 @@
         </is>
       </c>
       <c r="K70" s="5" t="n">
-        <v>2361288.64</v>
+        <v>2342692.33</v>
       </c>
       <c r="L70" s="5" t="inlineStr">
         <is>
@@ -7178,7 +7164,7 @@
         </is>
       </c>
       <c r="M70" s="5" t="n">
-        <v>2334753.36</v>
+        <v>2320995.12</v>
       </c>
       <c r="N70" s="5" t="inlineStr">
         <is>
@@ -7194,12 +7180,12 @@
       <c r="Q70" s="5" t="inlineStr"/>
       <c r="R70" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S70" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T70" s="7" t="n">
@@ -7242,11 +7228,11 @@
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>115854</v>
+        <v>302437</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>San Enrique  Elementary School</t>
+          <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
@@ -7269,7 +7255,7 @@
         </is>
       </c>
       <c r="K71" s="5" t="n">
-        <v>2342692.33</v>
+        <v>2370586.79</v>
       </c>
       <c r="L71" s="5" t="inlineStr">
         <is>
@@ -7277,7 +7263,7 @@
         </is>
       </c>
       <c r="M71" s="5" t="n">
-        <v>2320995.12</v>
+        <v>2334753.36</v>
       </c>
       <c r="N71" s="5" t="inlineStr">
         <is>
@@ -7293,12 +7279,12 @@
       <c r="Q71" s="5" t="inlineStr"/>
       <c r="R71" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S71" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T71" s="7" t="n">
@@ -7341,11 +7327,11 @@
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>302437</v>
+        <v>302439</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Dr. Catalino Gallego Nava Memorial High School</t>
+          <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
@@ -7368,7 +7354,7 @@
         </is>
       </c>
       <c r="K72" s="5" t="n">
-        <v>2370586.79</v>
+        <v>2351990.84</v>
       </c>
       <c r="L72" s="5" t="inlineStr">
         <is>
@@ -7376,7 +7362,7 @@
         </is>
       </c>
       <c r="M72" s="5" t="n">
-        <v>2334753.36</v>
+        <v>2320995.12</v>
       </c>
       <c r="N72" s="5" t="inlineStr">
         <is>
@@ -7392,12 +7378,12 @@
       <c r="Q72" s="5" t="inlineStr"/>
       <c r="R72" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S72" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T72" s="7" t="n">
@@ -7436,20 +7422,20 @@
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>302439</v>
+        <v>116090</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>Remedios E. Vilches-San Lorenzo National High School</t>
+          <t>Alapasco Primary School</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G73" s="5" t="n">
@@ -7459,64 +7445,66 @@
         <v>1</v>
       </c>
       <c r="I73" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K73" s="5" t="n">
-        <v>2351990.84</v>
+        <v>563426.58</v>
       </c>
       <c r="L73" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M73" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+      <c r="M73" s="5" t="inlineStr"/>
       <c r="N73" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O73" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q73" s="5" t="inlineStr"/>
+        <v>45022</v>
+      </c>
+      <c r="Q73" s="7" t="n">
+        <v>44995</v>
+      </c>
       <c r="R73" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="S73" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="T73" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U73" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V73" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W73" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W73" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X73" s="7" t="n">
-        <v>44837</v>
+        <v>44902</v>
       </c>
       <c r="Y73" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="Z73" s="5" t="inlineStr"/>
@@ -7539,11 +7527,11 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>116090</v>
+        <v>116091</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Alapasco Primary School</t>
+          <t>Banban PS</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
@@ -7566,7 +7554,7 @@
         </is>
       </c>
       <c r="K74" s="5" t="n">
-        <v>563426.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L74" s="5" t="inlineStr">
         <is>
@@ -7576,7 +7564,7 @@
       <c r="M74" s="5" t="inlineStr"/>
       <c r="N74" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O74" s="5" t="n">
@@ -7586,7 +7574,7 @@
         <v>45022</v>
       </c>
       <c r="Q74" s="7" t="n">
-        <v>44995</v>
+        <v>45107</v>
       </c>
       <c r="R74" s="5" t="inlineStr">
         <is>
@@ -7640,16 +7628,16 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>116091</v>
+        <v>116093</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Banban PS</t>
+          <t>Binon-an ES</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G75" s="5" t="n">
@@ -7659,15 +7647,15 @@
         <v>1</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K75" s="5" t="n">
-        <v>568676.58</v>
+        <v>227659.27</v>
       </c>
       <c r="L75" s="5" t="inlineStr">
         <is>
@@ -7683,44 +7671,16 @@
       <c r="O75" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="7" t="n">
-        <v>45022</v>
-      </c>
-      <c r="Q75" s="7" t="n">
-        <v>45107</v>
-      </c>
-      <c r="R75" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="S75" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="T75" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U75" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V75" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W75" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X75" s="7" t="n">
-        <v>44902</v>
-      </c>
-      <c r="Y75" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
+      <c r="P75" s="5" t="inlineStr"/>
+      <c r="Q75" s="5" t="inlineStr"/>
+      <c r="R75" s="5" t="inlineStr"/>
+      <c r="S75" s="5" t="inlineStr"/>
+      <c r="T75" s="5" t="inlineStr"/>
+      <c r="U75" s="5" t="inlineStr"/>
+      <c r="V75" s="5" t="inlineStr"/>
+      <c r="W75" s="5" t="inlineStr"/>
+      <c r="X75" s="5" t="inlineStr"/>
+      <c r="Y75" s="5" t="inlineStr"/>
       <c r="Z75" s="5" t="inlineStr"/>
       <c r="AA75" s="6" t="n"/>
     </row>
@@ -7741,16 +7701,16 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>116093</v>
+        <v>180021</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Binon-an ES</t>
+          <t>Sta. Ana PS</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G76" s="5" t="n">
@@ -7760,15 +7720,15 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K76" s="5" t="n">
-        <v>227659.27</v>
+        <v>573926.58</v>
       </c>
       <c r="L76" s="5" t="inlineStr">
         <is>
@@ -7784,16 +7744,44 @@
       <c r="O76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="5" t="inlineStr"/>
-      <c r="Q76" s="5" t="inlineStr"/>
-      <c r="R76" s="5" t="inlineStr"/>
-      <c r="S76" s="5" t="inlineStr"/>
-      <c r="T76" s="5" t="inlineStr"/>
-      <c r="U76" s="5" t="inlineStr"/>
-      <c r="V76" s="5" t="inlineStr"/>
-      <c r="W76" s="5" t="inlineStr"/>
-      <c r="X76" s="5" t="inlineStr"/>
-      <c r="Y76" s="5" t="inlineStr"/>
+      <c r="P76" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q76" s="7" t="n">
+        <v>44995</v>
+      </c>
+      <c r="R76" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S76" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T76" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U76" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="V76" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W76" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X76" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y76" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z76" s="5" t="inlineStr"/>
       <c r="AA76" s="6" t="n"/>
     </row>
@@ -7814,16 +7802,16 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>180021</v>
+        <v>116113</v>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>Sta. Ana PS</t>
+          <t>Ngingi-an PS</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G77" s="5" t="n">
@@ -7858,26 +7846,26 @@
         <v>1</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>45022</v>
+        <v>45030</v>
       </c>
       <c r="Q77" s="7" t="n">
-        <v>44995</v>
+        <v>45030</v>
       </c>
       <c r="R77" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="S77" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="T77" s="7" t="n">
         <v>44715</v>
       </c>
       <c r="U77" s="7" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="V77" s="7" t="n">
         <v>44739</v>
@@ -7888,11 +7876,11 @@
         </is>
       </c>
       <c r="X77" s="7" t="n">
-        <v>44902</v>
+        <v>44910</v>
       </c>
       <c r="Y77" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z77" s="5" t="inlineStr"/>
@@ -7915,11 +7903,11 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>116113</v>
+        <v>116115</v>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Ngingi-an PS</t>
+          <t>Quinar-upan Elementary School</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
@@ -7942,7 +7930,7 @@
         </is>
       </c>
       <c r="K78" s="5" t="n">
-        <v>573926.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L78" s="5" t="inlineStr">
         <is>
@@ -7978,7 +7966,7 @@
         <v>44715</v>
       </c>
       <c r="U78" s="7" t="n">
-        <v>44728</v>
+        <v>44726</v>
       </c>
       <c r="V78" s="7" t="n">
         <v>44739</v>
@@ -8016,11 +8004,11 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>116115</v>
+        <v>116116</v>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Quinar-upan Elementary School</t>
+          <t>Tapacon Elementary School</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
@@ -8117,16 +8105,16 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>116116</v>
+        <v>116601</v>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>Tapacon Elementary School</t>
+          <t>Janipa-an Elementary School</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
@@ -8144,7 +8132,7 @@
         </is>
       </c>
       <c r="K80" s="5" t="n">
-        <v>568676.58</v>
+        <v>558176.58</v>
       </c>
       <c r="L80" s="5" t="inlineStr">
         <is>
@@ -8161,19 +8149,19 @@
         <v>1</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="Q80" s="7" t="n">
-        <v>45030</v>
+        <v>45012</v>
       </c>
       <c r="R80" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S80" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T80" s="7" t="n">
@@ -8191,11 +8179,11 @@
         </is>
       </c>
       <c r="X80" s="7" t="n">
-        <v>44910</v>
+        <v>44908</v>
       </c>
       <c r="Y80" s="5" t="inlineStr">
         <is>
-          <t>WILKINSON CONSTRUCTION</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z80" s="5" t="inlineStr"/>
@@ -8218,11 +8206,11 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>116601</v>
+        <v>116603</v>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>Janipa-an Elementary School</t>
+          <t>Nasirum Elementary School</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
@@ -8319,11 +8307,11 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>116603</v>
+        <v>137024</v>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Nasirum Elementary School</t>
+          <t>Yugot Elementary School</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
@@ -8346,7 +8334,7 @@
         </is>
       </c>
       <c r="K82" s="5" t="n">
-        <v>558176.58</v>
+        <v>563426.58</v>
       </c>
       <c r="L82" s="5" t="inlineStr">
         <is>
@@ -8420,16 +8408,16 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>137024</v>
+        <v>116763</v>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Yugot Elementary School</t>
+          <t>Ilongbukid E/S</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G83" s="5" t="n">
@@ -8447,7 +8435,7 @@
         </is>
       </c>
       <c r="K83" s="5" t="n">
-        <v>563426.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L83" s="5" t="inlineStr">
         <is>
@@ -8463,44 +8451,16 @@
       <c r="O83" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q83" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="R83" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="S83" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="T83" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U83" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V83" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W83" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X83" s="7" t="n">
-        <v>44908</v>
-      </c>
-      <c r="Y83" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
+      <c r="P83" s="5" t="inlineStr"/>
+      <c r="Q83" s="5" t="inlineStr"/>
+      <c r="R83" s="5" t="inlineStr"/>
+      <c r="S83" s="5" t="inlineStr"/>
+      <c r="T83" s="5" t="inlineStr"/>
+      <c r="U83" s="5" t="inlineStr"/>
+      <c r="V83" s="5" t="inlineStr"/>
+      <c r="W83" s="5" t="inlineStr"/>
+      <c r="X83" s="5" t="inlineStr"/>
+      <c r="Y83" s="5" t="inlineStr"/>
       <c r="Z83" s="5" t="inlineStr"/>
       <c r="AA83" s="6" t="n"/>
     </row>
@@ -8521,11 +8481,11 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>116763</v>
+        <v>116767</v>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Ilongbukid E/S</t>
+          <t>San Florentino ES</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
@@ -8577,82 +8537,9 @@
       <c r="Z84" s="5" t="inlineStr"/>
       <c r="AA84" s="6" t="n"/>
     </row>
-    <row r="85">
-      <c r="A85" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B85" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C85" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D85" s="5" t="n">
-        <v>116767</v>
-      </c>
-      <c r="E85" s="5" t="inlineStr">
-        <is>
-          <t>San Florentino ES</t>
-        </is>
-      </c>
-      <c r="F85" s="5" t="inlineStr">
-        <is>
-          <t>SAN RAFAEL</t>
-        </is>
-      </c>
-      <c r="G85" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K85" s="5" t="n">
-        <v>568676.58</v>
-      </c>
-      <c r="L85" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M85" s="5" t="inlineStr"/>
-      <c r="N85" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O85" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" s="5" t="inlineStr"/>
-      <c r="Q85" s="5" t="inlineStr"/>
-      <c r="R85" s="5" t="inlineStr"/>
-      <c r="S85" s="5" t="inlineStr"/>
-      <c r="T85" s="5" t="inlineStr"/>
-      <c r="U85" s="5" t="inlineStr"/>
-      <c r="V85" s="5" t="inlineStr"/>
-      <c r="W85" s="5" t="inlineStr"/>
-      <c r="X85" s="5" t="inlineStr"/>
-      <c r="Y85" s="5" t="inlineStr"/>
-      <c r="Z85" s="5" t="inlineStr"/>
-      <c r="AA85" s="6" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA85" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,7 +455,7 @@
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="54" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
@@ -466,12 +466,12 @@
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="9" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
     <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="51" customWidth="1" min="18" max="18"/>
-    <col width="114" customWidth="1" min="19" max="19"/>
+    <col width="50" customWidth="1" min="18" max="18"/>
+    <col width="50" customWidth="1" min="19" max="19"/>
     <col width="31" customWidth="1" min="20" max="20"/>
     <col width="27" customWidth="1" min="21" max="21"/>
     <col width="21" customWidth="1" min="22" max="22"/>
@@ -858,25 +858,25 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>Bacolod City</t>
+          <t>Capiz</t>
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>302714</v>
+        <v>115413</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>Mansilingan Agro-Industrial High School</t>
+          <t>Balingasag Elementary School</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>BACOLOD CITY (Capital)</t>
+          <t>CUARTERO</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lone </t>
+          <t xml:space="preserve">2nd </t>
         </is>
       </c>
       <c r="H4" s="5" t="n">
@@ -889,69 +889,73 @@
         </is>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3477585.56</v>
+        <v>5440093.41</v>
       </c>
       <c r="L4" s="5" t="inlineStr"/>
       <c r="M4" s="5" t="n">
-        <v>2200000</v>
+        <v>3474057.78</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>June 11, 2025</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr"/>
+          <t>March 8, 2025</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>February 25, 2025</t>
+        </is>
+      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>HEALTH FACILITIES 2024 - REGION VI - BACOLOD -001</t>
+          <t>R6-DEPED-CAPIZ-CY2024-BEFF-BALINGASAGES-LOT3</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>R6BCD08182024-P129</t>
+          <t>CB No. 2024-034</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>August 19, 2024</t>
+          <t>June 28, 2024</t>
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>August 27, 2024</t>
+          <t>July 10, 2024</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>September 10, 2024</t>
+          <t>July 22, 2024</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>October 4, 2024</t>
+          <t>August 15, 2024</t>
         </is>
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>February 5, 2025</t>
+          <t>October 3, 2024</t>
         </is>
       </c>
       <c r="Y4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">KEANNE CONSTRUCTION SERVICES </t>
+          <t>MARIZALOI CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">with request for time extension </t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="AA4" s="6" t="n"/>
@@ -969,25 +973,25 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>Bago City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>117523</v>
+        <v>311017</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>Ma-ao Elementary School</t>
+          <t>Bancal NHS</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>BAGO CITY</t>
+          <t>ALIMODIAN</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4th </t>
+          <t xml:space="preserve">2nd </t>
         </is>
       </c>
       <c r="H5" s="5" t="n">
@@ -1000,31 +1004,69 @@
         </is>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2510592.22</v>
+        <v>3477585.56</v>
       </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>2442997.42</v>
+      </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
-          <t>Under Procurement</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="O5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr"/>
+        <v>0.76</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>July 28, 2025</t>
+        </is>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr"/>
-      <c r="S5" s="5" t="inlineStr"/>
-      <c r="T5" s="5" t="inlineStr"/>
-      <c r="U5" s="5" t="inlineStr"/>
-      <c r="V5" s="5" t="inlineStr"/>
-      <c r="W5" s="5" t="inlineStr"/>
-      <c r="X5" s="5" t="inlineStr"/>
-      <c r="Y5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>August 7, 2024</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>August 14, 2024</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>August 30, 2024</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>October 4, 2024</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>December 23, 2024</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t>Marissa's Construction</t>
+        </is>
+      </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
-          <t>For Posting of Advertisement for interested Bidders</t>
+          <t>With time extension</t>
         </is>
       </c>
       <c r="AA5" s="6" t="n"/>
@@ -1042,25 +1084,25 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Capiz</t>
+          <t>Iloilo City</t>
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>115413</v>
+        <v>302738</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Balingasag Elementary School</t>
+          <t>Iloilo City NHS</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>CUARTERO</t>
+          <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">Lone </t>
         </is>
       </c>
       <c r="H6" s="5" t="n">
@@ -1073,73 +1115,69 @@
         </is>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5440093.41</v>
+        <v>2513797.56</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>3474057.78</v>
+        <v>2250687.5</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="O6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>March 8, 2025</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>February 25, 2025</t>
-        </is>
-      </c>
+          <t>October 29, 2025</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr"/>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>R6-DEPED-CAPIZ-CY2024-BEFF-BALINGASAGES-LOT3</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>CB No. 2024-034</t>
+          <t>2024-12-001</t>
         </is>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>June 28, 2024</t>
+          <t>October 15, 2024</t>
         </is>
       </c>
       <c r="U6" s="5" t="inlineStr">
         <is>
-          <t>July 10, 2024</t>
+          <t>October 22, 2024</t>
         </is>
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>July 22, 2024</t>
+          <t>November 5, 2024</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>August 15, 2024</t>
+          <t>December 4, 2024</t>
         </is>
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>October 3, 2024</t>
+          <t>March 27, 2025</t>
         </is>
       </c>
       <c r="Y6" s="5" t="inlineStr">
         <is>
-          <t>MARIZALOI CONSTRUCTION</t>
+          <t>URBANCON Builders &amp; Supply</t>
         </is>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing of Permits</t>
         </is>
       </c>
       <c r="AA6" s="6" t="n"/>
@@ -1157,25 +1195,25 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Escalante City</t>
+          <t>Passi City</t>
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>117055</v>
+        <v>302806</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>Dian-ay Elementary School</t>
+          <t>Efraim M. Santibañez National High School</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>CITY OF ESCALANTE</t>
+          <t>CITY OF PASSI</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t xml:space="preserve">4th </t>
         </is>
       </c>
       <c r="H7" s="5" t="n">
@@ -1188,15 +1226,15 @@
         </is>
       </c>
       <c r="K7" s="5" t="n">
-        <v>4012106.54</v>
+        <v>4426340.48</v>
       </c>
       <c r="L7" s="5" t="inlineStr"/>
       <c r="M7" s="5" t="n">
-        <v>3950000</v>
+        <v>3385971.76</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O7" s="5" t="n">
@@ -1204,57 +1242,57 @@
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
-          <t>October 25, 2024</t>
+          <t>December 8, 2024</t>
         </is>
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>February 3, 2025</t>
+          <t>December 2, 2024</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Health Facilities-Region VI- Escalante City-002</t>
+          <t>BEFF-PSHF</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
-          <t>2024-004</t>
+          <t>RO6-D14-FY2024-BEFF-CHF-EMSNHS</t>
         </is>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
-          <t>December 6, 2023</t>
+          <t>February 12, 2024</t>
         </is>
       </c>
       <c r="U7" s="5" t="inlineStr">
         <is>
-          <t>December 15, 2023</t>
+          <t>February 21, 2024</t>
         </is>
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>December 27, 2024</t>
+          <t>March 3, 2024</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>December 29, 2023</t>
+          <t>April 5, 2024</t>
         </is>
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>June 24, 2024</t>
+          <t>July 4, 2024</t>
         </is>
       </c>
       <c r="Y7" s="5" t="inlineStr">
         <is>
-          <t>Valkyrie Construction</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>100% disbursement</t>
         </is>
       </c>
       <c r="AA7" s="6" t="n"/>
@@ -1272,25 +1310,25 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Roxas City</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>311017</v>
+        <v>117666</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>Bancal NHS</t>
+          <t>Banica Elementary School</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>ALIMODIAN</t>
+          <t>ROXAS CITY (Capital)</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H8" s="5" t="n">
@@ -1303,69 +1341,62 @@
         </is>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3477585.56</v>
+        <v>2389970.5</v>
       </c>
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="n">
-        <v>2442997.42</v>
+        <v>2357719.21</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>not yet started</t>
         </is>
       </c>
       <c r="O8" s="5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>July 28, 2025</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
+          <t>2025-005</t>
         </is>
       </c>
       <c r="S8" s="5" t="inlineStr">
         <is>
-          <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
+          <t>CON-2025-005</t>
         </is>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
-          <t>August 7, 2024</t>
+          <t>March 3, 2025</t>
         </is>
       </c>
       <c r="U8" s="5" t="inlineStr">
         <is>
-          <t>August 14, 2024</t>
+          <t>March 11, 2025</t>
         </is>
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>August 30, 2024</t>
+          <t>March 25, 2025</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>October 4, 2024</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>December 23, 2024</t>
-        </is>
-      </c>
+          <t>March 31, 2025</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr"/>
       <c r="Y8" s="5" t="inlineStr">
         <is>
-          <t>Marissa's Construction</t>
+          <t>Reubin L. Yap, Contractor</t>
         </is>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t>With time extension</t>
+          <t>RTA send to C.O last May 20, 2025
+waiting for Sub-ARO</t>
         </is>
       </c>
       <c r="AA8" s="6" t="n"/>
@@ -1373,7 +1404,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -1383,108 +1414,72 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Iloilo City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>302738</v>
+        <v>114701</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Iloilo City NHS</t>
+          <t>Bagongbayan Elementary School</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>ILOILO CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lone </t>
-        </is>
+          <t>Buruanga</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2513797.56</v>
-      </c>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="n">
-        <v>2250687.5</v>
-      </c>
+        <v>627587.16</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>October 29, 2025</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>44848</v>
       </c>
       <c r="Q9" s="5" t="inlineStr"/>
-      <c r="R9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>2024-12-001</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>October 15, 2024</t>
-        </is>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>October 22, 2024</t>
-        </is>
-      </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t>November 5, 2024</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>December 4, 2024</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>March 27, 2025</t>
-        </is>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
-        <is>
-          <t>URBANCON Builders &amp; Supply</t>
-        </is>
-      </c>
-      <c r="Z9" s="5" t="inlineStr">
-        <is>
-          <t>Processing of Permits</t>
-        </is>
-      </c>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr"/>
       <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -1494,112 +1489,96 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>117836</v>
+        <v>302318</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Carol-an Elementary School</t>
+          <t>BURUANGA NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>CITY OF KABANKALAN</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6th </t>
-        </is>
+          <t>Buruanga</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2980787.62</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="n">
-        <v>2978318.85</v>
-      </c>
+        <v>630917.76</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr"/>
       <c r="N10" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>February 14, 2025</t>
-        </is>
-      </c>
-      <c r="Q10" s="5" t="inlineStr">
-        <is>
-          <t>February 10, 2025</t>
-        </is>
+      <c r="P10" s="7" t="n">
+        <v>44779</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>44986</v>
       </c>
       <c r="R10" s="5" t="inlineStr">
         <is>
-          <t>2024-SB-01-PB001</t>
+          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
         </is>
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>2024-019</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="inlineStr">
-        <is>
-          <t>July 10, 2024</t>
-        </is>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>July 17, 2024</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>July 31, 2024</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>September 24, 2024</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr">
-        <is>
-          <t>October 15, 2024</t>
-        </is>
+          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
+        </is>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>44628</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>44635</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>44648</v>
+      </c>
+      <c r="W10" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="X10" s="7" t="n">
+        <v>44727</v>
       </c>
       <c r="Y10" s="5" t="inlineStr">
         <is>
-          <t>Rism BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z10" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+          <t>SOLID MERCHANDISING</t>
+        </is>
+      </c>
+      <c r="Z10" s="5" t="inlineStr"/>
       <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1609,43 +1588,45 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Passi City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>302806</v>
+        <v>302304</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Efraim M. Santibañez National High School</t>
+          <t>Catalino M. Prado NHS</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>CITY OF PASSI</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4th </t>
-        </is>
+          <t>Lezo</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4426340.48</v>
-      </c>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="n">
-        <v>3385971.76</v>
-      </c>
+        <v>634502.46</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1654,67 +1635,25 @@
       <c r="O11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>December 8, 2024</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>December 2, 2024</t>
-        </is>
-      </c>
-      <c r="R11" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-PSHF</t>
-        </is>
-      </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>RO6-D14-FY2024-BEFF-CHF-EMSNHS</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
-        <is>
-          <t>February 12, 2024</t>
-        </is>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>February 21, 2024</t>
-        </is>
-      </c>
-      <c r="V11" s="5" t="inlineStr">
-        <is>
-          <t>March 3, 2024</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>April 5, 2024</t>
-        </is>
-      </c>
-      <c r="X11" s="5" t="inlineStr">
-        <is>
-          <t>July 4, 2024</t>
-        </is>
-      </c>
-      <c r="Y11" s="5" t="inlineStr">
-        <is>
-          <t>Early Riser Construction</t>
-        </is>
-      </c>
-      <c r="Z11" s="5" t="inlineStr">
-        <is>
-          <t>100% disbursement</t>
-        </is>
-      </c>
+      <c r="P11" s="7" t="n">
+        <v>44830</v>
+      </c>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr"/>
       <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -1724,101 +1663,72 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Roxas City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>117666</v>
+        <v>114934</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Banica Elementary School</t>
+          <t>Tagas Elem. School</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>ROXAS CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
+          <t>Tangalan</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2389970.5</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="n">
-        <v>2357719.21</v>
-      </c>
+        <v>605906.24</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>not yet started</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>44848</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
-      <c r="R12" s="5" t="inlineStr">
-        <is>
-          <t>2025-005</t>
-        </is>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>CON-2025-005</t>
-        </is>
-      </c>
-      <c r="T12" s="5" t="inlineStr">
-        <is>
-          <t>March 3, 2025</t>
-        </is>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
-        <is>
-          <t>March 11, 2025</t>
-        </is>
-      </c>
-      <c r="V12" s="5" t="inlineStr">
-        <is>
-          <t>March 25, 2025</t>
-        </is>
-      </c>
-      <c r="W12" s="5" t="inlineStr">
-        <is>
-          <t>March 31, 2025</t>
-        </is>
-      </c>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
       <c r="X12" s="5" t="inlineStr"/>
-      <c r="Y12" s="5" t="inlineStr">
-        <is>
-          <t>Reubin L. Yap, Contractor</t>
-        </is>
-      </c>
-      <c r="Z12" s="5" t="inlineStr">
-        <is>
-          <t>RTA send to C.O last May 20, 2025
-waiting for Sub-ARO</t>
-        </is>
-      </c>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr"/>
       <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -1828,108 +1738,72 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Sagay City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117709</v>
+        <v>501181</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Vito Elementary School</t>
+          <t>Vivo Integrated School</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2nd </t>
-        </is>
+          <t>Tangalan</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
       <c r="K13" s="5" t="n">
-        <v>3477585.56</v>
-      </c>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="n">
-        <v>2493000</v>
-      </c>
+        <v>614740.9399999999</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr"/>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O13" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>June 15, 2025</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>44848</v>
       </c>
       <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>CPB-INFRA-04-2024</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>CPB-INFRA-04-2024</t>
-        </is>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>July 23, 2024</t>
-        </is>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>July 30, 2024</t>
-        </is>
-      </c>
-      <c r="V13" s="5" t="inlineStr">
-        <is>
-          <t>August 12, 2024</t>
-        </is>
-      </c>
-      <c r="W13" s="5" t="inlineStr">
-        <is>
-          <t>September 28, 2024</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="inlineStr">
-        <is>
-          <t>January 6, 2025</t>
-        </is>
-      </c>
-      <c r="Y13" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="Z13" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr"/>
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr"/>
       <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -1939,43 +1813,45 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>San Carlos City</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117747</v>
+        <v>114973</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Greenville Elementary School</t>
+          <t>Belison CS</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>SAN CARLOS CITY</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
+          <t>Belison</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2732388.66</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="n">
-        <v>2700000</v>
-      </c>
+        <v>198277.26</v>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1984,67 +1860,49 @@
       <c r="O14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>November 8, 2024</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="inlineStr">
-        <is>
-          <t>October 21, 2024</t>
-        </is>
+      <c r="P14" s="7" t="n">
+        <v>44792</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>44790</v>
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>202310-0093</t>
+          <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>10388986-2023-10-0093</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="inlineStr">
-        <is>
-          <t>December 14, 2023</t>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>December 18, 2023</t>
-        </is>
-      </c>
-      <c r="V14" s="5" t="inlineStr">
-        <is>
-          <t>December 27, 2023</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>January 18, 2024</t>
-        </is>
-      </c>
-      <c r="X14" s="5" t="inlineStr">
-        <is>
-          <t>May 24, 2024</t>
-        </is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T14" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V14" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W14" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X14" s="7" t="n">
+        <v>44726</v>
       </c>
       <c r="Y14" s="5" t="inlineStr">
         <is>
-          <t>Valkyrie Construction</t>
-        </is>
-      </c>
-      <c r="Z14" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
+      <c r="Z14" s="5" t="inlineStr"/>
       <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -2054,95 +1912,87 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117814</v>
+        <v>114976</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Eustaquio Lopez Elementary School</t>
+          <t>Concepcion ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>SILAY CITY</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
+          <t>Belison</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2980787.62</v>
-      </c>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="n">
-        <v>2930085.02</v>
-      </c>
+        <v>198277.26</v>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O15" s="5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>May 6, 2025</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>44792</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>44790</v>
+      </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>2024-07-ELES-001</t>
+          <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>2024-C-006</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>June 29, 2024</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>July 7, 2024</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>July 22, 2024</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>August 6, 2024</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="inlineStr">
-        <is>
-          <t>January 6, 2025</t>
-        </is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T15" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U15" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V15" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W15" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X15" s="7" t="n">
+        <v>44726</v>
       </c>
       <c r="Y15" s="5" t="inlineStr">
         <is>
-          <t>CGGFR Constrcution and Construction Supply</t>
+          <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
       <c r="Z15" s="5" t="inlineStr"/>
@@ -2151,7 +2001,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>SCHOOL HEALTH FACILITIES 2024</t>
+          <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -2161,99 +2011,87 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Victorias City</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>117430</v>
+        <v>302347</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Doña Andrea Palanca ES</t>
+          <t>Belison NS</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>CITY OF VICTORIAS</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
+          <t>Belison</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="inlineStr"/>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>Construction/Repair of Health Facilities</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3225253.91</v>
-      </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="n">
-        <v>1687612.07</v>
-      </c>
+        <v>200034.47</v>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr"/>
       <c r="N16" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>September 28, 2024</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>August 16, 2024</t>
-        </is>
+      <c r="P16" s="7" t="n">
+        <v>44792</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>44790</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>School Clinic-01Carcar</t>
+          <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>BEFF 2024-REpair of Classroom to be used / convered to School Clinic (7.00mx9.00m) at Perrelos Elementary School</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>March 13, 2024</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>March 19, 2024</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>April 3, 2024</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>April 17, 2024</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr">
-        <is>
-          <t>June 21, 2024</t>
-        </is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T16" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U16" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V16" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W16" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X16" s="7" t="n">
+        <v>44726</v>
       </c>
       <c r="Y16" s="5" t="inlineStr">
         <is>
-          <t>A.O.S. Construction Services</t>
+          <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
       <c r="Z16" s="5" t="inlineStr"/>
@@ -2272,24 +2110,24 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>114701</v>
+        <v>115130</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Bagongbayan Elementary School</t>
+          <t>Libertad Central School</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>Buruanga</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
@@ -2299,11 +2137,11 @@
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>627587.16</v>
+        <v>198277.26</v>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
@@ -2320,17 +2158,41 @@
         <v>1</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr"/>
-      <c r="T17" s="5" t="inlineStr"/>
-      <c r="U17" s="5" t="inlineStr"/>
-      <c r="V17" s="5" t="inlineStr"/>
-      <c r="W17" s="5" t="inlineStr"/>
-      <c r="X17" s="5" t="inlineStr"/>
-      <c r="Y17" s="5" t="inlineStr"/>
+        <v>44792</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>44790</v>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U17" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V17" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W17" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X17" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="Y17" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
       <c r="Z17" s="5" t="inlineStr"/>
       <c r="AA17" s="6" t="n"/>
     </row>
@@ -2347,24 +2209,24 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>302318</v>
+        <v>115133</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>BURUANGA NATIONAL HIGH SCHOOL</t>
+          <t>Paz ES</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>Buruanga</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
@@ -2374,11 +2236,11 @@
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>630917.76</v>
+        <v>148181.01</v>
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
@@ -2388,46 +2250,46 @@
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>44779</v>
+        <v>44792</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>44986</v>
+        <v>44790</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
+          <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
+          <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
       <c r="T18" s="7" t="n">
-        <v>44628</v>
+        <v>44637</v>
       </c>
       <c r="U18" s="7" t="n">
-        <v>44635</v>
+        <v>44644</v>
       </c>
       <c r="V18" s="7" t="n">
-        <v>44648</v>
+        <v>44658</v>
       </c>
       <c r="W18" s="7" t="n">
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="X18" s="7" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="Y18" s="5" t="inlineStr">
         <is>
-          <t>SOLID MERCHANDISING</t>
+          <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
       <c r="Z18" s="5" t="inlineStr"/>
@@ -2446,24 +2308,24 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>302304</v>
+        <v>115136</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Catalino M. Prado NHS</t>
+          <t>San Roque ES</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>Lezo</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
@@ -2473,11 +2335,11 @@
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>634502.46</v>
+        <v>198277.26</v>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
@@ -2494,17 +2356,41 @@
         <v>1</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>44830</v>
-      </c>
-      <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr"/>
-      <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr"/>
-      <c r="V19" s="5" t="inlineStr"/>
-      <c r="W19" s="5" t="inlineStr"/>
-      <c r="X19" s="5" t="inlineStr"/>
-      <c r="Y19" s="5" t="inlineStr"/>
+        <v>44792</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>44790</v>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U19" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V19" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W19" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X19" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="Y19" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
       <c r="Z19" s="5" t="inlineStr"/>
       <c r="AA19" s="6" t="n"/>
     </row>
@@ -2521,24 +2407,24 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>114934</v>
+        <v>115138</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Tagas Elem. School</t>
+          <t>Tinigbas ES</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>Tangalan</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
@@ -2548,11 +2434,11 @@
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>605906.24</v>
+        <v>200217.28</v>
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
@@ -2569,17 +2455,41 @@
         <v>1</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr"/>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="5" t="inlineStr"/>
-      <c r="V20" s="5" t="inlineStr"/>
-      <c r="W20" s="5" t="inlineStr"/>
-      <c r="X20" s="5" t="inlineStr"/>
-      <c r="Y20" s="5" t="inlineStr"/>
+        <v>44792</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>44790</v>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U20" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W20" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X20" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="Y20" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
       <c r="Z20" s="5" t="inlineStr"/>
       <c r="AA20" s="6" t="n"/>
     </row>
@@ -2596,24 +2506,24 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>501181</v>
+        <v>115140</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Vivo Integrated School</t>
+          <t>Union ES</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>Tangalan</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
@@ -2623,11 +2533,11 @@
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K21" s="5" t="n">
-        <v>614740.9399999999</v>
+        <v>198277.26</v>
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
@@ -2644,17 +2554,41 @@
         <v>1</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>44848</v>
-      </c>
-      <c r="Q21" s="5" t="inlineStr"/>
-      <c r="R21" s="5" t="inlineStr"/>
-      <c r="S21" s="5" t="inlineStr"/>
-      <c r="T21" s="5" t="inlineStr"/>
-      <c r="U21" s="5" t="inlineStr"/>
-      <c r="V21" s="5" t="inlineStr"/>
-      <c r="W21" s="5" t="inlineStr"/>
-      <c r="X21" s="5" t="inlineStr"/>
-      <c r="Y21" s="5" t="inlineStr"/>
+        <v>44792</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>44790</v>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>R6-D2-2022BEFF-04-HWF</t>
+        </is>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>44637</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="V21" s="7" t="n">
+        <v>44658</v>
+      </c>
+      <c r="W21" s="7" t="n">
+        <v>44679</v>
+      </c>
+      <c r="X21" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="Y21" s="5" t="inlineStr">
+        <is>
+          <t>Nesmark Construction and Enterprises</t>
+        </is>
+      </c>
       <c r="Z21" s="5" t="inlineStr"/>
       <c r="AA21" s="6" t="n"/>
     </row>
@@ -2675,16 +2609,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>114973</v>
+        <v>302363</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Belison CS</t>
+          <t>Libertad NVS</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>Belison</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
@@ -2698,11 +2632,11 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>198277.26</v>
+        <v>200034.47</v>
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
@@ -2774,16 +2708,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>114976</v>
+        <v>302383</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Concepcion ES</t>
+          <t>Union NHS</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>Belison</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G23" s="5" t="n">
@@ -2797,11 +2731,11 @@
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K23" s="5" t="n">
-        <v>198277.26</v>
+        <v>200034.47</v>
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
@@ -2869,20 +2803,20 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>302347</v>
+        <v>115851</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Belison NS</t>
+          <t>Fiscal Jose M. Zambarrano, Sr. Memorial School</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>Belison</t>
+          <t>San Lorenzo (Buenavista III)</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
@@ -2896,11 +2830,11 @@
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>200034.47</v>
+        <v>413873.68</v>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
@@ -2917,39 +2851,37 @@
         <v>1</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44887</v>
+      </c>
+      <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>03-2002-lot3</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-03-C-2022</t>
         </is>
       </c>
       <c r="T24" s="7" t="n">
-        <v>44637</v>
+        <v>44694</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>44658</v>
+        <v>44726</v>
       </c>
       <c r="W24" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X24" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y24" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Z24" s="5" t="inlineStr"/>
@@ -2968,20 +2900,20 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>115130</v>
+        <v>115857</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Libertad Central School</t>
+          <t>Silvestra Galarpe Melgar Memorial School</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>San Lorenzo (Buenavista III)</t>
         </is>
       </c>
       <c r="G25" s="5" t="n">
@@ -2995,11 +2927,11 @@
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>198277.26</v>
+        <v>413873.68</v>
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
@@ -3016,39 +2948,37 @@
         <v>1</v>
       </c>
       <c r="P25" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q25" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44887</v>
+      </c>
+      <c r="Q25" s="5" t="inlineStr"/>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>03-2002-lot3</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-03-C-2022</t>
         </is>
       </c>
       <c r="T25" s="7" t="n">
-        <v>44637</v>
+        <v>44694</v>
       </c>
       <c r="U25" s="7" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="V25" s="7" t="n">
-        <v>44658</v>
+        <v>44726</v>
       </c>
       <c r="W25" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X25" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="Z25" s="5" t="inlineStr"/>
@@ -3067,24 +2997,24 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>115133</v>
+        <v>115849</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Paz ES</t>
+          <t>Constancia Elementary School</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>1</v>
@@ -3094,18 +3024,20 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>148181.01</v>
+        <v>2324096.02</v>
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3115,39 +3047,37 @@
         <v>1</v>
       </c>
       <c r="P26" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q26" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T26" s="7" t="n">
-        <v>44637</v>
+        <v>44704</v>
       </c>
       <c r="U26" s="7" t="n">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="V26" s="7" t="n">
-        <v>44658</v>
+        <v>44735</v>
       </c>
       <c r="W26" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z26" s="5" t="inlineStr"/>
@@ -3166,24 +3096,24 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>115136</v>
+        <v>115850</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>San Roque ES</t>
+          <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>1</v>
@@ -3193,18 +3123,20 @@
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>198277.26</v>
+        <v>2361288.64</v>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3214,39 +3146,37 @@
         <v>1</v>
       </c>
       <c r="P27" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q27" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T27" s="7" t="n">
-        <v>44637</v>
+        <v>44704</v>
       </c>
       <c r="U27" s="7" t="n">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>44658</v>
+        <v>44735</v>
       </c>
       <c r="W27" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y27" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z27" s="5" t="inlineStr"/>
@@ -3265,24 +3195,24 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>115138</v>
+        <v>115854</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Tinigbas ES</t>
+          <t>San Enrique Elementary School</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>1</v>
@@ -3292,18 +3222,20 @@
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>200217.28</v>
+        <v>2342692.33</v>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>2320995.12</v>
+      </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3313,39 +3245,37 @@
         <v>1</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q28" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T28" s="7" t="n">
-        <v>44637</v>
+        <v>44704</v>
       </c>
       <c r="U28" s="7" t="n">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="V28" s="7" t="n">
-        <v>44658</v>
+        <v>44735</v>
       </c>
       <c r="W28" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y28" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z28" s="5" t="inlineStr"/>
@@ -3364,24 +3294,24 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>115140</v>
+        <v>302437</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Union ES</t>
+          <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>1</v>
@@ -3391,18 +3321,20 @@
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>198277.26</v>
+        <v>2370586.79</v>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3412,39 +3344,37 @@
         <v>1</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q29" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S29" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T29" s="7" t="n">
-        <v>44637</v>
+        <v>44704</v>
       </c>
       <c r="U29" s="7" t="n">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="V29" s="7" t="n">
-        <v>44658</v>
+        <v>44735</v>
       </c>
       <c r="W29" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X29" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y29" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z29" s="5" t="inlineStr"/>
@@ -3463,24 +3393,24 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>302363</v>
+        <v>302439</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Libertad NVS</t>
+          <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>1</v>
@@ -3490,18 +3420,20 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>200034.47</v>
+        <v>2351990.84</v>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr"/>
+          <t>BATCH 2</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>2320995.12</v>
+      </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3511,39 +3443,37 @@
         <v>1</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v>44790</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S30" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T30" s="7" t="n">
-        <v>44637</v>
+        <v>44704</v>
       </c>
       <c r="U30" s="7" t="n">
-        <v>44644</v>
+        <v>44721</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>44658</v>
+        <v>44735</v>
       </c>
       <c r="W30" s="7" t="n">
-        <v>44679</v>
+        <v>44743</v>
       </c>
       <c r="X30" s="7" t="n">
-        <v>44726</v>
+        <v>44837</v>
       </c>
       <c r="Y30" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z30" s="5" t="inlineStr"/>
@@ -3562,24 +3492,24 @@
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>302383</v>
+        <v>116107</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Union NHS</t>
+          <t>Cairohan PS</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Bingawan</t>
         </is>
       </c>
       <c r="G31" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>1</v>
@@ -3589,11 +3519,11 @@
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K31" s="5" t="n">
-        <v>200034.47</v>
+        <v>225574.55</v>
       </c>
       <c r="L31" s="5" t="inlineStr">
         <is>
@@ -3610,39 +3540,39 @@
         <v>1</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>44792</v>
+        <v>45007</v>
       </c>
       <c r="Q31" s="7" t="n">
-        <v>44790</v>
+        <v>45007</v>
       </c>
       <c r="R31" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="S31" s="5" t="inlineStr">
         <is>
-          <t>R6-D2-2022BEFF-04-HWF</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="T31" s="7" t="n">
-        <v>44637</v>
+        <v>44715</v>
       </c>
       <c r="U31" s="7" t="n">
-        <v>44644</v>
+        <v>44726</v>
       </c>
       <c r="V31" s="7" t="n">
-        <v>44658</v>
+        <v>44739</v>
       </c>
       <c r="W31" s="7" t="n">
-        <v>44679</v>
+        <v>44781</v>
       </c>
       <c r="X31" s="7" t="n">
-        <v>44726</v>
+        <v>44887</v>
       </c>
       <c r="Y31" s="5" t="inlineStr">
         <is>
-          <t>Nesmark Construction and Enterprises</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z31" s="5" t="inlineStr"/>
@@ -3661,24 +3591,24 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>115851</v>
+        <v>116109</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Fiscal Jose M. Zambarrano, Sr. Memorial School</t>
+          <t>Guinhulacan ES</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>San Lorenzo (Buenavista III)</t>
+          <t>Bingawan</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>1</v>
@@ -3688,11 +3618,11 @@
       </c>
       <c r="J32" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K32" s="5" t="n">
-        <v>413873.68</v>
+        <v>225034.27</v>
       </c>
       <c r="L32" s="5" t="inlineStr">
         <is>
@@ -3709,37 +3639,39 @@
         <v>1</v>
       </c>
       <c r="P32" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="Q32" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="R32" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+        </is>
+      </c>
+      <c r="S32" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+        </is>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U32" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V32" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W32" s="7" t="n">
+        <v>44781</v>
+      </c>
+      <c r="X32" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Q32" s="5" t="inlineStr"/>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>03-2002-lot3</t>
-        </is>
-      </c>
-      <c r="S32" s="5" t="inlineStr">
-        <is>
-          <t>No.-03-C-2022</t>
-        </is>
-      </c>
-      <c r="T32" s="7" t="n">
-        <v>44694</v>
-      </c>
-      <c r="U32" s="7" t="n">
-        <v>44706</v>
-      </c>
-      <c r="V32" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="W32" s="7" t="n">
-        <v>44743</v>
-      </c>
-      <c r="X32" s="7" t="n">
-        <v>44837</v>
-      </c>
       <c r="Y32" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z32" s="5" t="inlineStr"/>
@@ -3758,24 +3690,24 @@
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>115857</v>
+        <v>116111</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Silvestra Galarpe Melgar Memorial School</t>
+          <t>Maganhop PS</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>San Lorenzo (Buenavista III)</t>
+          <t>Bingawan</t>
         </is>
       </c>
       <c r="G33" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="n">
         <v>1</v>
@@ -3785,11 +3717,11 @@
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K33" s="5" t="n">
-        <v>413873.68</v>
+        <v>226924.27</v>
       </c>
       <c r="L33" s="5" t="inlineStr">
         <is>
@@ -3806,37 +3738,39 @@
         <v>1</v>
       </c>
       <c r="P33" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="Q33" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="R33" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+        </is>
+      </c>
+      <c r="S33" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
+        </is>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U33" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V33" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W33" s="7" t="n">
+        <v>44781</v>
+      </c>
+      <c r="X33" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Q33" s="5" t="inlineStr"/>
-      <c r="R33" s="5" t="inlineStr">
-        <is>
-          <t>03-2002-lot3</t>
-        </is>
-      </c>
-      <c r="S33" s="5" t="inlineStr">
-        <is>
-          <t>No.-03-C-2022</t>
-        </is>
-      </c>
-      <c r="T33" s="7" t="n">
-        <v>44694</v>
-      </c>
-      <c r="U33" s="7" t="n">
-        <v>44706</v>
-      </c>
-      <c r="V33" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="W33" s="7" t="n">
-        <v>44743</v>
-      </c>
-      <c r="X33" s="7" t="n">
-        <v>44837</v>
-      </c>
       <c r="Y33" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z33" s="5" t="inlineStr"/>
@@ -3855,24 +3789,24 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>115849</v>
+        <v>116112</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Constancia Elementary School</t>
+          <t>Malitbog Ilawod PS</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Bingawan</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>1</v>
@@ -3882,20 +3816,18 @@
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2324096.02</v>
+        <v>226414.55</v>
       </c>
       <c r="L34" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M34" s="5" t="inlineStr"/>
       <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3905,37 +3837,39 @@
         <v>1</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q34" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q34" s="7" t="n">
+        <v>45007</v>
+      </c>
       <c r="R34" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
       <c r="T34" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U34" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W34" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y34" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z34" s="5" t="inlineStr"/>
@@ -3954,24 +3888,24 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>115850</v>
+        <v>116594</v>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>Doña Lucia C. Locsin Memorial School</t>
+          <t>Abat Elementary School</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>1</v>
@@ -3981,20 +3915,18 @@
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2361288.64</v>
+        <v>221494.83</v>
       </c>
       <c r="L35" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr"/>
       <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4004,37 +3936,39 @@
         <v>1</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q35" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q35" s="7" t="n">
+        <v>45001</v>
+      </c>
       <c r="R35" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="S35" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="T35" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U35" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W35" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X35" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y35" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z35" s="5" t="inlineStr"/>
@@ -4053,24 +3987,24 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>115854</v>
+        <v>116595</v>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>San Enrique Elementary School</t>
+          <t>Agmanaphao Elementary School</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>1</v>
@@ -4080,20 +4014,18 @@
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2342692.33</v>
+        <v>226278.99</v>
       </c>
       <c r="L36" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M36" s="5" t="inlineStr"/>
       <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4103,37 +4035,39 @@
         <v>1</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q36" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q36" s="7" t="n">
+        <v>45001</v>
+      </c>
       <c r="R36" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="S36" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="T36" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U36" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W36" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y36" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z36" s="5" t="inlineStr"/>
@@ -4152,24 +4086,24 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>302437</v>
+        <v>116600</v>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Dr. Catalino Gallego Nava Memorial High School</t>
+          <t>Dala-Singay Elementary School</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="G37" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5" t="n">
         <v>1</v>
@@ -4179,20 +4113,18 @@
       </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K37" s="5" t="n">
-        <v>2370586.79</v>
+        <v>228573.71</v>
       </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr"/>
       <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4202,37 +4134,39 @@
         <v>1</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q37" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q37" s="7" t="n">
+        <v>45001</v>
+      </c>
       <c r="R37" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="S37" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="T37" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U37" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V37" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W37" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X37" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y37" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z37" s="5" t="inlineStr"/>
@@ -4251,24 +4185,24 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>302439</v>
+        <v>116604</v>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Remedios E. Vilches-San Lorenzo National High School</t>
+          <t>Tipolo Elementary School</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="G38" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>1</v>
@@ -4278,20 +4212,18 @@
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K38" s="5" t="n">
-        <v>2351990.84</v>
+        <v>228033.43</v>
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+          <t>BATCH 1</t>
+        </is>
+      </c>
+      <c r="M38" s="5" t="inlineStr"/>
       <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4301,37 +4233,39 @@
         <v>1</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q38" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="Q38" s="7" t="n">
+        <v>45001</v>
+      </c>
       <c r="R38" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="S38" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
       <c r="T38" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U38" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V38" s="7" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="W38" s="7" t="n">
-        <v>44743</v>
+        <v>44781</v>
       </c>
       <c r="X38" s="7" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="Y38" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>Wilkinson Construction</t>
         </is>
       </c>
       <c r="Z38" s="5" t="inlineStr"/>
@@ -4354,20 +4288,20 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>116107</v>
+        <v>116092</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Cairohan PS</t>
+          <t>Batad CES</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>Bingawan</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G39" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>1</v>
@@ -4381,7 +4315,7 @@
         </is>
       </c>
       <c r="K39" s="5" t="n">
-        <v>225574.55</v>
+        <v>226338.15</v>
       </c>
       <c r="L39" s="5" t="inlineStr">
         <is>
@@ -4397,42 +4331,16 @@
       <c r="O39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q39" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="R39" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="S39" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="T39" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U39" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V39" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W39" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X39" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y39" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P39" s="5" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr"/>
+      <c r="X39" s="5" t="inlineStr"/>
+      <c r="Y39" s="5" t="inlineStr"/>
       <c r="Z39" s="5" t="inlineStr"/>
       <c r="AA39" s="6" t="n"/>
     </row>
@@ -4453,20 +4361,20 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>116109</v>
+        <v>116096</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Guinhulacan ES</t>
+          <t>Calangag PS</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>Bingawan</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>1</v>
@@ -4480,7 +4388,7 @@
         </is>
       </c>
       <c r="K40" s="5" t="n">
-        <v>225034.27</v>
+        <v>221630.39</v>
       </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
@@ -4496,42 +4404,16 @@
       <c r="O40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q40" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="R40" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="T40" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U40" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V40" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W40" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X40" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y40" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P40" s="5" t="inlineStr"/>
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr"/>
+      <c r="W40" s="5" t="inlineStr"/>
+      <c r="X40" s="5" t="inlineStr"/>
+      <c r="Y40" s="5" t="inlineStr"/>
       <c r="Z40" s="5" t="inlineStr"/>
       <c r="AA40" s="6" t="n"/>
     </row>
@@ -4552,20 +4434,20 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>116111</v>
+        <v>116101</v>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Maganhop PS</t>
+          <t>Tanao ES</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t>Bingawan</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G41" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>1</v>
@@ -4579,7 +4461,7 @@
         </is>
       </c>
       <c r="K41" s="5" t="n">
-        <v>226924.27</v>
+        <v>224839.55</v>
       </c>
       <c r="L41" s="5" t="inlineStr">
         <is>
@@ -4595,42 +4477,16 @@
       <c r="O41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q41" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="R41" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="S41" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="T41" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U41" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V41" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W41" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X41" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y41" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P41" s="5" t="inlineStr"/>
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr"/>
+      <c r="W41" s="5" t="inlineStr"/>
+      <c r="X41" s="5" t="inlineStr"/>
+      <c r="Y41" s="5" t="inlineStr"/>
       <c r="Z41" s="5" t="inlineStr"/>
       <c r="AA41" s="6" t="n"/>
     </row>
@@ -4651,20 +4507,20 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>116112</v>
+        <v>501483</v>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Malitbog Ilawod PS</t>
+          <t>Bulak Integrated School</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>Bingawan</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>1</v>
@@ -4678,7 +4534,7 @@
         </is>
       </c>
       <c r="K42" s="5" t="n">
-        <v>226414.55</v>
+        <v>229098.71</v>
       </c>
       <c r="L42" s="5" t="inlineStr">
         <is>
@@ -4694,42 +4550,16 @@
       <c r="O42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q42" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="R42" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="S42" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
-        </is>
-      </c>
-      <c r="T42" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V42" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W42" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X42" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y42" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P42" s="5" t="inlineStr"/>
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr"/>
+      <c r="T42" s="5" t="inlineStr"/>
+      <c r="U42" s="5" t="inlineStr"/>
+      <c r="V42" s="5" t="inlineStr"/>
+      <c r="W42" s="5" t="inlineStr"/>
+      <c r="X42" s="5" t="inlineStr"/>
+      <c r="Y42" s="5" t="inlineStr"/>
       <c r="Z42" s="5" t="inlineStr"/>
       <c r="AA42" s="6" t="n"/>
     </row>
@@ -4750,20 +4580,20 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>116594</v>
+        <v>501484</v>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Abat Elementary School</t>
+          <t>Embarcadero Integrated School</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G43" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>1</v>
@@ -4777,7 +4607,7 @@
         </is>
       </c>
       <c r="K43" s="5" t="n">
-        <v>221494.83</v>
+        <v>227328.99</v>
       </c>
       <c r="L43" s="5" t="inlineStr">
         <is>
@@ -4793,42 +4623,16 @@
       <c r="O43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q43" s="7" t="n">
-        <v>45001</v>
-      </c>
-      <c r="R43" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="S43" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="T43" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U43" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V43" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W43" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X43" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y43" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P43" s="5" t="inlineStr"/>
+      <c r="Q43" s="5" t="inlineStr"/>
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr"/>
+      <c r="T43" s="5" t="inlineStr"/>
+      <c r="U43" s="5" t="inlineStr"/>
+      <c r="V43" s="5" t="inlineStr"/>
+      <c r="W43" s="5" t="inlineStr"/>
+      <c r="X43" s="5" t="inlineStr"/>
+      <c r="Y43" s="5" t="inlineStr"/>
       <c r="Z43" s="5" t="inlineStr"/>
       <c r="AA43" s="6" t="n"/>
     </row>
@@ -4849,20 +4653,20 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>116595</v>
+        <v>116759</v>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>Agmanaphao Elementary School</t>
+          <t>Aripdip Elementary School</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>1</v>
@@ -4876,7 +4680,7 @@
         </is>
       </c>
       <c r="K44" s="5" t="n">
-        <v>226278.99</v>
+        <v>223848.71</v>
       </c>
       <c r="L44" s="5" t="inlineStr">
         <is>
@@ -4892,42 +4696,16 @@
       <c r="O44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q44" s="7" t="n">
-        <v>45001</v>
-      </c>
-      <c r="R44" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="S44" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="T44" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U44" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V44" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W44" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X44" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y44" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P44" s="5" t="inlineStr"/>
+      <c r="Q44" s="5" t="inlineStr"/>
+      <c r="R44" s="5" t="inlineStr"/>
+      <c r="S44" s="5" t="inlineStr"/>
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr"/>
+      <c r="V44" s="5" t="inlineStr"/>
+      <c r="W44" s="5" t="inlineStr"/>
+      <c r="X44" s="5" t="inlineStr"/>
+      <c r="Y44" s="5" t="inlineStr"/>
       <c r="Z44" s="5" t="inlineStr"/>
       <c r="AA44" s="6" t="n"/>
     </row>
@@ -4948,20 +4726,20 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>116600</v>
+        <v>116762</v>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Dala-Singay Elementary School</t>
+          <t>Calaigang ES</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="G45" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>1</v>
@@ -4975,7 +4753,7 @@
         </is>
       </c>
       <c r="K45" s="5" t="n">
-        <v>228573.71</v>
+        <v>225093.43</v>
       </c>
       <c r="L45" s="5" t="inlineStr">
         <is>
@@ -4991,42 +4769,16 @@
       <c r="O45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q45" s="7" t="n">
-        <v>45001</v>
-      </c>
-      <c r="R45" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="S45" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="T45" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U45" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V45" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W45" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X45" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y45" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P45" s="5" t="inlineStr"/>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr"/>
+      <c r="V45" s="5" t="inlineStr"/>
+      <c r="W45" s="5" t="inlineStr"/>
+      <c r="X45" s="5" t="inlineStr"/>
+      <c r="Y45" s="5" t="inlineStr"/>
       <c r="Z45" s="5" t="inlineStr"/>
       <c r="AA45" s="6" t="n"/>
     </row>
@@ -5047,20 +4799,20 @@
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>116604</v>
+        <v>116768</v>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Tipolo Elementary School</t>
+          <t>San Rafael CS</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>1</v>
@@ -5074,7 +4826,7 @@
         </is>
       </c>
       <c r="K46" s="5" t="n">
-        <v>228033.43</v>
+        <v>218869.83</v>
       </c>
       <c r="L46" s="5" t="inlineStr">
         <is>
@@ -5090,42 +4842,16 @@
       <c r="O46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="7" t="n">
-        <v>45007</v>
-      </c>
-      <c r="Q46" s="7" t="n">
-        <v>45001</v>
-      </c>
-      <c r="R46" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="S46" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
-        </is>
-      </c>
-      <c r="T46" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U46" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V46" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W46" s="7" t="n">
-        <v>44781</v>
-      </c>
-      <c r="X46" s="7" t="n">
-        <v>44887</v>
-      </c>
-      <c r="Y46" s="5" t="inlineStr">
-        <is>
-          <t>Wilkinson Construction</t>
-        </is>
-      </c>
+      <c r="P46" s="5" t="inlineStr"/>
+      <c r="Q46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr"/>
+      <c r="S46" s="5" t="inlineStr"/>
+      <c r="T46" s="5" t="inlineStr"/>
+      <c r="U46" s="5" t="inlineStr"/>
+      <c r="V46" s="5" t="inlineStr"/>
+      <c r="W46" s="5" t="inlineStr"/>
+      <c r="X46" s="5" t="inlineStr"/>
+      <c r="Y46" s="5" t="inlineStr"/>
       <c r="Z46" s="5" t="inlineStr"/>
       <c r="AA46" s="6" t="n"/>
     </row>
@@ -5146,16 +4872,16 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>116092</v>
+        <v>302569</v>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>Batad CES</t>
+          <t>San Rafael NHS (San Rafael)</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="G47" s="5" t="n">
@@ -5173,7 +4899,7 @@
         </is>
       </c>
       <c r="K47" s="5" t="n">
-        <v>226338.15</v>
+        <v>222603.99</v>
       </c>
       <c r="L47" s="5" t="inlineStr">
         <is>
@@ -5219,59 +4945,87 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>116096</v>
+        <v>116090</v>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>Calangag PS</t>
+          <t>Alapasco Primary School</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K48" s="5" t="n">
-        <v>221630.39</v>
+        <v>563426.58</v>
       </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M48" s="5" t="inlineStr"/>
       <c r="N48" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="5" t="inlineStr"/>
-      <c r="Q48" s="5" t="inlineStr"/>
-      <c r="R48" s="5" t="inlineStr"/>
-      <c r="S48" s="5" t="inlineStr"/>
-      <c r="T48" s="5" t="inlineStr"/>
-      <c r="U48" s="5" t="inlineStr"/>
-      <c r="V48" s="5" t="inlineStr"/>
-      <c r="W48" s="5" t="inlineStr"/>
-      <c r="X48" s="5" t="inlineStr"/>
-      <c r="Y48" s="5" t="inlineStr"/>
+      <c r="P48" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q48" s="7" t="n">
+        <v>44995</v>
+      </c>
+      <c r="R48" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S48" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T48" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U48" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V48" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W48" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X48" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y48" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z48" s="5" t="inlineStr"/>
       <c r="AA48" s="6" t="n"/>
     </row>
@@ -5292,38 +5046,38 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>116101</v>
+        <v>116091</v>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>Tanao ES</t>
+          <t>Banban PS</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G49" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K49" s="5" t="n">
-        <v>224839.55</v>
+        <v>568676.58</v>
       </c>
       <c r="L49" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M49" s="5" t="inlineStr"/>
@@ -5335,16 +5089,44 @@
       <c r="O49" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P49" s="5" t="inlineStr"/>
-      <c r="Q49" s="5" t="inlineStr"/>
-      <c r="R49" s="5" t="inlineStr"/>
-      <c r="S49" s="5" t="inlineStr"/>
-      <c r="T49" s="5" t="inlineStr"/>
-      <c r="U49" s="5" t="inlineStr"/>
-      <c r="V49" s="5" t="inlineStr"/>
-      <c r="W49" s="5" t="inlineStr"/>
-      <c r="X49" s="5" t="inlineStr"/>
-      <c r="Y49" s="5" t="inlineStr"/>
+      <c r="P49" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q49" s="7" t="n">
+        <v>45107</v>
+      </c>
+      <c r="R49" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S49" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T49" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U49" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V49" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X49" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y49" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z49" s="5" t="inlineStr"/>
       <c r="AA49" s="6" t="n"/>
     </row>
@@ -5365,11 +5147,11 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>501483</v>
+        <v>116093</v>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>Bulak Integrated School</t>
+          <t>Binon-an ES</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
@@ -5378,7 +5160,7 @@
         </is>
       </c>
       <c r="G50" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>1</v>
@@ -5392,11 +5174,11 @@
         </is>
       </c>
       <c r="K50" s="5" t="n">
-        <v>229098.71</v>
+        <v>227659.27</v>
       </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M50" s="5" t="inlineStr"/>
@@ -5438,38 +5220,38 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>501484</v>
+        <v>180021</v>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>Embarcadero Integrated School</t>
+          <t>Sta. Ana PS</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G51" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K51" s="5" t="n">
-        <v>227328.99</v>
+        <v>573926.58</v>
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M51" s="5" t="inlineStr"/>
@@ -5481,16 +5263,44 @@
       <c r="O51" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P51" s="5" t="inlineStr"/>
-      <c r="Q51" s="5" t="inlineStr"/>
-      <c r="R51" s="5" t="inlineStr"/>
-      <c r="S51" s="5" t="inlineStr"/>
-      <c r="T51" s="5" t="inlineStr"/>
-      <c r="U51" s="5" t="inlineStr"/>
-      <c r="V51" s="5" t="inlineStr"/>
-      <c r="W51" s="5" t="inlineStr"/>
-      <c r="X51" s="5" t="inlineStr"/>
-      <c r="Y51" s="5" t="inlineStr"/>
+      <c r="P51" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q51" s="7" t="n">
+        <v>44995</v>
+      </c>
+      <c r="R51" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S51" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T51" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U51" s="7" t="n">
+        <v>44727</v>
+      </c>
+      <c r="V51" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W51" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X51" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y51" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z51" s="5" t="inlineStr"/>
       <c r="AA51" s="6" t="n"/>
     </row>
@@ -5511,38 +5321,38 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>116759</v>
+        <v>116113</v>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>Aripdip Elementary School</t>
+          <t>Ngingi-an PS</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K52" s="5" t="n">
-        <v>223848.71</v>
+        <v>573926.58</v>
       </c>
       <c r="L52" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M52" s="5" t="inlineStr"/>
@@ -5554,16 +5364,44 @@
       <c r="O52" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="5" t="inlineStr"/>
-      <c r="Q52" s="5" t="inlineStr"/>
-      <c r="R52" s="5" t="inlineStr"/>
-      <c r="S52" s="5" t="inlineStr"/>
-      <c r="T52" s="5" t="inlineStr"/>
-      <c r="U52" s="5" t="inlineStr"/>
-      <c r="V52" s="5" t="inlineStr"/>
-      <c r="W52" s="5" t="inlineStr"/>
-      <c r="X52" s="5" t="inlineStr"/>
-      <c r="Y52" s="5" t="inlineStr"/>
+      <c r="P52" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="Q52" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="R52" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="S52" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="T52" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U52" s="7" t="n">
+        <v>44728</v>
+      </c>
+      <c r="V52" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W52" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X52" s="7" t="n">
+        <v>44910</v>
+      </c>
+      <c r="Y52" s="5" t="inlineStr">
+        <is>
+          <t>WILKINSON CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z52" s="5" t="inlineStr"/>
       <c r="AA52" s="6" t="n"/>
     </row>
@@ -5584,38 +5422,38 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>116762</v>
+        <v>116115</v>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>Calaigang ES</t>
+          <t>Quinar-upan Elementary School</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K53" s="5" t="n">
-        <v>225093.43</v>
+        <v>568676.58</v>
       </c>
       <c r="L53" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M53" s="5" t="inlineStr"/>
@@ -5627,16 +5465,44 @@
       <c r="O53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="5" t="inlineStr"/>
-      <c r="Q53" s="5" t="inlineStr"/>
-      <c r="R53" s="5" t="inlineStr"/>
-      <c r="S53" s="5" t="inlineStr"/>
-      <c r="T53" s="5" t="inlineStr"/>
-      <c r="U53" s="5" t="inlineStr"/>
-      <c r="V53" s="5" t="inlineStr"/>
-      <c r="W53" s="5" t="inlineStr"/>
-      <c r="X53" s="5" t="inlineStr"/>
-      <c r="Y53" s="5" t="inlineStr"/>
+      <c r="P53" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="Q53" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="R53" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="S53" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="T53" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U53" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V53" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W53" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X53" s="7" t="n">
+        <v>44910</v>
+      </c>
+      <c r="Y53" s="5" t="inlineStr">
+        <is>
+          <t>WILKINSON CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z53" s="5" t="inlineStr"/>
       <c r="AA53" s="6" t="n"/>
     </row>
@@ -5657,38 +5523,38 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>116768</v>
+        <v>116116</v>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>San Rafael CS</t>
+          <t>Tapacon Elementary School</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J54" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K54" s="5" t="n">
-        <v>218869.83</v>
+        <v>568676.58</v>
       </c>
       <c r="L54" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M54" s="5" t="inlineStr"/>
@@ -5700,16 +5566,44 @@
       <c r="O54" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="5" t="inlineStr"/>
-      <c r="Q54" s="5" t="inlineStr"/>
-      <c r="R54" s="5" t="inlineStr"/>
-      <c r="S54" s="5" t="inlineStr"/>
-      <c r="T54" s="5" t="inlineStr"/>
-      <c r="U54" s="5" t="inlineStr"/>
-      <c r="V54" s="5" t="inlineStr"/>
-      <c r="W54" s="5" t="inlineStr"/>
-      <c r="X54" s="5" t="inlineStr"/>
-      <c r="Y54" s="5" t="inlineStr"/>
+      <c r="P54" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="Q54" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="R54" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="S54" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+        </is>
+      </c>
+      <c r="T54" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U54" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V54" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W54" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X54" s="7" t="n">
+        <v>44910</v>
+      </c>
+      <c r="Y54" s="5" t="inlineStr">
+        <is>
+          <t>WILKINSON CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z54" s="5" t="inlineStr"/>
       <c r="AA54" s="6" t="n"/>
     </row>
@@ -5730,38 +5624,38 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>302569</v>
+        <v>116601</v>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>San Rafael NHS (San Rafael)</t>
+          <t>Janipa-an Elementary School</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>San Rafael</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G55" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K55" s="5" t="n">
-        <v>222603.99</v>
+        <v>558176.58</v>
       </c>
       <c r="L55" s="5" t="inlineStr">
         <is>
-          <t>BATCH 1</t>
+          <t>BATCH 2</t>
         </is>
       </c>
       <c r="M55" s="5" t="inlineStr"/>
@@ -5773,16 +5667,44 @@
       <c r="O55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="5" t="inlineStr"/>
-      <c r="Q55" s="5" t="inlineStr"/>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr"/>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr"/>
-      <c r="W55" s="5" t="inlineStr"/>
-      <c r="X55" s="5" t="inlineStr"/>
-      <c r="Y55" s="5" t="inlineStr"/>
+      <c r="P55" s="7" t="n">
+        <v>45028</v>
+      </c>
+      <c r="Q55" s="7" t="n">
+        <v>45012</v>
+      </c>
+      <c r="R55" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+        </is>
+      </c>
+      <c r="S55" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+        </is>
+      </c>
+      <c r="T55" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U55" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V55" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W55" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X55" s="7" t="n">
+        <v>44908</v>
+      </c>
+      <c r="Y55" s="5" t="inlineStr">
+        <is>
+          <t>EARLY RISER CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z55" s="5" t="inlineStr"/>
       <c r="AA55" s="6" t="n"/>
     </row>
@@ -5803,16 +5725,16 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>116090</v>
+        <v>116603</v>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>Alapasco Primary School</t>
+          <t>Nasirum Elementary School</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -5830,7 +5752,7 @@
         </is>
       </c>
       <c r="K56" s="5" t="n">
-        <v>563426.58</v>
+        <v>558176.58</v>
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
@@ -5840,26 +5762,26 @@
       <c r="M56" s="5" t="inlineStr"/>
       <c r="N56" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>45022</v>
+        <v>45028</v>
       </c>
       <c r="Q56" s="7" t="n">
-        <v>44995</v>
+        <v>45012</v>
       </c>
       <c r="R56" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S56" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T56" s="7" t="n">
@@ -5877,11 +5799,11 @@
         </is>
       </c>
       <c r="X56" s="7" t="n">
-        <v>44902</v>
+        <v>44908</v>
       </c>
       <c r="Y56" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z56" s="5" t="inlineStr"/>
@@ -5904,16 +5826,16 @@
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>116091</v>
+        <v>137024</v>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>Banban PS</t>
+          <t>Yugot Elementary School</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G57" s="5" t="n">
@@ -5931,7 +5853,7 @@
         </is>
       </c>
       <c r="K57" s="5" t="n">
-        <v>568676.58</v>
+        <v>563426.58</v>
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
@@ -5948,19 +5870,19 @@
         <v>1</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>45022</v>
+        <v>45028</v>
       </c>
       <c r="Q57" s="7" t="n">
-        <v>45107</v>
+        <v>45012</v>
       </c>
       <c r="R57" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S57" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T57" s="7" t="n">
@@ -5978,11 +5900,11 @@
         </is>
       </c>
       <c r="X57" s="7" t="n">
-        <v>44902</v>
+        <v>44908</v>
       </c>
       <c r="Y57" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z57" s="5" t="inlineStr"/>
@@ -6005,16 +5927,16 @@
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>116093</v>
+        <v>116763</v>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>Binon-an ES</t>
+          <t>Ilongbukid E/S</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
@@ -6024,15 +5946,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K58" s="5" t="n">
-        <v>227659.27</v>
+        <v>568676.58</v>
       </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
@@ -6078,16 +6000,16 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>180021</v>
+        <v>116767</v>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>Sta. Ana PS</t>
+          <t>San Florentino ES</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G59" s="5" t="n">
@@ -6105,7 +6027,7 @@
         </is>
       </c>
       <c r="K59" s="5" t="n">
-        <v>573926.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
@@ -6121,44 +6043,16 @@
       <c r="O59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="7" t="n">
-        <v>45022</v>
-      </c>
-      <c r="Q59" s="7" t="n">
-        <v>44995</v>
-      </c>
-      <c r="R59" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="S59" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="T59" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U59" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="V59" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W59" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X59" s="7" t="n">
-        <v>44902</v>
-      </c>
-      <c r="Y59" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
+      <c r="P59" s="5" t="inlineStr"/>
+      <c r="Q59" s="5" t="inlineStr"/>
+      <c r="R59" s="5" t="inlineStr"/>
+      <c r="S59" s="5" t="inlineStr"/>
+      <c r="T59" s="5" t="inlineStr"/>
+      <c r="U59" s="5" t="inlineStr"/>
+      <c r="V59" s="5" t="inlineStr"/>
+      <c r="W59" s="5" t="inlineStr"/>
+      <c r="X59" s="5" t="inlineStr"/>
+      <c r="Y59" s="5" t="inlineStr"/>
       <c r="Z59" s="5" t="inlineStr"/>
       <c r="AA59" s="6" t="n"/>
     </row>
@@ -6175,20 +6069,20 @@
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>116113</v>
+        <v>115849</v>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>Ngingi-an PS</t>
+          <t>Constancia Elementary School</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
@@ -6198,22 +6092,24 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K60" s="5" t="n">
-        <v>573926.58</v>
+        <v>2324096.02</v>
       </c>
       <c r="L60" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" s="5" t="inlineStr"/>
+      <c r="M60" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6223,41 +6119,37 @@
         <v>1</v>
       </c>
       <c r="P60" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q60" s="7" t="n">
-        <v>45030</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q60" s="5" t="inlineStr"/>
       <c r="R60" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S60" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T60" s="7" t="n">
-        <v>44715</v>
+        <v>44704</v>
       </c>
       <c r="U60" s="7" t="n">
-        <v>44728</v>
+        <v>44721</v>
       </c>
       <c r="V60" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W60" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
+        <v>44735</v>
+      </c>
+      <c r="W60" s="7" t="n">
+        <v>44743</v>
       </c>
       <c r="X60" s="7" t="n">
-        <v>44910</v>
+        <v>44837</v>
       </c>
       <c r="Y60" s="5" t="inlineStr">
         <is>
-          <t>WILKINSON CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z60" s="5" t="inlineStr"/>
@@ -6276,20 +6168,20 @@
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>116115</v>
+        <v>115850</v>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Quinar-upan Elementary School</t>
+          <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G61" s="5" t="n">
@@ -6299,22 +6191,24 @@
         <v>1</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K61" s="5" t="n">
-        <v>568676.58</v>
+        <v>2361288.64</v>
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" s="5" t="inlineStr"/>
+      <c r="M61" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6324,41 +6218,37 @@
         <v>1</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q61" s="7" t="n">
-        <v>45030</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q61" s="5" t="inlineStr"/>
       <c r="R61" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S61" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T61" s="7" t="n">
-        <v>44715</v>
+        <v>44704</v>
       </c>
       <c r="U61" s="7" t="n">
-        <v>44726</v>
+        <v>44721</v>
       </c>
       <c r="V61" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W61" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
+        <v>44735</v>
+      </c>
+      <c r="W61" s="7" t="n">
+        <v>44743</v>
       </c>
       <c r="X61" s="7" t="n">
-        <v>44910</v>
+        <v>44837</v>
       </c>
       <c r="Y61" s="5" t="inlineStr">
         <is>
-          <t>WILKINSON CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z61" s="5" t="inlineStr"/>
@@ -6377,20 +6267,20 @@
       </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>116116</v>
+        <v>115854</v>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>Tapacon Elementary School</t>
+          <t>San Enrique  Elementary School</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
         <is>
-          <t>BINGAWAN</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
@@ -6400,22 +6290,24 @@
         <v>1</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K62" s="5" t="n">
-        <v>568676.58</v>
+        <v>2342692.33</v>
       </c>
       <c r="L62" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" s="5" t="inlineStr"/>
+      <c r="M62" s="5" t="n">
+        <v>2320995.12</v>
+      </c>
       <c r="N62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6425,41 +6317,37 @@
         <v>1</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q62" s="7" t="n">
-        <v>45030</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q62" s="5" t="inlineStr"/>
       <c r="R62" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S62" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T62" s="7" t="n">
-        <v>44715</v>
+        <v>44704</v>
       </c>
       <c r="U62" s="7" t="n">
-        <v>44726</v>
+        <v>44721</v>
       </c>
       <c r="V62" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W62" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
+        <v>44735</v>
+      </c>
+      <c r="W62" s="7" t="n">
+        <v>44743</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>44910</v>
+        <v>44837</v>
       </c>
       <c r="Y62" s="5" t="inlineStr">
         <is>
-          <t>WILKINSON CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z62" s="5" t="inlineStr"/>
@@ -6478,20 +6366,20 @@
       </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>116601</v>
+        <v>302437</v>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>Janipa-an Elementary School</t>
+          <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G63" s="5" t="n">
@@ -6501,22 +6389,24 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K63" s="5" t="n">
-        <v>558176.58</v>
+        <v>2370586.79</v>
       </c>
       <c r="L63" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" s="5" t="inlineStr"/>
+      <c r="M63" s="5" t="n">
+        <v>2334753.36</v>
+      </c>
       <c r="N63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6526,41 +6416,37 @@
         <v>1</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q63" s="7" t="n">
-        <v>45012</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q63" s="5" t="inlineStr"/>
       <c r="R63" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>05-2022-lot 1</t>
         </is>
       </c>
       <c r="S63" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>No.-04-A-2022</t>
         </is>
       </c>
       <c r="T63" s="7" t="n">
-        <v>44715</v>
+        <v>44704</v>
       </c>
       <c r="U63" s="7" t="n">
-        <v>44726</v>
+        <v>44721</v>
       </c>
       <c r="V63" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W63" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
+        <v>44735</v>
+      </c>
+      <c r="W63" s="7" t="n">
+        <v>44743</v>
       </c>
       <c r="X63" s="7" t="n">
-        <v>44908</v>
+        <v>44837</v>
       </c>
       <c r="Y63" s="5" t="inlineStr">
         <is>
-          <t>EARLY RISER CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z63" s="5" t="inlineStr"/>
@@ -6579,20 +6465,20 @@
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>116603</v>
+        <v>302439</v>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Nasirum Elementary School</t>
+          <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>SAN LORENZO</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -6602,22 +6488,24 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
       <c r="K64" s="5" t="n">
-        <v>558176.58</v>
+        <v>2351990.84</v>
       </c>
       <c r="L64" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" s="5" t="inlineStr"/>
+      <c r="M64" s="5" t="n">
+        <v>2320995.12</v>
+      </c>
       <c r="N64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6627,41 +6515,37 @@
         <v>1</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q64" s="7" t="n">
-        <v>45012</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="Q64" s="5" t="inlineStr"/>
       <c r="R64" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>05-2022-lot3</t>
         </is>
       </c>
       <c r="S64" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>No.-03-B-2022</t>
         </is>
       </c>
       <c r="T64" s="7" t="n">
-        <v>44715</v>
+        <v>44704</v>
       </c>
       <c r="U64" s="7" t="n">
-        <v>44726</v>
+        <v>44721</v>
       </c>
       <c r="V64" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W64" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
+        <v>44735</v>
+      </c>
+      <c r="W64" s="7" t="n">
+        <v>44743</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>44908</v>
+        <v>44837</v>
       </c>
       <c r="Y64" s="5" t="inlineStr">
         <is>
-          <t>EARLY RISER CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="Z64" s="5" t="inlineStr"/>
@@ -6684,16 +6568,16 @@
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>137024</v>
+        <v>116090</v>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>Yugot Elementary School</t>
+          <t>Alapasco Primary School</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G65" s="5" t="n">
@@ -6721,26 +6605,26 @@
       <c r="M65" s="5" t="inlineStr"/>
       <c r="N65" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>45028</v>
+        <v>45022</v>
       </c>
       <c r="Q65" s="7" t="n">
-        <v>45012</v>
+        <v>44995</v>
       </c>
       <c r="R65" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="S65" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="T65" s="7" t="n">
@@ -6758,11 +6642,11 @@
         </is>
       </c>
       <c r="X65" s="7" t="n">
-        <v>44908</v>
+        <v>44902</v>
       </c>
       <c r="Y65" s="5" t="inlineStr">
         <is>
-          <t>EARLY RISER CONSTRUCTION</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="Z65" s="5" t="inlineStr"/>
@@ -6785,16 +6669,16 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>116763</v>
+        <v>116091</v>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>Ilongbukid E/S</t>
+          <t>Banban PS</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -6828,16 +6712,44 @@
       <c r="O66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="5" t="inlineStr"/>
-      <c r="Q66" s="5" t="inlineStr"/>
-      <c r="R66" s="5" t="inlineStr"/>
-      <c r="S66" s="5" t="inlineStr"/>
-      <c r="T66" s="5" t="inlineStr"/>
-      <c r="U66" s="5" t="inlineStr"/>
-      <c r="V66" s="5" t="inlineStr"/>
-      <c r="W66" s="5" t="inlineStr"/>
-      <c r="X66" s="5" t="inlineStr"/>
-      <c r="Y66" s="5" t="inlineStr"/>
+      <c r="P66" s="7" t="n">
+        <v>45022</v>
+      </c>
+      <c r="Q66" s="7" t="n">
+        <v>45107</v>
+      </c>
+      <c r="R66" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="S66" s="5" t="inlineStr">
+        <is>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+        </is>
+      </c>
+      <c r="T66" s="7" t="n">
+        <v>44715</v>
+      </c>
+      <c r="U66" s="7" t="n">
+        <v>44726</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>44739</v>
+      </c>
+      <c r="W66" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
+      </c>
+      <c r="X66" s="7" t="n">
+        <v>44902</v>
+      </c>
+      <c r="Y66" s="5" t="inlineStr">
+        <is>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
       <c r="Z66" s="5" t="inlineStr"/>
       <c r="AA66" s="6" t="n"/>
     </row>
@@ -6858,16 +6770,16 @@
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>116767</v>
+        <v>116093</v>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>San Florentino ES</t>
+          <t>Binon-an ES</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>Batad</t>
         </is>
       </c>
       <c r="G67" s="5" t="n">
@@ -6877,15 +6789,15 @@
         <v>1</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" s="5" t="inlineStr">
         <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
+          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
       <c r="K67" s="5" t="n">
-        <v>568676.58</v>
+        <v>227659.27</v>
       </c>
       <c r="L67" s="5" t="inlineStr">
         <is>
@@ -6927,20 +6839,20 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>115849</v>
+        <v>180021</v>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>Constancia Elementary School</t>
+          <t>Sta. Ana PS</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BATAD</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -6950,24 +6862,22 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K68" s="5" t="n">
-        <v>2324096.02</v>
+        <v>573926.58</v>
       </c>
       <c r="L68" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+      <c r="M68" s="5" t="inlineStr"/>
       <c r="N68" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6977,37 +6887,41 @@
         <v>1</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q68" s="5" t="inlineStr"/>
+        <v>45022</v>
+      </c>
+      <c r="Q68" s="7" t="n">
+        <v>44995</v>
+      </c>
       <c r="R68" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="S68" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
       <c r="T68" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U68" s="7" t="n">
-        <v>44721</v>
+        <v>44727</v>
       </c>
       <c r="V68" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W68" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W68" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X68" s="7" t="n">
-        <v>44837</v>
+        <v>44902</v>
       </c>
       <c r="Y68" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="Z68" s="5" t="inlineStr"/>
@@ -7026,20 +6940,20 @@
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>115850</v>
+        <v>116113</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Doña Lucia C. Locsin Memorial School</t>
+          <t>Ngingi-an PS</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G69" s="5" t="n">
@@ -7049,24 +6963,22 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K69" s="5" t="n">
-        <v>2361288.64</v>
+        <v>573926.58</v>
       </c>
       <c r="L69" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M69" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+      <c r="M69" s="5" t="inlineStr"/>
       <c r="N69" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7076,37 +6988,41 @@
         <v>1</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q69" s="5" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="Q69" s="7" t="n">
+        <v>45030</v>
+      </c>
       <c r="R69" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="S69" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="T69" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U69" s="7" t="n">
-        <v>44721</v>
+        <v>44728</v>
       </c>
       <c r="V69" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W69" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W69" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X69" s="7" t="n">
-        <v>44837</v>
+        <v>44910</v>
       </c>
       <c r="Y69" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z69" s="5" t="inlineStr"/>
@@ -7125,20 +7041,20 @@
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>115854</v>
+        <v>116115</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>San Enrique  Elementary School</t>
+          <t>Quinar-upan Elementary School</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
@@ -7148,24 +7064,22 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J70" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K70" s="5" t="n">
-        <v>2342692.33</v>
+        <v>568676.58</v>
       </c>
       <c r="L70" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M70" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+      <c r="M70" s="5" t="inlineStr"/>
       <c r="N70" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7175,37 +7089,41 @@
         <v>1</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q70" s="5" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="Q70" s="7" t="n">
+        <v>45030</v>
+      </c>
       <c r="R70" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="S70" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="T70" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U70" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V70" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W70" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W70" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X70" s="7" t="n">
-        <v>44837</v>
+        <v>44910</v>
       </c>
       <c r="Y70" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z70" s="5" t="inlineStr"/>
@@ -7224,20 +7142,20 @@
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>302437</v>
+        <v>116116</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Dr. Catalino Gallego Nava Memorial High School</t>
+          <t>Tapacon Elementary School</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>BINGAWAN</t>
         </is>
       </c>
       <c r="G71" s="5" t="n">
@@ -7247,24 +7165,22 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K71" s="5" t="n">
-        <v>2370586.79</v>
+        <v>568676.58</v>
       </c>
       <c r="L71" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M71" s="5" t="n">
-        <v>2334753.36</v>
-      </c>
+      <c r="M71" s="5" t="inlineStr"/>
       <c r="N71" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7274,37 +7190,41 @@
         <v>1</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q71" s="5" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="Q71" s="7" t="n">
+        <v>45030</v>
+      </c>
       <c r="R71" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot 1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="S71" s="5" t="inlineStr">
         <is>
-          <t>No.-04-A-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
       <c r="T71" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U71" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V71" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W71" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W71" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X71" s="7" t="n">
-        <v>44837</v>
+        <v>44910</v>
       </c>
       <c r="Y71" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z71" s="5" t="inlineStr"/>
@@ -7323,20 +7243,20 @@
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>Guimaras</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>302439</v>
+        <v>116601</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Remedios E. Vilches-San Lorenzo National High School</t>
+          <t>Janipa-an Elementary School</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
@@ -7346,24 +7266,22 @@
         <v>1</v>
       </c>
       <c r="I72" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" s="5" t="inlineStr">
         <is>
-          <t>CONSTRUCTION OF CLINIC</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K72" s="5" t="n">
-        <v>2351990.84</v>
+        <v>558176.58</v>
       </c>
       <c r="L72" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M72" s="5" t="n">
-        <v>2320995.12</v>
-      </c>
+      <c r="M72" s="5" t="inlineStr"/>
       <c r="N72" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7373,37 +7291,41 @@
         <v>1</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>44992</v>
-      </c>
-      <c r="Q72" s="5" t="inlineStr"/>
+        <v>45028</v>
+      </c>
+      <c r="Q72" s="7" t="n">
+        <v>45012</v>
+      </c>
       <c r="R72" s="5" t="inlineStr">
         <is>
-          <t>05-2022-lot3</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S72" s="5" t="inlineStr">
         <is>
-          <t>No.-03-B-2022</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T72" s="7" t="n">
-        <v>44704</v>
+        <v>44715</v>
       </c>
       <c r="U72" s="7" t="n">
-        <v>44721</v>
+        <v>44726</v>
       </c>
       <c r="V72" s="7" t="n">
-        <v>44735</v>
-      </c>
-      <c r="W72" s="7" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="W72" s="5" t="inlineStr">
+        <is>
+          <t>Aug. 08, 2022</t>
+        </is>
       </c>
       <c r="X72" s="7" t="n">
-        <v>44837</v>
+        <v>44908</v>
       </c>
       <c r="Y72" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z72" s="5" t="inlineStr"/>
@@ -7426,16 +7348,16 @@
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>116090</v>
+        <v>116603</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>Alapasco Primary School</t>
+          <t>Nasirum Elementary School</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G73" s="5" t="n">
@@ -7453,7 +7375,7 @@
         </is>
       </c>
       <c r="K73" s="5" t="n">
-        <v>563426.58</v>
+        <v>558176.58</v>
       </c>
       <c r="L73" s="5" t="inlineStr">
         <is>
@@ -7463,26 +7385,26 @@
       <c r="M73" s="5" t="inlineStr"/>
       <c r="N73" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O73" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>45022</v>
+        <v>45028</v>
       </c>
       <c r="Q73" s="7" t="n">
-        <v>44995</v>
+        <v>45012</v>
       </c>
       <c r="R73" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S73" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T73" s="7" t="n">
@@ -7500,11 +7422,11 @@
         </is>
       </c>
       <c r="X73" s="7" t="n">
-        <v>44902</v>
+        <v>44908</v>
       </c>
       <c r="Y73" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z73" s="5" t="inlineStr"/>
@@ -7527,16 +7449,16 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>116091</v>
+        <v>137024</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Banban PS</t>
+          <t>Yugot Elementary School</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="G74" s="5" t="n">
@@ -7554,7 +7476,7 @@
         </is>
       </c>
       <c r="K74" s="5" t="n">
-        <v>568676.58</v>
+        <v>563426.58</v>
       </c>
       <c r="L74" s="5" t="inlineStr">
         <is>
@@ -7571,19 +7493,19 @@
         <v>1</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>45022</v>
+        <v>45028</v>
       </c>
       <c r="Q74" s="7" t="n">
-        <v>45107</v>
+        <v>45012</v>
       </c>
       <c r="R74" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="S74" s="5" t="inlineStr">
         <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
+          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
       <c r="T74" s="7" t="n">
@@ -7601,11 +7523,11 @@
         </is>
       </c>
       <c r="X74" s="7" t="n">
-        <v>44902</v>
+        <v>44908</v>
       </c>
       <c r="Y74" s="5" t="inlineStr">
         <is>
-          <t>ANJUSH BUILDERS</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z74" s="5" t="inlineStr"/>
@@ -7628,16 +7550,16 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>116093</v>
+        <v>116763</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Binon-an ES</t>
+          <t>Ilongbukid E/S</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>Batad</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G75" s="5" t="n">
@@ -7647,15 +7569,15 @@
         <v>1</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
-          <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
+          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
       <c r="K75" s="5" t="n">
-        <v>227659.27</v>
+        <v>568676.58</v>
       </c>
       <c r="L75" s="5" t="inlineStr">
         <is>
@@ -7701,16 +7623,16 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>180021</v>
+        <v>116767</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Sta. Ana PS</t>
+          <t>San Florentino ES</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>BATAD</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="G76" s="5" t="n">
@@ -7728,7 +7650,7 @@
         </is>
       </c>
       <c r="K76" s="5" t="n">
-        <v>573926.58</v>
+        <v>568676.58</v>
       </c>
       <c r="L76" s="5" t="inlineStr">
         <is>
@@ -7744,802 +7666,22 @@
       <c r="O76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="7" t="n">
-        <v>45022</v>
-      </c>
-      <c r="Q76" s="7" t="n">
-        <v>44995</v>
-      </c>
-      <c r="R76" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="S76" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
-        </is>
-      </c>
-      <c r="T76" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U76" s="7" t="n">
-        <v>44727</v>
-      </c>
-      <c r="V76" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W76" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X76" s="7" t="n">
-        <v>44902</v>
-      </c>
-      <c r="Y76" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
+      <c r="P76" s="5" t="inlineStr"/>
+      <c r="Q76" s="5" t="inlineStr"/>
+      <c r="R76" s="5" t="inlineStr"/>
+      <c r="S76" s="5" t="inlineStr"/>
+      <c r="T76" s="5" t="inlineStr"/>
+      <c r="U76" s="5" t="inlineStr"/>
+      <c r="V76" s="5" t="inlineStr"/>
+      <c r="W76" s="5" t="inlineStr"/>
+      <c r="X76" s="5" t="inlineStr"/>
+      <c r="Y76" s="5" t="inlineStr"/>
       <c r="Z76" s="5" t="inlineStr"/>
       <c r="AA76" s="6" t="n"/>
     </row>
-    <row r="77">
-      <c r="A77" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B77" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>116113</v>
-      </c>
-      <c r="E77" s="5" t="inlineStr">
-        <is>
-          <t>Ngingi-an PS</t>
-        </is>
-      </c>
-      <c r="F77" s="5" t="inlineStr">
-        <is>
-          <t>BINGAWAN</t>
-        </is>
-      </c>
-      <c r="G77" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K77" s="5" t="n">
-        <v>573926.58</v>
-      </c>
-      <c r="L77" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M77" s="5" t="inlineStr"/>
-      <c r="N77" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q77" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="R77" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="S77" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="T77" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U77" s="7" t="n">
-        <v>44728</v>
-      </c>
-      <c r="V77" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W77" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X77" s="7" t="n">
-        <v>44910</v>
-      </c>
-      <c r="Y77" s="5" t="inlineStr">
-        <is>
-          <t>WILKINSON CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z77" s="5" t="inlineStr"/>
-      <c r="AA77" s="6" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B78" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C78" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>116115</v>
-      </c>
-      <c r="E78" s="5" t="inlineStr">
-        <is>
-          <t>Quinar-upan Elementary School</t>
-        </is>
-      </c>
-      <c r="F78" s="5" t="inlineStr">
-        <is>
-          <t>BINGAWAN</t>
-        </is>
-      </c>
-      <c r="G78" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K78" s="5" t="n">
-        <v>568676.58</v>
-      </c>
-      <c r="L78" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M78" s="5" t="inlineStr"/>
-      <c r="N78" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P78" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q78" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="R78" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="S78" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="T78" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U78" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V78" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W78" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X78" s="7" t="n">
-        <v>44910</v>
-      </c>
-      <c r="Y78" s="5" t="inlineStr">
-        <is>
-          <t>WILKINSON CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z78" s="5" t="inlineStr"/>
-      <c r="AA78" s="6" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B79" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C79" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D79" s="5" t="n">
-        <v>116116</v>
-      </c>
-      <c r="E79" s="5" t="inlineStr">
-        <is>
-          <t>Tapacon Elementary School</t>
-        </is>
-      </c>
-      <c r="F79" s="5" t="inlineStr">
-        <is>
-          <t>BINGAWAN</t>
-        </is>
-      </c>
-      <c r="G79" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K79" s="5" t="n">
-        <v>568676.58</v>
-      </c>
-      <c r="L79" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M79" s="5" t="inlineStr"/>
-      <c r="N79" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="Q79" s="7" t="n">
-        <v>45030</v>
-      </c>
-      <c r="R79" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="S79" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
-        </is>
-      </c>
-      <c r="T79" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U79" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V79" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W79" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X79" s="7" t="n">
-        <v>44910</v>
-      </c>
-      <c r="Y79" s="5" t="inlineStr">
-        <is>
-          <t>WILKINSON CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z79" s="5" t="inlineStr"/>
-      <c r="AA79" s="6" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B80" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C80" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D80" s="5" t="n">
-        <v>116601</v>
-      </c>
-      <c r="E80" s="5" t="inlineStr">
-        <is>
-          <t>Janipa-an Elementary School</t>
-        </is>
-      </c>
-      <c r="F80" s="5" t="inlineStr">
-        <is>
-          <t>MINA</t>
-        </is>
-      </c>
-      <c r="G80" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K80" s="5" t="n">
-        <v>558176.58</v>
-      </c>
-      <c r="L80" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M80" s="5" t="inlineStr"/>
-      <c r="N80" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q80" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="R80" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="S80" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="T80" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U80" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V80" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W80" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X80" s="7" t="n">
-        <v>44908</v>
-      </c>
-      <c r="Y80" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z80" s="5" t="inlineStr"/>
-      <c r="AA80" s="6" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B81" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C81" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D81" s="5" t="n">
-        <v>116603</v>
-      </c>
-      <c r="E81" s="5" t="inlineStr">
-        <is>
-          <t>Nasirum Elementary School</t>
-        </is>
-      </c>
-      <c r="F81" s="5" t="inlineStr">
-        <is>
-          <t>MINA</t>
-        </is>
-      </c>
-      <c r="G81" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K81" s="5" t="n">
-        <v>558176.58</v>
-      </c>
-      <c r="L81" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M81" s="5" t="inlineStr"/>
-      <c r="N81" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q81" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="R81" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="S81" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="T81" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U81" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V81" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W81" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X81" s="7" t="n">
-        <v>44908</v>
-      </c>
-      <c r="Y81" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z81" s="5" t="inlineStr"/>
-      <c r="AA81" s="6" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D82" s="5" t="n">
-        <v>137024</v>
-      </c>
-      <c r="E82" s="5" t="inlineStr">
-        <is>
-          <t>Yugot Elementary School</t>
-        </is>
-      </c>
-      <c r="F82" s="5" t="inlineStr">
-        <is>
-          <t>MINA</t>
-        </is>
-      </c>
-      <c r="G82" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H82" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K82" s="5" t="n">
-        <v>563426.58</v>
-      </c>
-      <c r="L82" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M82" s="5" t="inlineStr"/>
-      <c r="N82" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O82" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" s="7" t="n">
-        <v>45028</v>
-      </c>
-      <c r="Q82" s="7" t="n">
-        <v>45012</v>
-      </c>
-      <c r="R82" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="S82" s="5" t="inlineStr">
-        <is>
-          <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
-        </is>
-      </c>
-      <c r="T82" s="7" t="n">
-        <v>44715</v>
-      </c>
-      <c r="U82" s="7" t="n">
-        <v>44726</v>
-      </c>
-      <c r="V82" s="7" t="n">
-        <v>44739</v>
-      </c>
-      <c r="W82" s="5" t="inlineStr">
-        <is>
-          <t>Aug. 08, 2022</t>
-        </is>
-      </c>
-      <c r="X82" s="7" t="n">
-        <v>44908</v>
-      </c>
-      <c r="Y82" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z82" s="5" t="inlineStr"/>
-      <c r="AA82" s="6" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C83" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D83" s="5" t="n">
-        <v>116763</v>
-      </c>
-      <c r="E83" s="5" t="inlineStr">
-        <is>
-          <t>Ilongbukid E/S</t>
-        </is>
-      </c>
-      <c r="F83" s="5" t="inlineStr">
-        <is>
-          <t>SAN RAFAEL</t>
-        </is>
-      </c>
-      <c r="G83" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K83" s="5" t="n">
-        <v>568676.58</v>
-      </c>
-      <c r="L83" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M83" s="5" t="inlineStr"/>
-      <c r="N83" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" s="5" t="inlineStr"/>
-      <c r="Q83" s="5" t="inlineStr"/>
-      <c r="R83" s="5" t="inlineStr"/>
-      <c r="S83" s="5" t="inlineStr"/>
-      <c r="T83" s="5" t="inlineStr"/>
-      <c r="U83" s="5" t="inlineStr"/>
-      <c r="V83" s="5" t="inlineStr"/>
-      <c r="W83" s="5" t="inlineStr"/>
-      <c r="X83" s="5" t="inlineStr"/>
-      <c r="Y83" s="5" t="inlineStr"/>
-      <c r="Z83" s="5" t="inlineStr"/>
-      <c r="AA83" s="6" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>SCHOOL HEALTH FACILITIES 2022</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C84" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D84" s="5" t="n">
-        <v>116767</v>
-      </c>
-      <c r="E84" s="5" t="inlineStr">
-        <is>
-          <t>San Florentino ES</t>
-        </is>
-      </c>
-      <c r="F84" s="5" t="inlineStr">
-        <is>
-          <t>SAN RAFAEL</t>
-        </is>
-      </c>
-      <c r="G84" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" s="5" t="inlineStr">
-        <is>
-          <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
-        </is>
-      </c>
-      <c r="K84" s="5" t="n">
-        <v>568676.58</v>
-      </c>
-      <c r="L84" s="5" t="inlineStr">
-        <is>
-          <t>BATCH 2</t>
-        </is>
-      </c>
-      <c r="M84" s="5" t="inlineStr"/>
-      <c r="N84" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O84" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P84" s="5" t="inlineStr"/>
-      <c r="Q84" s="5" t="inlineStr"/>
-      <c r="R84" s="5" t="inlineStr"/>
-      <c r="S84" s="5" t="inlineStr"/>
-      <c r="T84" s="5" t="inlineStr"/>
-      <c r="U84" s="5" t="inlineStr"/>
-      <c r="V84" s="5" t="inlineStr"/>
-      <c r="W84" s="5" t="inlineStr"/>
-      <c r="X84" s="5" t="inlineStr"/>
-      <c r="Y84" s="5" t="inlineStr"/>
-      <c r="Z84" s="5" t="inlineStr"/>
-      <c r="AA84" s="6" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1018 +453,1047 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="54" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="159" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="54" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="159" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="50" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
     <col width="50" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="47" customWidth="1" min="25" max="25"/>
-    <col width="57" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="50" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="47" customWidth="1" min="26" max="26"/>
+    <col width="57" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>114625</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Altavas ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>ALTAVAS</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>3957175.63</v>
       </c>
-      <c r="L2" s="5" t="inlineStr"/>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="n">
         <v>2501064.38</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>November 8, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>November 7, 2024</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-BEFF-HEALTHFACILITIES-057-2024</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2024-BEFF-HEALTHFACILITIES-057-2024</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>December 29, 2023</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>5/17.2024</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>NEM  CONSTRUCTION SUPPLIES &amp; SERVICES</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>115268</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Panpanan I ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>SAN REMIGIO</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>4520316.75</v>
       </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="n">
         <v>3355352.91</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="P3" s="5" t="n">
         <v>0.34</v>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>November 27, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr"/>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-08-SHF</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>R6-D2-GAA2024-08-SHF</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>January 26, 2024</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>February 2, 2024</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>February 16, 2024</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>April 5, 2024</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>July 19, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>MDG Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Already issued ressumption Order last Febryary 24, 2025</t>
         </is>
       </c>
-      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Capiz</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>115413</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Balingasag Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>CUARTERO</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>5440093.41</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="n">
         <v>3474057.78</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>March 8, 2025</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>February 25, 2025</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>R6-DEPED-CAPIZ-CY2024-BEFF-BALINGASAGES-LOT3</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>CB No. 2024-034</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 10, 2024</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>July 22, 2024</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>August 15, 2024</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>October 3, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>MARIZALOI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>311017</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Bancal NHS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>ALIMODIAN</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>3477585.56</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="n">
         <v>2442997.42</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="P5" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>July 28, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>BEEF2024-RVI-022-ILOILO-CLINIC-L1</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>August 7, 2024</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>August 30, 2024</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>October 4, 2024</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>Marissa's Construction</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>With time extension</t>
         </is>
       </c>
-      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>302738</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Iloilo City NHS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>2513797.56</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="n">
         <v>2250687.5</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="P6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>October 29, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>2024-12-001</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>October 15, 2024</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>October 22, 2024</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>December 4, 2024</t>
         </is>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>March 27, 2025</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>URBANCON Builders &amp; Supply</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>Processing of Permits</t>
         </is>
       </c>
-      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Passi City</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>302806</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Efraim M. Santibañez National High School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>CITY OF PASSI</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">4th </t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>4426340.48</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="n">
         <v>3385971.76</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>December 8, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>BEFF-PSHF</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>RO6-D14-FY2024-BEFF-CHF-EMSNHS</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>February 12, 2024</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>February 21, 2024</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>March 3, 2024</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>April 5, 2024</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>100% disbursement</t>
         </is>
       </c>
-      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Roxas City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>117666</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Banica Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>ROXAS CITY (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>2389970.5</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="n">
         <v>2357719.21</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="P8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr"/>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>2025-005</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>CON-2025-005</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>March 3, 2025</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>March 11, 2025</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>March 25, 2025</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>March 31, 2025</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr"/>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Reubin L. Yap, Contractor</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>RTA send to C.O last May 20, 2025
 waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>635</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>114701</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Bagongbayan Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Buruanga</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>627587.16</v>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7" t="n">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="n">
         <v>44848</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
@@ -1474,171 +1503,177 @@
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
       <c r="Z9" s="5" t="inlineStr"/>
-      <c r="AA9" s="6" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>636</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>302318</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>BURUANGA NATIONAL HIGH SCHOOL</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Buruanga</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>630917.76</v>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <v>44779</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="7" t="n">
         <v>44986</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>DepED-RO6-D1-2022WATSAN-013-2022</t>
         </is>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="U10" s="7" t="n">
         <v>44628</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="V10" s="7" t="n">
         <v>44635</v>
       </c>
-      <c r="V10" s="7" t="n">
+      <c r="W10" s="7" t="n">
         <v>44648</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="X10" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="X10" s="7" t="n">
+      <c r="Y10" s="7" t="n">
         <v>44727</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>SOLID MERCHANDISING</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="6" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>637</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>302304</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Catalino M. Prado NHS</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Lezo</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>634502.46</v>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <v>44830</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr"/>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="5" t="inlineStr"/>
@@ -1648,72 +1683,75 @@
       <c r="X11" s="5" t="inlineStr"/>
       <c r="Y11" s="5" t="inlineStr"/>
       <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="6" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>638</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>114934</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Tagas Elem. School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Tangalan</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>605906.24</v>
       </c>
-      <c r="L12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <v>44848</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="5" t="inlineStr"/>
@@ -1723,72 +1761,75 @@
       <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr"/>
       <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="6" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>639</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>501181</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Vivo Integrated School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Tangalan</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   PROPOSED CONSTRUCTION OF WATER AND SANITATION FACILITIES - FOUR (4) SEATER</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>614740.9399999999</v>
       </c>
-      <c r="L13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <v>44848</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="5" t="inlineStr"/>
@@ -1798,2540 +1839,2618 @@
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
       <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="6" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>640</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>114973</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Belison CS</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Belison</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>198277.26</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="R14" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="U14" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="W14" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="Y14" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="6" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>641</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>114976</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Concepcion ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Belison</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>198277.26</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="R15" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="U15" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="V15" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="W15" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="X15" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="Y15" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>642</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>302347</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Belison NS</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Belison</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>200034.47</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="R16" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="U16" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="X16" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X16" s="7" t="n">
+      <c r="Y16" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="6" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>643</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>115130</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Libertad Central School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>198277.26</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="R17" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="U17" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="V17" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="W17" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="X17" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="Y17" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="6" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>644</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>115133</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Paz ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITHOUT ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>148181.01</v>
       </c>
-      <c r="L18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="R18" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="Y18" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="6" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>645</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>115136</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>San Roque ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>198277.26</v>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="R19" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="U19" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U19" s="7" t="n">
+      <c r="V19" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="W19" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="X19" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X19" s="7" t="n">
+      <c r="Y19" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="6" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>646</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>115138</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Tinigbas ES</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>200217.28</v>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q20" s="7" t="n">
+      <c r="R20" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="U20" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="Y20" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="6" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>647</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>115140</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Union ES</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="H21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>198277.26</v>
       </c>
-      <c r="L21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="R21" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="U21" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="V21" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V21" s="7" t="n">
+      <c r="W21" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W21" s="7" t="n">
+      <c r="X21" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X21" s="7" t="n">
+      <c r="Y21" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z21" s="5" t="inlineStr"/>
-      <c r="AA21" s="6" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>648</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>302363</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Libertad NVS</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>200034.47</v>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="7" t="n">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q22" s="7" t="n">
+      <c r="R22" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="U22" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="W22" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="X22" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X22" s="7" t="n">
+      <c r="Y22" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr"/>
-      <c r="AA22" s="6" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>649</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Antique</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>302383</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Union NHS</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Libertad</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR SECONDARY (OPTION 1B - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>200034.47</v>
       </c>
-      <c r="L23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7" t="n">
         <v>44792</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="R23" s="7" t="n">
         <v>44790</v>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>R6-D2-2022BEFF-04-HWF</t>
         </is>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="U23" s="7" t="n">
         <v>44637</v>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="V23" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="V23" s="7" t="n">
+      <c r="W23" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="W23" s="7" t="n">
+      <c r="X23" s="7" t="n">
         <v>44679</v>
       </c>
-      <c r="X23" s="7" t="n">
+      <c r="Y23" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>Nesmark Construction and Enterprises</t>
         </is>
       </c>
-      <c r="Z23" s="5" t="inlineStr"/>
-      <c r="AA23" s="6" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>115851</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Fiscal Jose M. Zambarrano, Sr. Memorial School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>San Lorenzo (Buenavista III)</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>413873.68</v>
       </c>
-      <c r="L24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="7" t="n">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>03-2002-lot3</t>
         </is>
       </c>
-      <c r="S24" s="5" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>No.-03-C-2022</t>
         </is>
       </c>
-      <c r="T24" s="7" t="n">
+      <c r="U24" s="7" t="n">
         <v>44694</v>
       </c>
-      <c r="U24" s="7" t="n">
+      <c r="V24" s="7" t="n">
         <v>44706</v>
       </c>
-      <c r="V24" s="7" t="n">
+      <c r="W24" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="W24" s="7" t="n">
+      <c r="X24" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X24" s="7" t="n">
+      <c r="Y24" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr"/>
-      <c r="AA24" s="6" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>651</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>115857</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Silvestra Galarpe Melgar Memorial School</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>San Lorenzo (Buenavista III)</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="H25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH FLAT ROOFING, WITH COUNTER WITH TILE FINISH) with Rain Water Collector</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>413873.68</v>
       </c>
-      <c r="L25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr"/>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>03-2002-lot3</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>No.-03-C-2022</t>
         </is>
       </c>
-      <c r="T25" s="7" t="n">
+      <c r="U25" s="7" t="n">
         <v>44694</v>
       </c>
-      <c r="U25" s="7" t="n">
+      <c r="V25" s="7" t="n">
         <v>44706</v>
       </c>
-      <c r="V25" s="7" t="n">
+      <c r="W25" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="X25" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X25" s="7" t="n">
+      <c r="Y25" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="Z25" s="5" t="inlineStr"/>
-      <c r="AA25" s="6" t="n"/>
+      <c r="AA25" s="5" t="inlineStr"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>652</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>115849</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Constancia Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="H26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>2324096.02</v>
       </c>
-      <c r="L26" s="5" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="N26" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7" t="n">
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q26" s="5" t="inlineStr"/>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T26" s="7" t="n">
+      <c r="U26" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V26" s="7" t="n">
+      <c r="W26" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="X26" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X26" s="7" t="n">
+      <c r="Y26" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z26" s="5" t="inlineStr"/>
-      <c r="AA26" s="6" t="n"/>
+      <c r="AA26" s="5" t="inlineStr"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>653</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>115850</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="H27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>2361288.64</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="N27" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr"/>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T27" s="7" t="n">
+      <c r="U27" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V27" s="7" t="n">
+      <c r="W27" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W27" s="7" t="n">
+      <c r="X27" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X27" s="7" t="n">
+      <c r="Y27" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z27" s="5" t="inlineStr"/>
-      <c r="AA27" s="6" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>654</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>115854</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>San Enrique Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="H28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>2342692.33</v>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="N28" s="5" t="n">
         <v>2320995.12</v>
       </c>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="7" t="n">
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr"/>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T28" s="7" t="n">
+      <c r="U28" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="V28" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V28" s="7" t="n">
+      <c r="W28" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W28" s="7" t="n">
+      <c r="X28" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X28" s="7" t="n">
+      <c r="Y28" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z28" s="5" t="inlineStr"/>
-      <c r="AA28" s="6" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>655</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>302437</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="H29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>2370586.79</v>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="N29" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7" t="n">
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q29" s="5" t="inlineStr"/>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T29" s="7" t="n">
+      <c r="U29" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U29" s="7" t="n">
+      <c r="V29" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V29" s="7" t="n">
+      <c r="W29" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W29" s="7" t="n">
+      <c r="X29" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X29" s="7" t="n">
+      <c r="Y29" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z29" s="5" t="inlineStr"/>
-      <c r="AA29" s="6" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>656</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>302439</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="H30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="J30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>2351990.84</v>
       </c>
-      <c r="L30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="N30" s="5" t="n">
         <v>2320995.12</v>
       </c>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="7" t="n">
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr"/>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="U30" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U30" s="7" t="n">
+      <c r="V30" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V30" s="7" t="n">
+      <c r="W30" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W30" s="7" t="n">
+      <c r="X30" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X30" s="7" t="n">
+      <c r="Y30" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z30" s="5" t="inlineStr"/>
-      <c r="AA30" s="6" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>657</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>116107</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Cairohan PS</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Bingawan</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="H31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="J31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>225574.55</v>
       </c>
-      <c r="L31" s="5" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="7" t="n">
-        <v>45007</v>
+      <c r="P31" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q31" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="R31" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="U31" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U31" s="7" t="n">
+      <c r="V31" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V31" s="7" t="n">
+      <c r="W31" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W31" s="7" t="n">
+      <c r="X31" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X31" s="7" t="n">
+      <c r="Y31" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z31" s="5" t="inlineStr"/>
-      <c r="AA31" s="6" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>658</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>116109</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Guinhulacan ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>Bingawan</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="H32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>225034.27</v>
       </c>
-      <c r="L32" s="5" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="7" t="n">
-        <v>45007</v>
+      <c r="P32" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q32" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="R32" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="U32" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U32" s="7" t="n">
+      <c r="V32" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V32" s="7" t="n">
+      <c r="W32" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W32" s="7" t="n">
+      <c r="X32" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X32" s="7" t="n">
+      <c r="Y32" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y32" s="5" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z32" s="5" t="inlineStr"/>
-      <c r="AA32" s="6" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>659</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>116111</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Maganhop PS</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Bingawan</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="H33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="J33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>226924.27</v>
       </c>
-      <c r="L33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="7" t="n">
-        <v>45007</v>
+      <c r="P33" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q33" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="R33" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T33" s="7" t="n">
+      <c r="U33" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U33" s="7" t="n">
+      <c r="V33" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V33" s="7" t="n">
+      <c r="W33" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W33" s="7" t="n">
+      <c r="X33" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X33" s="7" t="n">
+      <c r="Y33" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="6" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>660</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>116112</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Malitbog Ilawod PS</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>Bingawan</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="H34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="J34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>226414.55</v>
       </c>
-      <c r="L34" s="5" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" s="5" t="inlineStr"/>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr"/>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="7" t="n">
-        <v>45007</v>
+      <c r="P34" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q34" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="R34" s="7" t="n">
+        <v>45007</v>
+      </c>
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="S34" s="5" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L1</t>
         </is>
       </c>
-      <c r="T34" s="7" t="n">
+      <c r="U34" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U34" s="7" t="n">
+      <c r="V34" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V34" s="7" t="n">
+      <c r="W34" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W34" s="7" t="n">
+      <c r="X34" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X34" s="7" t="n">
+      <c r="Y34" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z34" s="5" t="inlineStr"/>
-      <c r="AA34" s="6" t="n"/>
+      <c r="AA34" s="5" t="inlineStr"/>
+      <c r="AB34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>661</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>116594</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Abat Elementary School</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Mina</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="H35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="J35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>221494.83</v>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr"/>
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7" t="n">
+      <c r="P35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="Q35" s="7" t="n">
+      <c r="R35" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="R35" s="5" t="inlineStr">
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="S35" s="5" t="inlineStr">
+      <c r="T35" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T35" s="7" t="n">
+      <c r="U35" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U35" s="7" t="n">
+      <c r="V35" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V35" s="7" t="n">
+      <c r="W35" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W35" s="7" t="n">
+      <c r="X35" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X35" s="7" t="n">
+      <c r="Y35" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z35" s="5" t="inlineStr"/>
-      <c r="AA35" s="6" t="n"/>
+      <c r="AA35" s="5" t="inlineStr"/>
+      <c r="AB35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>662</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>116595</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Agmanaphao Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Mina</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="H36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="J36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>226278.99</v>
       </c>
-      <c r="L36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="7" t="n">
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="Q36" s="7" t="n">
+      <c r="R36" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="S36" s="5" t="inlineStr">
+      <c r="T36" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T36" s="7" t="n">
+      <c r="U36" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U36" s="7" t="n">
+      <c r="V36" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V36" s="7" t="n">
+      <c r="W36" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W36" s="7" t="n">
+      <c r="X36" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X36" s="7" t="n">
+      <c r="Y36" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z36" s="5" t="inlineStr"/>
-      <c r="AA36" s="6" t="n"/>
+      <c r="AA36" s="5" t="inlineStr"/>
+      <c r="AB36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>663</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>116600</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Dala-Singay Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Mina</t>
         </is>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="H37" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>228573.71</v>
       </c>
-      <c r="L37" s="5" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" s="5" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr"/>
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="7" t="n">
+      <c r="P37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="Q37" s="7" t="n">
+      <c r="R37" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="S37" s="5" t="inlineStr">
+      <c r="T37" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T37" s="7" t="n">
+      <c r="U37" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U37" s="7" t="n">
+      <c r="V37" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V37" s="7" t="n">
+      <c r="W37" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W37" s="7" t="n">
+      <c r="X37" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X37" s="7" t="n">
+      <c r="Y37" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y37" s="5" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z37" s="5" t="inlineStr"/>
-      <c r="AA37" s="6" t="n"/>
+      <c r="AA37" s="5" t="inlineStr"/>
+      <c r="AB37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>664</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>116604</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Tipolo Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Mina</t>
         </is>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="H38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="J38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>228033.43</v>
       </c>
-      <c r="L38" s="5" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" s="5" t="inlineStr"/>
-      <c r="N38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="7" t="n">
+      <c r="P38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="7" t="n">
         <v>45007</v>
       </c>
-      <c r="Q38" s="7" t="n">
+      <c r="R38" s="7" t="n">
         <v>45001</v>
       </c>
-      <c r="R38" s="5" t="inlineStr">
+      <c r="S38" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="S38" s="5" t="inlineStr">
+      <c r="T38" s="5" t="inlineStr">
         <is>
           <t>BEFF2022-RVI-022-ILOILO-WATSAN-B1L2</t>
         </is>
       </c>
-      <c r="T38" s="7" t="n">
+      <c r="U38" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U38" s="7" t="n">
+      <c r="V38" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V38" s="7" t="n">
+      <c r="W38" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W38" s="7" t="n">
+      <c r="X38" s="7" t="n">
         <v>44781</v>
       </c>
-      <c r="X38" s="7" t="n">
+      <c r="Y38" s="7" t="n">
         <v>44887</v>
       </c>
-      <c r="Y38" s="5" t="inlineStr">
+      <c r="Z38" s="5" t="inlineStr">
         <is>
           <t>Wilkinson Construction</t>
         </is>
       </c>
-      <c r="Z38" s="5" t="inlineStr"/>
-      <c r="AA38" s="6" t="n"/>
+      <c r="AA38" s="5" t="inlineStr"/>
+      <c r="AB38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>665</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>116092</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Batad CES</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="H39" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="J39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>226338.15</v>
       </c>
-      <c r="L39" s="5" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5" t="inlineStr"/>
+      <c r="P39" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q39" s="5" t="inlineStr"/>
       <c r="R39" s="5" t="inlineStr"/>
       <c r="S39" s="5" t="inlineStr"/>
@@ -4342,69 +4461,72 @@
       <c r="X39" s="5" t="inlineStr"/>
       <c r="Y39" s="5" t="inlineStr"/>
       <c r="Z39" s="5" t="inlineStr"/>
-      <c r="AA39" s="6" t="n"/>
+      <c r="AA39" s="5" t="inlineStr"/>
+      <c r="AB39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>666</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>116096</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Calangag PS</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="H40" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="J40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>221630.39</v>
       </c>
-      <c r="L40" s="5" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" s="5" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr"/>
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr"/>
+      <c r="P40" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q40" s="5" t="inlineStr"/>
       <c r="R40" s="5" t="inlineStr"/>
       <c r="S40" s="5" t="inlineStr"/>
@@ -4415,69 +4537,72 @@
       <c r="X40" s="5" t="inlineStr"/>
       <c r="Y40" s="5" t="inlineStr"/>
       <c r="Z40" s="5" t="inlineStr"/>
-      <c r="AA40" s="6" t="n"/>
+      <c r="AA40" s="5" t="inlineStr"/>
+      <c r="AB40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>667</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>116101</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Tanao ES</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="H41" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H41" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="J41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>224839.55</v>
       </c>
-      <c r="L41" s="5" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" s="5" t="inlineStr"/>
-      <c r="N41" s="5" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr"/>
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="5" t="inlineStr"/>
+      <c r="P41" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" s="5" t="inlineStr"/>
       <c r="R41" s="5" t="inlineStr"/>
       <c r="S41" s="5" t="inlineStr"/>
@@ -4488,69 +4613,72 @@
       <c r="X41" s="5" t="inlineStr"/>
       <c r="Y41" s="5" t="inlineStr"/>
       <c r="Z41" s="5" t="inlineStr"/>
-      <c r="AA41" s="6" t="n"/>
+      <c r="AA41" s="5" t="inlineStr"/>
+      <c r="AB41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>668</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>501483</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Bulak Integrated School</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="H42" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H42" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="J42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>229098.71</v>
       </c>
-      <c r="L42" s="5" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5" t="inlineStr"/>
+      <c r="P42" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="5" t="inlineStr"/>
       <c r="R42" s="5" t="inlineStr"/>
       <c r="S42" s="5" t="inlineStr"/>
@@ -4561,69 +4689,72 @@
       <c r="X42" s="5" t="inlineStr"/>
       <c r="Y42" s="5" t="inlineStr"/>
       <c r="Z42" s="5" t="inlineStr"/>
-      <c r="AA42" s="6" t="n"/>
+      <c r="AA42" s="5" t="inlineStr"/>
+      <c r="AB42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>669</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>501484</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Embarcadero Integrated School</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="H43" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="J43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>227328.99</v>
       </c>
-      <c r="L43" s="5" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" s="5" t="inlineStr"/>
-      <c r="N43" s="5" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr"/>
+      <c r="O43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5" t="inlineStr"/>
+      <c r="P43" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q43" s="5" t="inlineStr"/>
       <c r="R43" s="5" t="inlineStr"/>
       <c r="S43" s="5" t="inlineStr"/>
@@ -4634,69 +4765,72 @@
       <c r="X43" s="5" t="inlineStr"/>
       <c r="Y43" s="5" t="inlineStr"/>
       <c r="Z43" s="5" t="inlineStr"/>
-      <c r="AA43" s="6" t="n"/>
+      <c r="AA43" s="5" t="inlineStr"/>
+      <c r="AB43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>670</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>116759</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Aripdip Elementary School</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>San Rafael</t>
         </is>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="H44" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H44" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>223848.71</v>
       </c>
-      <c r="L44" s="5" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" s="5" t="inlineStr"/>
-      <c r="N44" s="5" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr"/>
+      <c r="O44" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5" t="inlineStr"/>
+      <c r="P44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" s="5" t="inlineStr"/>
       <c r="R44" s="5" t="inlineStr"/>
       <c r="S44" s="5" t="inlineStr"/>
@@ -4707,69 +4841,72 @@
       <c r="X44" s="5" t="inlineStr"/>
       <c r="Y44" s="5" t="inlineStr"/>
       <c r="Z44" s="5" t="inlineStr"/>
-      <c r="AA44" s="6" t="n"/>
+      <c r="AA44" s="5" t="inlineStr"/>
+      <c r="AB44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>671</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>116762</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Calaigang ES</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>San Rafael</t>
         </is>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="H45" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H45" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="J45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>225093.43</v>
       </c>
-      <c r="L45" s="5" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" s="5" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr">
+      <c r="N45" s="5" t="inlineStr"/>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="inlineStr"/>
+      <c r="P45" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" s="5" t="inlineStr"/>
       <c r="R45" s="5" t="inlineStr"/>
       <c r="S45" s="5" t="inlineStr"/>
@@ -4780,69 +4917,72 @@
       <c r="X45" s="5" t="inlineStr"/>
       <c r="Y45" s="5" t="inlineStr"/>
       <c r="Z45" s="5" t="inlineStr"/>
-      <c r="AA45" s="6" t="n"/>
+      <c r="AA45" s="5" t="inlineStr"/>
+      <c r="AB45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="5" t="n">
+        <v>672</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="E46" s="5" t="n">
         <v>116768</v>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>San Rafael CS</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>San Rafael</t>
         </is>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="H46" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H46" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="J46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="L46" s="5" t="n">
         <v>218869.83</v>
       </c>
-      <c r="L46" s="5" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" s="5" t="inlineStr"/>
-      <c r="N46" s="5" t="inlineStr">
+      <c r="N46" s="5" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="inlineStr"/>
+      <c r="P46" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" s="5" t="inlineStr"/>
       <c r="R46" s="5" t="inlineStr"/>
       <c r="S46" s="5" t="inlineStr"/>
@@ -4853,69 +4993,72 @@
       <c r="X46" s="5" t="inlineStr"/>
       <c r="Y46" s="5" t="inlineStr"/>
       <c r="Z46" s="5" t="inlineStr"/>
-      <c r="AA46" s="6" t="n"/>
+      <c r="AA46" s="5" t="inlineStr"/>
+      <c r="AB46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="5" t="n">
+        <v>673</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="E47" s="5" t="n">
         <v>302569</v>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>San Rafael NHS (San Rafael)</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>San Rafael</t>
         </is>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="H47" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="J47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="L47" s="5" t="n">
         <v>222603.99</v>
       </c>
-      <c r="L47" s="5" t="inlineStr">
+      <c r="M47" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" s="5" t="inlineStr"/>
-      <c r="N47" s="5" t="inlineStr">
+      <c r="N47" s="5" t="inlineStr"/>
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5" t="inlineStr"/>
+      <c r="P47" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" s="5" t="inlineStr"/>
       <c r="R47" s="5" t="inlineStr"/>
       <c r="S47" s="5" t="inlineStr"/>
@@ -4926,271 +5069,280 @@
       <c r="X47" s="5" t="inlineStr"/>
       <c r="Y47" s="5" t="inlineStr"/>
       <c r="Z47" s="5" t="inlineStr"/>
-      <c r="AA47" s="6" t="n"/>
+      <c r="AA47" s="5" t="inlineStr"/>
+      <c r="AB47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="5" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="E48" s="5" t="n">
         <v>116090</v>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Alapasco Primary School</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="H48" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J48" s="5" t="inlineStr">
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="L48" s="5" t="n">
         <v>563426.58</v>
       </c>
-      <c r="L48" s="5" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M48" s="5" t="inlineStr"/>
-      <c r="N48" s="5" t="inlineStr">
+      <c r="N48" s="5" t="inlineStr"/>
+      <c r="O48" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="7" t="n">
+      <c r="P48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q48" s="7" t="n">
+      <c r="R48" s="7" t="n">
         <v>44995</v>
       </c>
-      <c r="R48" s="5" t="inlineStr">
+      <c r="S48" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S48" s="5" t="inlineStr">
+      <c r="T48" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T48" s="7" t="n">
+      <c r="U48" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U48" s="7" t="n">
+      <c r="V48" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V48" s="7" t="n">
+      <c r="W48" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W48" s="5" t="inlineStr">
+      <c r="X48" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X48" s="7" t="n">
+      <c r="Y48" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y48" s="5" t="inlineStr">
+      <c r="Z48" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z48" s="5" t="inlineStr"/>
-      <c r="AA48" s="6" t="n"/>
+      <c r="AA48" s="5" t="inlineStr"/>
+      <c r="AB48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="5" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="E49" s="5" t="n">
         <v>116091</v>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Banban PS</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="H49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="L49" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L49" s="5" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M49" s="5" t="inlineStr"/>
-      <c r="N49" s="5" t="inlineStr">
+      <c r="N49" s="5" t="inlineStr"/>
+      <c r="O49" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="7" t="n">
+      <c r="P49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q49" s="7" t="n">
+      <c r="R49" s="7" t="n">
         <v>45107</v>
       </c>
-      <c r="R49" s="5" t="inlineStr">
+      <c r="S49" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S49" s="5" t="inlineStr">
+      <c r="T49" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T49" s="7" t="n">
+      <c r="U49" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U49" s="7" t="n">
+      <c r="V49" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V49" s="7" t="n">
+      <c r="W49" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W49" s="5" t="inlineStr">
+      <c r="X49" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X49" s="7" t="n">
+      <c r="Y49" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y49" s="5" t="inlineStr">
+      <c r="Z49" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z49" s="5" t="inlineStr"/>
-      <c r="AA49" s="6" t="n"/>
+      <c r="AA49" s="5" t="inlineStr"/>
+      <c r="AB49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="5" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="E50" s="5" t="n">
         <v>116093</v>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Binon-an ES</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="H50" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="J50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="L50" s="5" t="n">
         <v>227659.27</v>
       </c>
-      <c r="L50" s="5" t="inlineStr">
+      <c r="M50" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr">
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="5" t="inlineStr"/>
+      <c r="P50" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q50" s="5" t="inlineStr"/>
       <c r="R50" s="5" t="inlineStr"/>
       <c r="S50" s="5" t="inlineStr"/>
@@ -5201,776 +5353,800 @@
       <c r="X50" s="5" t="inlineStr"/>
       <c r="Y50" s="5" t="inlineStr"/>
       <c r="Z50" s="5" t="inlineStr"/>
-      <c r="AA50" s="6" t="n"/>
+      <c r="AA50" s="5" t="inlineStr"/>
+      <c r="AB50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="5" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="E51" s="5" t="n">
         <v>180021</v>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Sta. Ana PS</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="H51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="L51" s="5" t="n">
         <v>573926.58</v>
       </c>
-      <c r="L51" s="5" t="inlineStr">
+      <c r="M51" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M51" s="5" t="inlineStr"/>
-      <c r="N51" s="5" t="inlineStr">
+      <c r="N51" s="5" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="7" t="n">
+      <c r="P51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q51" s="7" t="n">
+      <c r="R51" s="7" t="n">
         <v>44995</v>
       </c>
-      <c r="R51" s="5" t="inlineStr">
+      <c r="S51" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S51" s="5" t="inlineStr">
+      <c r="T51" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T51" s="7" t="n">
+      <c r="U51" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U51" s="7" t="n">
+      <c r="V51" s="7" t="n">
         <v>44727</v>
       </c>
-      <c r="V51" s="7" t="n">
+      <c r="W51" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W51" s="5" t="inlineStr">
+      <c r="X51" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X51" s="7" t="n">
+      <c r="Y51" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y51" s="5" t="inlineStr">
+      <c r="Z51" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z51" s="5" t="inlineStr"/>
-      <c r="AA51" s="6" t="n"/>
+      <c r="AA51" s="5" t="inlineStr"/>
+      <c r="AB51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="5" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="E52" s="5" t="n">
         <v>116113</v>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>Ngingi-an PS</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="H52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="L52" s="5" t="n">
         <v>573926.58</v>
       </c>
-      <c r="L52" s="5" t="inlineStr">
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr">
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="7" t="n">
-        <v>45030</v>
+      <c r="P52" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q52" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R52" s="5" t="inlineStr">
+      <c r="R52" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S52" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S52" s="5" t="inlineStr">
+      <c r="T52" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T52" s="7" t="n">
+      <c r="U52" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U52" s="7" t="n">
+      <c r="V52" s="7" t="n">
         <v>44728</v>
       </c>
-      <c r="V52" s="7" t="n">
+      <c r="W52" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W52" s="5" t="inlineStr">
+      <c r="X52" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X52" s="7" t="n">
+      <c r="Y52" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y52" s="5" t="inlineStr">
+      <c r="Z52" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z52" s="5" t="inlineStr"/>
-      <c r="AA52" s="6" t="n"/>
+      <c r="AA52" s="5" t="inlineStr"/>
+      <c r="AB52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="5" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="E53" s="5" t="n">
         <v>116115</v>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>Quinar-upan Elementary School</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="H53" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H53" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="L53" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L53" s="5" t="inlineStr">
+      <c r="M53" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M53" s="5" t="inlineStr"/>
-      <c r="N53" s="5" t="inlineStr">
+      <c r="N53" s="5" t="inlineStr"/>
+      <c r="O53" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="7" t="n">
-        <v>45030</v>
+      <c r="P53" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q53" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R53" s="5" t="inlineStr">
+      <c r="R53" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S53" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S53" s="5" t="inlineStr">
+      <c r="T53" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T53" s="7" t="n">
+      <c r="U53" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U53" s="7" t="n">
+      <c r="V53" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V53" s="7" t="n">
+      <c r="W53" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W53" s="5" t="inlineStr">
+      <c r="X53" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X53" s="7" t="n">
+      <c r="Y53" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y53" s="5" t="inlineStr">
+      <c r="Z53" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z53" s="5" t="inlineStr"/>
-      <c r="AA53" s="6" t="n"/>
+      <c r="AA53" s="5" t="inlineStr"/>
+      <c r="AB53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="5" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="E54" s="5" t="n">
         <v>116116</v>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Tapacon Elementary School</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G54" s="5" t="n">
+      <c r="H54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="L54" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L54" s="5" t="inlineStr">
+      <c r="M54" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M54" s="5" t="inlineStr"/>
-      <c r="N54" s="5" t="inlineStr">
+      <c r="N54" s="5" t="inlineStr"/>
+      <c r="O54" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="7" t="n">
-        <v>45030</v>
+      <c r="P54" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q54" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R54" s="5" t="inlineStr">
+      <c r="R54" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S54" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S54" s="5" t="inlineStr">
+      <c r="T54" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T54" s="7" t="n">
+      <c r="U54" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U54" s="7" t="n">
+      <c r="V54" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V54" s="7" t="n">
+      <c r="W54" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W54" s="5" t="inlineStr">
+      <c r="X54" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X54" s="7" t="n">
+      <c r="Y54" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y54" s="5" t="inlineStr">
+      <c r="Z54" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z54" s="5" t="inlineStr"/>
-      <c r="AA54" s="6" t="n"/>
+      <c r="AA54" s="5" t="inlineStr"/>
+      <c r="AB54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="5" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="E55" s="5" t="n">
         <v>116601</v>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Janipa-an Elementary School</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="H55" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H55" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="L55" s="5" t="n">
         <v>558176.58</v>
       </c>
-      <c r="L55" s="5" t="inlineStr">
+      <c r="M55" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr">
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="7" t="n">
+      <c r="P55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q55" s="7" t="n">
+      <c r="R55" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R55" s="5" t="inlineStr">
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T55" s="7" t="n">
+      <c r="U55" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U55" s="7" t="n">
+      <c r="V55" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V55" s="7" t="n">
+      <c r="W55" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W55" s="5" t="inlineStr">
+      <c r="X55" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X55" s="7" t="n">
+      <c r="Y55" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y55" s="5" t="inlineStr">
+      <c r="Z55" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z55" s="5" t="inlineStr"/>
-      <c r="AA55" s="6" t="n"/>
+      <c r="AA55" s="5" t="inlineStr"/>
+      <c r="AB55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="5" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="E56" s="5" t="n">
         <v>116603</v>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Nasirum Elementary School</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="H56" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H56" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="L56" s="5" t="n">
         <v>558176.58</v>
       </c>
-      <c r="L56" s="5" t="inlineStr">
+      <c r="M56" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr">
+      <c r="N56" s="5" t="inlineStr"/>
+      <c r="O56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="7" t="n">
+      <c r="P56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q56" s="7" t="n">
+      <c r="R56" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R56" s="5" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S56" s="5" t="inlineStr">
+      <c r="T56" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T56" s="7" t="n">
+      <c r="U56" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U56" s="7" t="n">
+      <c r="V56" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V56" s="7" t="n">
+      <c r="W56" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W56" s="5" t="inlineStr">
+      <c r="X56" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X56" s="7" t="n">
+      <c r="Y56" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y56" s="5" t="inlineStr">
+      <c r="Z56" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z56" s="5" t="inlineStr"/>
-      <c r="AA56" s="6" t="n"/>
+      <c r="AA56" s="5" t="inlineStr"/>
+      <c r="AB56" s="6" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="5" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="E57" s="5" t="n">
         <v>137024</v>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Yugot Elementary School</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="H57" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H57" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="L57" s="5" t="n">
         <v>563426.58</v>
       </c>
-      <c r="L57" s="5" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr">
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="7" t="n">
+      <c r="P57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q57" s="7" t="n">
+      <c r="R57" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R57" s="5" t="inlineStr">
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S57" s="5" t="inlineStr">
+      <c r="T57" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T57" s="7" t="n">
+      <c r="U57" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U57" s="7" t="n">
+      <c r="V57" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V57" s="7" t="n">
+      <c r="W57" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W57" s="5" t="inlineStr">
+      <c r="X57" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X57" s="7" t="n">
+      <c r="Y57" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y57" s="5" t="inlineStr">
+      <c r="Z57" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z57" s="5" t="inlineStr"/>
-      <c r="AA57" s="6" t="n"/>
+      <c r="AA57" s="5" t="inlineStr"/>
+      <c r="AB57" s="6" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="5" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="E58" s="5" t="n">
         <v>116763</v>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Ilongbukid E/S</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>SAN RAFAEL</t>
         </is>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="H58" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H58" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="L58" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L58" s="5" t="inlineStr">
+      <c r="M58" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M58" s="5" t="inlineStr"/>
-      <c r="N58" s="5" t="inlineStr">
+      <c r="N58" s="5" t="inlineStr"/>
+      <c r="O58" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5" t="inlineStr"/>
+      <c r="P58" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q58" s="5" t="inlineStr"/>
       <c r="R58" s="5" t="inlineStr"/>
       <c r="S58" s="5" t="inlineStr"/>
@@ -5981,69 +6157,72 @@
       <c r="X58" s="5" t="inlineStr"/>
       <c r="Y58" s="5" t="inlineStr"/>
       <c r="Z58" s="5" t="inlineStr"/>
-      <c r="AA58" s="6" t="n"/>
+      <c r="AA58" s="5" t="inlineStr"/>
+      <c r="AB58" s="6" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="5" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="E59" s="5" t="n">
         <v>116767</v>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>San Florentino ES</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>SAN RAFAEL</t>
         </is>
       </c>
-      <c r="G59" s="5" t="n">
+      <c r="H59" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H59" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="L59" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L59" s="5" t="inlineStr">
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M59" s="5" t="inlineStr"/>
-      <c r="N59" s="5" t="inlineStr">
+      <c r="N59" s="5" t="inlineStr"/>
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="5" t="inlineStr"/>
+      <c r="P59" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q59" s="5" t="inlineStr"/>
       <c r="R59" s="5" t="inlineStr"/>
       <c r="S59" s="5" t="inlineStr"/>
@@ -6054,766 +6233,790 @@
       <c r="X59" s="5" t="inlineStr"/>
       <c r="Y59" s="5" t="inlineStr"/>
       <c r="Z59" s="5" t="inlineStr"/>
-      <c r="AA59" s="6" t="n"/>
+      <c r="AA59" s="5" t="inlineStr"/>
+      <c r="AB59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="5" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="E60" s="5" t="n">
         <v>115849</v>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Constancia Elementary School</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G60" s="5" t="n">
+      <c r="H60" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H60" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="J60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="L60" s="5" t="n">
         <v>2324096.02</v>
       </c>
-      <c r="L60" s="5" t="inlineStr">
+      <c r="M60" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" s="5" t="n">
+      <c r="N60" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N60" s="5" t="inlineStr">
+      <c r="O60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="7" t="n">
+      <c r="P60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q60" s="5" t="inlineStr"/>
-      <c r="R60" s="5" t="inlineStr">
+      <c r="R60" s="5" t="inlineStr"/>
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S60" s="5" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T60" s="7" t="n">
+      <c r="U60" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U60" s="7" t="n">
+      <c r="V60" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V60" s="7" t="n">
+      <c r="W60" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W60" s="7" t="n">
+      <c r="X60" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X60" s="7" t="n">
+      <c r="Y60" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y60" s="5" t="inlineStr">
+      <c r="Z60" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z60" s="5" t="inlineStr"/>
-      <c r="AA60" s="6" t="n"/>
+      <c r="AA60" s="5" t="inlineStr"/>
+      <c r="AB60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="5" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="E61" s="5" t="n">
         <v>115850</v>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Doña Lucia C. Locsin Memorial School</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G61" s="5" t="n">
+      <c r="H61" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H61" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="J61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="L61" s="5" t="n">
         <v>2361288.64</v>
       </c>
-      <c r="L61" s="5" t="inlineStr">
+      <c r="M61" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" s="5" t="n">
+      <c r="N61" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N61" s="5" t="inlineStr">
+      <c r="O61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="7" t="n">
+      <c r="P61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q61" s="5" t="inlineStr"/>
-      <c r="R61" s="5" t="inlineStr">
+      <c r="R61" s="5" t="inlineStr"/>
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S61" s="5" t="inlineStr">
+      <c r="T61" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T61" s="7" t="n">
+      <c r="U61" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U61" s="7" t="n">
+      <c r="V61" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V61" s="7" t="n">
+      <c r="W61" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W61" s="7" t="n">
+      <c r="X61" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X61" s="7" t="n">
+      <c r="Y61" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y61" s="5" t="inlineStr">
+      <c r="Z61" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z61" s="5" t="inlineStr"/>
-      <c r="AA61" s="6" t="n"/>
+      <c r="AA61" s="5" t="inlineStr"/>
+      <c r="AB61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="A62" s="5" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="E62" s="5" t="n">
         <v>115854</v>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>San Enrique  Elementary School</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G62" s="5" t="n">
+      <c r="H62" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H62" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J62" s="5" t="inlineStr">
+      <c r="J62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="L62" s="5" t="n">
         <v>2342692.33</v>
       </c>
-      <c r="L62" s="5" t="inlineStr">
+      <c r="M62" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" s="5" t="n">
+      <c r="N62" s="5" t="n">
         <v>2320995.12</v>
       </c>
-      <c r="N62" s="5" t="inlineStr">
+      <c r="O62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="7" t="n">
+      <c r="P62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q62" s="5" t="inlineStr"/>
-      <c r="R62" s="5" t="inlineStr">
+      <c r="R62" s="5" t="inlineStr"/>
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
         </is>
       </c>
-      <c r="S62" s="5" t="inlineStr">
+      <c r="T62" s="5" t="inlineStr">
         <is>
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T62" s="7" t="n">
+      <c r="U62" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U62" s="7" t="n">
+      <c r="V62" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V62" s="7" t="n">
+      <c r="W62" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W62" s="7" t="n">
+      <c r="X62" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X62" s="7" t="n">
+      <c r="Y62" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y62" s="5" t="inlineStr">
+      <c r="Z62" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z62" s="5" t="inlineStr"/>
-      <c r="AA62" s="6" t="n"/>
+      <c r="AA62" s="5" t="inlineStr"/>
+      <c r="AB62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="A63" s="5" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="E63" s="5" t="n">
         <v>302437</v>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>Dr. Catalino Gallego Nava Memorial High School</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G63" s="5" t="n">
+      <c r="H63" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H63" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J63" s="5" t="inlineStr">
+      <c r="J63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="L63" s="5" t="n">
         <v>2370586.79</v>
       </c>
-      <c r="L63" s="5" t="inlineStr">
+      <c r="M63" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" s="5" t="n">
+      <c r="N63" s="5" t="n">
         <v>2334753.36</v>
       </c>
-      <c r="N63" s="5" t="inlineStr">
+      <c r="O63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="7" t="n">
+      <c r="P63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q63" s="5" t="inlineStr"/>
-      <c r="R63" s="5" t="inlineStr">
+      <c r="R63" s="5" t="inlineStr"/>
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot 1</t>
         </is>
       </c>
-      <c r="S63" s="5" t="inlineStr">
+      <c r="T63" s="5" t="inlineStr">
         <is>
           <t>No.-04-A-2022</t>
         </is>
       </c>
-      <c r="T63" s="7" t="n">
+      <c r="U63" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U63" s="7" t="n">
+      <c r="V63" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V63" s="7" t="n">
+      <c r="W63" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W63" s="7" t="n">
+      <c r="X63" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X63" s="7" t="n">
+      <c r="Y63" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y63" s="5" t="inlineStr">
+      <c r="Z63" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z63" s="5" t="inlineStr"/>
-      <c r="AA63" s="6" t="n"/>
+      <c r="AA63" s="5" t="inlineStr"/>
+      <c r="AB63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="A64" s="5" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="D64" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="E64" s="5" t="n">
         <v>302439</v>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>Remedios E. Vilches-San Lorenzo National High School</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO</t>
         </is>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="H64" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H64" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J64" s="5" t="inlineStr">
+      <c r="J64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF CLINIC</t>
         </is>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="L64" s="5" t="n">
         <v>2351990.84</v>
       </c>
-      <c r="L64" s="5" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" s="5" t="n">
+      <c r="N64" s="5" t="n">
         <v>2320995.12</v>
       </c>
-      <c r="N64" s="5" t="inlineStr">
+      <c r="O64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7" t="n">
+      <c r="P64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="7" t="n">
         <v>44992</v>
       </c>
-      <c r="Q64" s="5" t="inlineStr"/>
-      <c r="R64" s="5" t="inlineStr">
+      <c r="R64" s="5" t="inlineStr"/>
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>05-2022-lot3</t>
         </is>
       </c>
-      <c r="S64" s="5" t="inlineStr">
+      <c r="T64" s="5" t="inlineStr">
         <is>
           <t>No.-03-B-2022</t>
         </is>
       </c>
-      <c r="T64" s="7" t="n">
+      <c r="U64" s="7" t="n">
         <v>44704</v>
       </c>
-      <c r="U64" s="7" t="n">
+      <c r="V64" s="7" t="n">
         <v>44721</v>
       </c>
-      <c r="V64" s="7" t="n">
+      <c r="W64" s="7" t="n">
         <v>44735</v>
       </c>
-      <c r="W64" s="7" t="n">
+      <c r="X64" s="7" t="n">
         <v>44743</v>
       </c>
-      <c r="X64" s="7" t="n">
+      <c r="Y64" s="7" t="n">
         <v>44837</v>
       </c>
-      <c r="Y64" s="5" t="inlineStr">
+      <c r="Z64" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="Z64" s="5" t="inlineStr"/>
-      <c r="AA64" s="6" t="n"/>
+      <c r="AA64" s="5" t="inlineStr"/>
+      <c r="AB64" s="6" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+      <c r="A65" s="5" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="D65" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D65" s="5" t="n">
+      <c r="E65" s="5" t="n">
         <v>116090</v>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
         <is>
           <t>Alapasco Primary School</t>
         </is>
       </c>
-      <c r="F65" s="5" t="inlineStr">
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G65" s="5" t="n">
+      <c r="H65" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J65" s="5" t="inlineStr">
+      <c r="K65" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="L65" s="5" t="n">
         <v>563426.58</v>
       </c>
-      <c r="L65" s="5" t="inlineStr">
+      <c r="M65" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M65" s="5" t="inlineStr"/>
-      <c r="N65" s="5" t="inlineStr">
+      <c r="N65" s="5" t="inlineStr"/>
+      <c r="O65" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="7" t="n">
+      <c r="P65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q65" s="7" t="n">
+      <c r="R65" s="7" t="n">
         <v>44995</v>
       </c>
-      <c r="R65" s="5" t="inlineStr">
+      <c r="S65" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S65" s="5" t="inlineStr">
+      <c r="T65" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T65" s="7" t="n">
+      <c r="U65" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U65" s="7" t="n">
+      <c r="V65" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V65" s="7" t="n">
+      <c r="W65" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W65" s="5" t="inlineStr">
+      <c r="X65" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X65" s="7" t="n">
+      <c r="Y65" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y65" s="5" t="inlineStr">
+      <c r="Z65" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z65" s="5" t="inlineStr"/>
-      <c r="AA65" s="6" t="n"/>
+      <c r="AA65" s="5" t="inlineStr"/>
+      <c r="AB65" s="6" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="inlineStr">
+      <c r="A66" s="5" t="n">
+        <v>1349</v>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C66" s="5" t="inlineStr">
+      <c r="D66" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D66" s="5" t="n">
+      <c r="E66" s="5" t="n">
         <v>116091</v>
       </c>
-      <c r="E66" s="5" t="inlineStr">
+      <c r="F66" s="5" t="inlineStr">
         <is>
           <t>Banban PS</t>
         </is>
       </c>
-      <c r="F66" s="5" t="inlineStr">
+      <c r="G66" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G66" s="5" t="n">
+      <c r="H66" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H66" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J66" s="5" t="inlineStr">
+      <c r="K66" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="L66" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L66" s="5" t="inlineStr">
+      <c r="M66" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M66" s="5" t="inlineStr"/>
-      <c r="N66" s="5" t="inlineStr">
+      <c r="N66" s="5" t="inlineStr"/>
+      <c r="O66" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="7" t="n">
+      <c r="P66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q66" s="7" t="n">
+      <c r="R66" s="7" t="n">
         <v>45107</v>
       </c>
-      <c r="R66" s="5" t="inlineStr">
+      <c r="S66" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S66" s="5" t="inlineStr">
+      <c r="T66" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T66" s="7" t="n">
+      <c r="U66" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U66" s="7" t="n">
+      <c r="V66" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V66" s="7" t="n">
+      <c r="W66" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W66" s="5" t="inlineStr">
+      <c r="X66" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X66" s="7" t="n">
+      <c r="Y66" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y66" s="5" t="inlineStr">
+      <c r="Z66" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z66" s="5" t="inlineStr"/>
-      <c r="AA66" s="6" t="n"/>
+      <c r="AA66" s="5" t="inlineStr"/>
+      <c r="AB66" s="6" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="inlineStr">
+      <c r="A67" s="5" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
+      <c r="D67" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D67" s="5" t="n">
+      <c r="E67" s="5" t="n">
         <v>116093</v>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="F67" s="5" t="inlineStr">
         <is>
           <t>Binon-an ES</t>
         </is>
       </c>
-      <c r="F67" s="5" t="inlineStr">
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Batad</t>
         </is>
       </c>
-      <c r="G67" s="5" t="n">
+      <c r="H67" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H67" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH)</t>
         </is>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="L67" s="5" t="n">
         <v>227659.27</v>
       </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr"/>
-      <c r="N67" s="5" t="inlineStr">
+      <c r="N67" s="5" t="inlineStr"/>
+      <c r="O67" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="5" t="inlineStr"/>
+      <c r="P67" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q67" s="5" t="inlineStr"/>
       <c r="R67" s="5" t="inlineStr"/>
       <c r="S67" s="5" t="inlineStr"/>
@@ -6824,776 +7027,800 @@
       <c r="X67" s="5" t="inlineStr"/>
       <c r="Y67" s="5" t="inlineStr"/>
       <c r="Z67" s="5" t="inlineStr"/>
-      <c r="AA67" s="6" t="n"/>
+      <c r="AA67" s="5" t="inlineStr"/>
+      <c r="AB67" s="6" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="inlineStr">
+      <c r="A68" s="5" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
+      <c r="D68" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D68" s="5" t="n">
+      <c r="E68" s="5" t="n">
         <v>180021</v>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="F68" s="5" t="inlineStr">
         <is>
           <t>Sta. Ana PS</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
+      <c r="G68" s="5" t="inlineStr">
         <is>
           <t>BATAD</t>
         </is>
       </c>
-      <c r="G68" s="5" t="n">
+      <c r="H68" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H68" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J68" s="5" t="inlineStr">
+      <c r="K68" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="L68" s="5" t="n">
         <v>573926.58</v>
       </c>
-      <c r="L68" s="5" t="inlineStr">
+      <c r="M68" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" s="5" t="inlineStr"/>
-      <c r="N68" s="5" t="inlineStr">
+      <c r="N68" s="5" t="inlineStr"/>
+      <c r="O68" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" s="7" t="n">
+      <c r="P68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="7" t="n">
         <v>45022</v>
       </c>
-      <c r="Q68" s="7" t="n">
+      <c r="R68" s="7" t="n">
         <v>44995</v>
       </c>
-      <c r="R68" s="5" t="inlineStr">
+      <c r="S68" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="S68" s="5" t="inlineStr">
+      <c r="T68" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L1</t>
         </is>
       </c>
-      <c r="T68" s="7" t="n">
+      <c r="U68" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U68" s="7" t="n">
+      <c r="V68" s="7" t="n">
         <v>44727</v>
       </c>
-      <c r="V68" s="7" t="n">
+      <c r="W68" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W68" s="5" t="inlineStr">
+      <c r="X68" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X68" s="7" t="n">
+      <c r="Y68" s="7" t="n">
         <v>44902</v>
       </c>
-      <c r="Y68" s="5" t="inlineStr">
+      <c r="Z68" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="Z68" s="5" t="inlineStr"/>
-      <c r="AA68" s="6" t="n"/>
+      <c r="AA68" s="5" t="inlineStr"/>
+      <c r="AB68" s="6" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="inlineStr">
+      <c r="A69" s="5" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D69" s="5" t="n">
+      <c r="E69" s="5" t="n">
         <v>116113</v>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
         <is>
           <t>Ngingi-an PS</t>
         </is>
       </c>
-      <c r="F69" s="5" t="inlineStr">
+      <c r="G69" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G69" s="5" t="n">
+      <c r="H69" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H69" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J69" s="5" t="inlineStr">
+      <c r="K69" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K69" s="5" t="n">
+      <c r="L69" s="5" t="n">
         <v>573926.58</v>
       </c>
-      <c r="L69" s="5" t="inlineStr">
+      <c r="M69" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M69" s="5" t="inlineStr"/>
-      <c r="N69" s="5" t="inlineStr">
+      <c r="N69" s="5" t="inlineStr"/>
+      <c r="O69" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="7" t="n">
-        <v>45030</v>
+      <c r="P69" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q69" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R69" s="5" t="inlineStr">
+      <c r="R69" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S69" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S69" s="5" t="inlineStr">
+      <c r="T69" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T69" s="7" t="n">
+      <c r="U69" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U69" s="7" t="n">
+      <c r="V69" s="7" t="n">
         <v>44728</v>
       </c>
-      <c r="V69" s="7" t="n">
+      <c r="W69" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W69" s="5" t="inlineStr">
+      <c r="X69" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X69" s="7" t="n">
+      <c r="Y69" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y69" s="5" t="inlineStr">
+      <c r="Z69" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z69" s="5" t="inlineStr"/>
-      <c r="AA69" s="6" t="n"/>
+      <c r="AA69" s="5" t="inlineStr"/>
+      <c r="AB69" s="6" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="A70" s="5" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr">
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D70" s="5" t="n">
+      <c r="E70" s="5" t="n">
         <v>116115</v>
       </c>
-      <c r="E70" s="5" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
         <is>
           <t>Quinar-upan Elementary School</t>
         </is>
       </c>
-      <c r="F70" s="5" t="inlineStr">
+      <c r="G70" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G70" s="5" t="n">
+      <c r="H70" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H70" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J70" s="5" t="inlineStr">
+      <c r="K70" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K70" s="5" t="n">
+      <c r="L70" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L70" s="5" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr"/>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr"/>
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="7" t="n">
-        <v>45030</v>
+      <c r="P70" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q70" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R70" s="5" t="inlineStr">
+      <c r="R70" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S70" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S70" s="5" t="inlineStr">
+      <c r="T70" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T70" s="7" t="n">
+      <c r="U70" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U70" s="7" t="n">
+      <c r="V70" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V70" s="7" t="n">
+      <c r="W70" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W70" s="5" t="inlineStr">
+      <c r="X70" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X70" s="7" t="n">
+      <c r="Y70" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y70" s="5" t="inlineStr">
+      <c r="Z70" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z70" s="5" t="inlineStr"/>
-      <c r="AA70" s="6" t="n"/>
+      <c r="AA70" s="5" t="inlineStr"/>
+      <c r="AB70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
+      <c r="A71" s="5" t="n">
+        <v>1354</v>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D71" s="5" t="n">
+      <c r="E71" s="5" t="n">
         <v>116116</v>
       </c>
-      <c r="E71" s="5" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
         <is>
           <t>Tapacon Elementary School</t>
         </is>
       </c>
-      <c r="F71" s="5" t="inlineStr">
+      <c r="G71" s="5" t="inlineStr">
         <is>
           <t>BINGAWAN</t>
         </is>
       </c>
-      <c r="G71" s="5" t="n">
+      <c r="H71" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H71" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J71" s="5" t="inlineStr">
+      <c r="K71" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K71" s="5" t="n">
+      <c r="L71" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L71" s="5" t="inlineStr">
+      <c r="M71" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M71" s="5" t="inlineStr"/>
-      <c r="N71" s="5" t="inlineStr">
+      <c r="N71" s="5" t="inlineStr"/>
+      <c r="O71" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O71" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="7" t="n">
-        <v>45030</v>
+      <c r="P71" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q71" s="7" t="n">
         <v>45030</v>
       </c>
-      <c r="R71" s="5" t="inlineStr">
+      <c r="R71" s="7" t="n">
+        <v>45030</v>
+      </c>
+      <c r="S71" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="S71" s="5" t="inlineStr">
+      <c r="T71" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L2</t>
         </is>
       </c>
-      <c r="T71" s="7" t="n">
+      <c r="U71" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U71" s="7" t="n">
+      <c r="V71" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V71" s="7" t="n">
+      <c r="W71" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W71" s="5" t="inlineStr">
+      <c r="X71" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X71" s="7" t="n">
+      <c r="Y71" s="7" t="n">
         <v>44910</v>
       </c>
-      <c r="Y71" s="5" t="inlineStr">
+      <c r="Z71" s="5" t="inlineStr">
         <is>
           <t>WILKINSON CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z71" s="5" t="inlineStr"/>
-      <c r="AA71" s="6" t="n"/>
+      <c r="AA71" s="5" t="inlineStr"/>
+      <c r="AB71" s="6" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
+      <c r="A72" s="5" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D72" s="5" t="n">
+      <c r="E72" s="5" t="n">
         <v>116601</v>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
         <is>
           <t>Janipa-an Elementary School</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
+      <c r="G72" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G72" s="5" t="n">
+      <c r="H72" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H72" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J72" s="5" t="inlineStr">
+      <c r="K72" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K72" s="5" t="n">
+      <c r="L72" s="5" t="n">
         <v>558176.58</v>
       </c>
-      <c r="L72" s="5" t="inlineStr">
+      <c r="M72" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M72" s="5" t="inlineStr"/>
-      <c r="N72" s="5" t="inlineStr">
+      <c r="N72" s="5" t="inlineStr"/>
+      <c r="O72" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O72" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" s="7" t="n">
+      <c r="P72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q72" s="7" t="n">
+      <c r="R72" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R72" s="5" t="inlineStr">
+      <c r="S72" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S72" s="5" t="inlineStr">
+      <c r="T72" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T72" s="7" t="n">
+      <c r="U72" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U72" s="7" t="n">
+      <c r="V72" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V72" s="7" t="n">
+      <c r="W72" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W72" s="5" t="inlineStr">
+      <c r="X72" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X72" s="7" t="n">
+      <c r="Y72" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y72" s="5" t="inlineStr">
+      <c r="Z72" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z72" s="5" t="inlineStr"/>
-      <c r="AA72" s="6" t="n"/>
+      <c r="AA72" s="5" t="inlineStr"/>
+      <c r="AB72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
+      <c r="A73" s="5" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D73" s="5" t="n">
+      <c r="E73" s="5" t="n">
         <v>116603</v>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
         <is>
           <t>Nasirum Elementary School</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
+      <c r="G73" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G73" s="5" t="n">
+      <c r="H73" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J73" s="5" t="inlineStr">
+      <c r="K73" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K73" s="5" t="n">
+      <c r="L73" s="5" t="n">
         <v>558176.58</v>
       </c>
-      <c r="L73" s="5" t="inlineStr">
+      <c r="M73" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M73" s="5" t="inlineStr"/>
-      <c r="N73" s="5" t="inlineStr">
+      <c r="N73" s="5" t="inlineStr"/>
+      <c r="O73" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O73" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P73" s="7" t="n">
+      <c r="P73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q73" s="7" t="n">
+      <c r="R73" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R73" s="5" t="inlineStr">
+      <c r="S73" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S73" s="5" t="inlineStr">
+      <c r="T73" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T73" s="7" t="n">
+      <c r="U73" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U73" s="7" t="n">
+      <c r="V73" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V73" s="7" t="n">
+      <c r="W73" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W73" s="5" t="inlineStr">
+      <c r="X73" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X73" s="7" t="n">
+      <c r="Y73" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y73" s="5" t="inlineStr">
+      <c r="Z73" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z73" s="5" t="inlineStr"/>
-      <c r="AA73" s="6" t="n"/>
+      <c r="AA73" s="5" t="inlineStr"/>
+      <c r="AB73" s="6" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
+      <c r="A74" s="5" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="C74" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C74" s="5" t="inlineStr">
+      <c r="D74" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D74" s="5" t="n">
+      <c r="E74" s="5" t="n">
         <v>137024</v>
       </c>
-      <c r="E74" s="5" t="inlineStr">
+      <c r="F74" s="5" t="inlineStr">
         <is>
           <t>Yugot Elementary School</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
+      <c r="G74" s="5" t="inlineStr">
         <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="G74" s="5" t="n">
+      <c r="H74" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H74" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J74" s="5" t="inlineStr">
+      <c r="K74" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K74" s="5" t="n">
+      <c r="L74" s="5" t="n">
         <v>563426.58</v>
       </c>
-      <c r="L74" s="5" t="inlineStr">
+      <c r="M74" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M74" s="5" t="inlineStr"/>
-      <c r="N74" s="5" t="inlineStr">
+      <c r="N74" s="5" t="inlineStr"/>
+      <c r="O74" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O74" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="7" t="n">
+      <c r="P74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="7" t="n">
         <v>45028</v>
       </c>
-      <c r="Q74" s="7" t="n">
+      <c r="R74" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="R74" s="5" t="inlineStr">
+      <c r="S74" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="S74" s="5" t="inlineStr">
+      <c r="T74" s="5" t="inlineStr">
         <is>
           <t>BEFF-2022-RVI-022-ILOILO-WATSAN-B2-L3</t>
         </is>
       </c>
-      <c r="T74" s="7" t="n">
+      <c r="U74" s="7" t="n">
         <v>44715</v>
       </c>
-      <c r="U74" s="7" t="n">
+      <c r="V74" s="7" t="n">
         <v>44726</v>
       </c>
-      <c r="V74" s="7" t="n">
+      <c r="W74" s="7" t="n">
         <v>44739</v>
       </c>
-      <c r="W74" s="5" t="inlineStr">
+      <c r="X74" s="5" t="inlineStr">
         <is>
           <t>Aug. 08, 2022</t>
         </is>
       </c>
-      <c r="X74" s="7" t="n">
+      <c r="Y74" s="7" t="n">
         <v>44908</v>
       </c>
-      <c r="Y74" s="5" t="inlineStr">
+      <c r="Z74" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z74" s="5" t="inlineStr"/>
-      <c r="AA74" s="6" t="n"/>
+      <c r="AA74" s="5" t="inlineStr"/>
+      <c r="AB74" s="6" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="inlineStr">
+      <c r="A75" s="5" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="C75" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C75" s="5" t="inlineStr">
+      <c r="D75" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D75" s="5" t="n">
+      <c r="E75" s="5" t="n">
         <v>116763</v>
       </c>
-      <c r="E75" s="5" t="inlineStr">
+      <c r="F75" s="5" t="inlineStr">
         <is>
           <t>Ilongbukid E/S</t>
         </is>
       </c>
-      <c r="F75" s="5" t="inlineStr">
+      <c r="G75" s="5" t="inlineStr">
         <is>
           <t>SAN RAFAEL</t>
         </is>
       </c>
-      <c r="G75" s="5" t="n">
+      <c r="H75" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J75" s="5" t="inlineStr">
+      <c r="K75" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K75" s="5" t="n">
+      <c r="L75" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L75" s="5" t="inlineStr">
+      <c r="M75" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M75" s="5" t="inlineStr"/>
-      <c r="N75" s="5" t="inlineStr">
+      <c r="N75" s="5" t="inlineStr"/>
+      <c r="O75" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O75" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P75" s="5" t="inlineStr"/>
+      <c r="P75" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q75" s="5" t="inlineStr"/>
       <c r="R75" s="5" t="inlineStr"/>
       <c r="S75" s="5" t="inlineStr"/>
@@ -7604,69 +7831,72 @@
       <c r="X75" s="5" t="inlineStr"/>
       <c r="Y75" s="5" t="inlineStr"/>
       <c r="Z75" s="5" t="inlineStr"/>
-      <c r="AA75" s="6" t="n"/>
+      <c r="AA75" s="5" t="inlineStr"/>
+      <c r="AB75" s="6" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="inlineStr">
+      <c r="A76" s="5" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="C76" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C76" s="5" t="inlineStr">
+      <c r="D76" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D76" s="5" t="n">
+      <c r="E76" s="5" t="n">
         <v>116767</v>
       </c>
-      <c r="E76" s="5" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
         <is>
           <t>San Florentino ES</t>
         </is>
       </c>
-      <c r="F76" s="5" t="inlineStr">
+      <c r="G76" s="5" t="inlineStr">
         <is>
           <t>SAN RAFAEL</t>
         </is>
       </c>
-      <c r="G76" s="5" t="n">
+      <c r="H76" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H76" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J76" s="5" t="inlineStr">
+      <c r="K76" s="5" t="inlineStr">
         <is>
           <t>Proposed Construction of Water Facilities- Four (4) Seaters</t>
         </is>
       </c>
-      <c r="K76" s="5" t="n">
+      <c r="L76" s="5" t="n">
         <v>568676.58</v>
       </c>
-      <c r="L76" s="5" t="inlineStr">
+      <c r="M76" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M76" s="5" t="inlineStr"/>
-      <c r="N76" s="5" t="inlineStr">
+      <c r="N76" s="5" t="inlineStr"/>
+      <c r="O76" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O76" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P76" s="5" t="inlineStr"/>
+      <c r="P76" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q76" s="5" t="inlineStr"/>
       <c r="R76" s="5" t="inlineStr"/>
       <c r="S76" s="5" t="inlineStr"/>
@@ -7677,11 +7907,12 @@
       <c r="X76" s="5" t="inlineStr"/>
       <c r="Y76" s="5" t="inlineStr"/>
       <c r="Z76" s="5" t="inlineStr"/>
-      <c r="AA76" s="6" t="n"/>
+      <c r="AA76" s="5" t="inlineStr"/>
+      <c r="AB76" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
